--- a/app/report/Base_Doc.xlsx
+++ b/app/report/Base_Doc.xlsx
@@ -294,12 +294,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Oswald"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Oswald"/>
@@ -366,7 +360,14 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Oswald"/>
       <family val="0"/>
       <charset val="1"/>
@@ -374,7 +375,7 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Oswald"/>
       <family val="0"/>
       <charset val="1"/>
@@ -688,7 +689,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="138">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -805,7 +806,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -845,15 +846,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -865,7 +866,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -873,7 +874,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -881,11 +882,11 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="19" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -893,7 +894,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -909,19 +910,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="16" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="16" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -929,7 +930,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -941,7 +942,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -949,7 +950,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -957,7 +958,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -973,8 +974,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -985,7 +986,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -993,40 +994,28 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1037,7 +1026,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1045,16 +1034,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1073,6 +1074,10 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1089,7 +1094,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1097,23 +1102,23 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1149,7 +1154,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1157,11 +1162,11 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1169,19 +1174,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="172" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1205,15 +1210,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1229,7 +1234,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1463,8 +1468,8 @@
   </sheetPr>
   <dimension ref="A1:GO1008"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BF1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="GE4" activeCellId="0" sqref="GE4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8:C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -4257,7 +4262,7 @@
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A15" s="33"/>
       <c r="B15" s="57"/>
-      <c r="C15" s="58"/>
+      <c r="C15" s="71"/>
       <c r="D15" s="59"/>
       <c r="E15" s="59"/>
       <c r="F15" s="59"/>
@@ -5949,17 +5954,17 @@
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A24" s="76"/>
       <c r="B24" s="57"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
       <c r="I24" s="60"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="78"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
       <c r="N24" s="65"/>
       <c r="O24" s="65"/>
       <c r="P24" s="65"/>
@@ -6015,7 +6020,7 @@
       <c r="BN24" s="65"/>
       <c r="BO24" s="65"/>
       <c r="BP24" s="65"/>
-      <c r="BQ24" s="80"/>
+      <c r="BQ24" s="79"/>
       <c r="BR24" s="65"/>
       <c r="BS24" s="65"/>
       <c r="BT24" s="65"/>
@@ -6138,15 +6143,15 @@
       <c r="A25" s="76"/>
       <c r="B25" s="57"/>
       <c r="C25" s="71"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
       <c r="I25" s="75"/>
       <c r="J25" s="59"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="77"/>
       <c r="M25" s="59"/>
       <c r="N25" s="65"/>
       <c r="O25" s="65"/>
@@ -6203,7 +6208,7 @@
       <c r="BN25" s="62"/>
       <c r="BO25" s="62"/>
       <c r="BP25" s="62"/>
-      <c r="BQ25" s="80"/>
+      <c r="BQ25" s="79"/>
       <c r="BR25" s="67"/>
       <c r="BS25" s="62"/>
       <c r="BT25" s="62"/>
@@ -6326,15 +6331,15 @@
       <c r="A26" s="76"/>
       <c r="B26" s="57"/>
       <c r="C26" s="71"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
       <c r="I26" s="75"/>
       <c r="J26" s="59"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="77"/>
       <c r="M26" s="59"/>
       <c r="N26" s="65"/>
       <c r="O26" s="65"/>
@@ -6391,7 +6396,7 @@
       <c r="BN26" s="62"/>
       <c r="BO26" s="62"/>
       <c r="BP26" s="62"/>
-      <c r="BQ26" s="80"/>
+      <c r="BQ26" s="79"/>
       <c r="BR26" s="67"/>
       <c r="BS26" s="62"/>
       <c r="BT26" s="62"/>
@@ -6514,15 +6519,15 @@
       <c r="A27" s="76"/>
       <c r="B27" s="57"/>
       <c r="C27" s="71"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
       <c r="I27" s="75"/>
       <c r="J27" s="59"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="77"/>
       <c r="M27" s="59"/>
       <c r="N27" s="65"/>
       <c r="O27" s="65"/>
@@ -6579,7 +6584,7 @@
       <c r="BN27" s="62"/>
       <c r="BO27" s="62"/>
       <c r="BP27" s="62"/>
-      <c r="BQ27" s="80"/>
+      <c r="BQ27" s="79"/>
       <c r="BR27" s="67"/>
       <c r="BS27" s="62"/>
       <c r="BT27" s="62"/>
@@ -6702,15 +6707,15 @@
       <c r="A28" s="76"/>
       <c r="B28" s="57"/>
       <c r="C28" s="71"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
       <c r="I28" s="75"/>
       <c r="J28" s="59"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="77"/>
       <c r="M28" s="59"/>
       <c r="N28" s="65"/>
       <c r="O28" s="65"/>
@@ -6767,7 +6772,7 @@
       <c r="BN28" s="62"/>
       <c r="BO28" s="62"/>
       <c r="BP28" s="62"/>
-      <c r="BQ28" s="80"/>
+      <c r="BQ28" s="79"/>
       <c r="BR28" s="65"/>
       <c r="BS28" s="62"/>
       <c r="BT28" s="62"/>
@@ -6890,15 +6895,15 @@
       <c r="A29" s="76"/>
       <c r="B29" s="57"/>
       <c r="C29" s="71"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
       <c r="I29" s="75"/>
       <c r="J29" s="59"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="77"/>
       <c r="M29" s="59"/>
       <c r="N29" s="65"/>
       <c r="O29" s="65"/>
@@ -6955,7 +6960,7 @@
       <c r="BN29" s="62"/>
       <c r="BO29" s="62"/>
       <c r="BP29" s="62"/>
-      <c r="BQ29" s="80"/>
+      <c r="BQ29" s="79"/>
       <c r="BR29" s="67"/>
       <c r="BS29" s="65"/>
       <c r="BT29" s="65"/>
@@ -7078,15 +7083,15 @@
       <c r="A30" s="76"/>
       <c r="B30" s="57"/>
       <c r="C30" s="71"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
       <c r="I30" s="75"/>
       <c r="J30" s="59"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="77"/>
       <c r="M30" s="59"/>
       <c r="N30" s="65"/>
       <c r="O30" s="65"/>
@@ -7143,7 +7148,7 @@
       <c r="BN30" s="62"/>
       <c r="BO30" s="62"/>
       <c r="BP30" s="62"/>
-      <c r="BQ30" s="80"/>
+      <c r="BQ30" s="79"/>
       <c r="BR30" s="65"/>
       <c r="BS30" s="65"/>
       <c r="BT30" s="65"/>
@@ -7266,15 +7271,15 @@
       <c r="A31" s="76"/>
       <c r="B31" s="57"/>
       <c r="C31" s="71"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
       <c r="I31" s="75"/>
       <c r="J31" s="59"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="77"/>
       <c r="M31" s="59"/>
       <c r="N31" s="65"/>
       <c r="O31" s="65"/>
@@ -7331,7 +7336,7 @@
       <c r="BN31" s="62"/>
       <c r="BO31" s="62"/>
       <c r="BP31" s="62"/>
-      <c r="BQ31" s="80"/>
+      <c r="BQ31" s="79"/>
       <c r="BR31" s="65"/>
       <c r="BS31" s="65"/>
       <c r="BT31" s="65"/>
@@ -7454,15 +7459,15 @@
       <c r="A32" s="76"/>
       <c r="B32" s="57"/>
       <c r="C32" s="71"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
       <c r="I32" s="75"/>
       <c r="J32" s="59"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="77"/>
       <c r="M32" s="59"/>
       <c r="N32" s="65"/>
       <c r="O32" s="65"/>
@@ -7519,7 +7524,7 @@
       <c r="BN32" s="62"/>
       <c r="BO32" s="62"/>
       <c r="BP32" s="62"/>
-      <c r="BQ32" s="80"/>
+      <c r="BQ32" s="79"/>
       <c r="BR32" s="65"/>
       <c r="BS32" s="65"/>
       <c r="BT32" s="65"/>
@@ -7641,17 +7646,17 @@
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A33" s="76"/>
       <c r="B33" s="57"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
       <c r="I33" s="60"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="78"/>
-      <c r="M33" s="78"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="77"/>
       <c r="N33" s="65"/>
       <c r="O33" s="65"/>
       <c r="P33" s="65"/>
@@ -7707,7 +7712,7 @@
       <c r="BN33" s="65"/>
       <c r="BO33" s="65"/>
       <c r="BP33" s="65"/>
-      <c r="BQ33" s="80"/>
+      <c r="BQ33" s="79"/>
       <c r="BR33" s="65"/>
       <c r="BS33" s="65"/>
       <c r="BT33" s="65"/>
@@ -7829,16 +7834,16 @@
     <row r="34" customFormat="false" ht="46.25" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A34" s="76"/>
       <c r="B34" s="57"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
       <c r="I34" s="59"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="78"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="78"/>
+      <c r="L34" s="77"/>
       <c r="M34" s="59"/>
       <c r="N34" s="65"/>
       <c r="O34" s="65"/>
@@ -7895,7 +7900,7 @@
       <c r="BN34" s="62"/>
       <c r="BO34" s="62"/>
       <c r="BP34" s="62"/>
-      <c r="BQ34" s="80"/>
+      <c r="BQ34" s="79"/>
       <c r="BR34" s="67"/>
       <c r="BS34" s="62"/>
       <c r="BT34" s="62"/>
@@ -8017,16 +8022,16 @@
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A35" s="76"/>
       <c r="B35" s="57"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
       <c r="I35" s="59"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="78"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="77"/>
       <c r="M35" s="59"/>
       <c r="N35" s="65"/>
       <c r="O35" s="65"/>
@@ -8083,7 +8088,7 @@
       <c r="BN35" s="62"/>
       <c r="BO35" s="62"/>
       <c r="BP35" s="62"/>
-      <c r="BQ35" s="80"/>
+      <c r="BQ35" s="79"/>
       <c r="BR35" s="67"/>
       <c r="BS35" s="62"/>
       <c r="BT35" s="62"/>
@@ -8205,16 +8210,16 @@
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A36" s="76"/>
       <c r="B36" s="57"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="78"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
       <c r="I36" s="59"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="78"/>
+      <c r="J36" s="77"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="77"/>
       <c r="M36" s="59"/>
       <c r="N36" s="65"/>
       <c r="O36" s="65"/>
@@ -8271,7 +8276,7 @@
       <c r="BN36" s="62"/>
       <c r="BO36" s="62"/>
       <c r="BP36" s="62"/>
-      <c r="BQ36" s="80"/>
+      <c r="BQ36" s="79"/>
       <c r="BR36" s="67"/>
       <c r="BS36" s="62"/>
       <c r="BT36" s="62"/>
@@ -8393,16 +8398,16 @@
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A37" s="76"/>
       <c r="B37" s="57"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
       <c r="I37" s="59"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="78"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="77"/>
       <c r="M37" s="59"/>
       <c r="N37" s="65"/>
       <c r="O37" s="65"/>
@@ -8459,7 +8464,7 @@
       <c r="BN37" s="62"/>
       <c r="BO37" s="62"/>
       <c r="BP37" s="62"/>
-      <c r="BQ37" s="80"/>
+      <c r="BQ37" s="79"/>
       <c r="BR37" s="65"/>
       <c r="BS37" s="62"/>
       <c r="BT37" s="62"/>
@@ -8581,16 +8586,16 @@
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A38" s="76"/>
       <c r="B38" s="57"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
       <c r="I38" s="59"/>
-      <c r="J38" s="78"/>
-      <c r="K38" s="79"/>
-      <c r="L38" s="78"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="77"/>
       <c r="M38" s="59"/>
       <c r="N38" s="65"/>
       <c r="O38" s="65"/>
@@ -8647,7 +8652,7 @@
       <c r="BN38" s="62"/>
       <c r="BO38" s="62"/>
       <c r="BP38" s="62"/>
-      <c r="BQ38" s="80"/>
+      <c r="BQ38" s="79"/>
       <c r="BR38" s="67"/>
       <c r="BS38" s="62"/>
       <c r="BT38" s="62"/>
@@ -8769,16 +8774,16 @@
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A39" s="76"/>
       <c r="B39" s="57"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="78"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="77"/>
       <c r="I39" s="59"/>
       <c r="J39" s="59"/>
-      <c r="K39" s="79"/>
-      <c r="L39" s="78"/>
+      <c r="K39" s="78"/>
+      <c r="L39" s="77"/>
       <c r="M39" s="59"/>
       <c r="N39" s="65"/>
       <c r="O39" s="65"/>
@@ -8835,7 +8840,7 @@
       <c r="BN39" s="62"/>
       <c r="BO39" s="62"/>
       <c r="BP39" s="62"/>
-      <c r="BQ39" s="80"/>
+      <c r="BQ39" s="79"/>
       <c r="BR39" s="65"/>
       <c r="BS39" s="65"/>
       <c r="BT39" s="65"/>
@@ -8957,16 +8962,16 @@
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A40" s="76"/>
       <c r="B40" s="57"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="78"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="77"/>
       <c r="I40" s="59"/>
       <c r="J40" s="59"/>
-      <c r="K40" s="79"/>
-      <c r="L40" s="78"/>
+      <c r="K40" s="78"/>
+      <c r="L40" s="77"/>
       <c r="M40" s="59"/>
       <c r="N40" s="65"/>
       <c r="O40" s="65"/>
@@ -9023,7 +9028,7 @@
       <c r="BN40" s="62"/>
       <c r="BO40" s="62"/>
       <c r="BP40" s="62"/>
-      <c r="BQ40" s="80"/>
+      <c r="BQ40" s="79"/>
       <c r="BR40" s="65"/>
       <c r="BS40" s="65"/>
       <c r="BT40" s="65"/>
@@ -9145,16 +9150,16 @@
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A41" s="76"/>
       <c r="B41" s="57"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="78"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="77"/>
       <c r="I41" s="59"/>
       <c r="J41" s="59"/>
-      <c r="K41" s="79"/>
-      <c r="L41" s="78"/>
+      <c r="K41" s="78"/>
+      <c r="L41" s="77"/>
       <c r="M41" s="59"/>
       <c r="N41" s="65"/>
       <c r="O41" s="65"/>
@@ -9211,7 +9216,7 @@
       <c r="BN41" s="62"/>
       <c r="BO41" s="62"/>
       <c r="BP41" s="62"/>
-      <c r="BQ41" s="80"/>
+      <c r="BQ41" s="79"/>
       <c r="BR41" s="65"/>
       <c r="BS41" s="65"/>
       <c r="BT41" s="65"/>
@@ -9333,16 +9338,16 @@
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A42" s="76"/>
       <c r="B42" s="57"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="78"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="77"/>
       <c r="I42" s="59"/>
       <c r="J42" s="59"/>
-      <c r="K42" s="79"/>
-      <c r="L42" s="78"/>
+      <c r="K42" s="78"/>
+      <c r="L42" s="77"/>
       <c r="M42" s="59"/>
       <c r="N42" s="65"/>
       <c r="O42" s="65"/>
@@ -9399,7 +9404,7 @@
       <c r="BN42" s="62"/>
       <c r="BO42" s="62"/>
       <c r="BP42" s="62"/>
-      <c r="BQ42" s="80"/>
+      <c r="BQ42" s="79"/>
       <c r="BR42" s="67"/>
       <c r="BS42" s="65"/>
       <c r="BT42" s="65"/>
@@ -9521,13 +9526,13 @@
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A43" s="76"/>
       <c r="B43" s="57"/>
-      <c r="C43" s="58"/>
+      <c r="C43" s="71"/>
       <c r="D43" s="59"/>
       <c r="E43" s="59"/>
       <c r="F43" s="59"/>
       <c r="G43" s="75"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="77"/>
       <c r="J43" s="59"/>
       <c r="K43" s="61"/>
       <c r="L43" s="59"/>
@@ -9587,7 +9592,7 @@
       <c r="BN43" s="65"/>
       <c r="BO43" s="65"/>
       <c r="BP43" s="65"/>
-      <c r="BQ43" s="80"/>
+      <c r="BQ43" s="79"/>
       <c r="BR43" s="65"/>
       <c r="BS43" s="62"/>
       <c r="BT43" s="62"/>
@@ -9709,13 +9714,13 @@
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A44" s="76"/>
       <c r="B44" s="57"/>
-      <c r="C44" s="58"/>
+      <c r="C44" s="71"/>
       <c r="D44" s="59"/>
       <c r="E44" s="59"/>
       <c r="F44" s="59"/>
       <c r="G44" s="59"/>
       <c r="H44" s="59"/>
-      <c r="I44" s="78"/>
+      <c r="I44" s="77"/>
       <c r="J44" s="59"/>
       <c r="K44" s="61"/>
       <c r="L44" s="59"/>
@@ -9775,7 +9780,7 @@
       <c r="BN44" s="65"/>
       <c r="BO44" s="65"/>
       <c r="BP44" s="65"/>
-      <c r="BQ44" s="80"/>
+      <c r="BQ44" s="79"/>
       <c r="BR44" s="65"/>
       <c r="BS44" s="62"/>
       <c r="BT44" s="62"/>
@@ -9891,19 +9896,19 @@
       <c r="FZ44" s="68"/>
       <c r="GA44" s="69"/>
       <c r="GB44" s="59"/>
-      <c r="GC44" s="83"/>
+      <c r="GC44" s="81"/>
       <c r="GD44" s="70"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A45" s="76"/>
       <c r="B45" s="57"/>
-      <c r="C45" s="58"/>
+      <c r="C45" s="71"/>
       <c r="D45" s="59"/>
       <c r="E45" s="59"/>
       <c r="F45" s="59"/>
       <c r="G45" s="59"/>
       <c r="H45" s="59"/>
-      <c r="I45" s="78"/>
+      <c r="I45" s="77"/>
       <c r="J45" s="59"/>
       <c r="K45" s="61"/>
       <c r="L45" s="59"/>
@@ -9963,7 +9968,7 @@
       <c r="BN45" s="65"/>
       <c r="BO45" s="65"/>
       <c r="BP45" s="65"/>
-      <c r="BQ45" s="80"/>
+      <c r="BQ45" s="79"/>
       <c r="BR45" s="65"/>
       <c r="BS45" s="62"/>
       <c r="BT45" s="62"/>
@@ -10085,7 +10090,7 @@
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A46" s="76"/>
       <c r="B46" s="57"/>
-      <c r="C46" s="84"/>
+      <c r="C46" s="71"/>
       <c r="D46" s="59"/>
       <c r="E46" s="59"/>
       <c r="F46" s="59"/>
@@ -10151,7 +10156,7 @@
       <c r="BN46" s="62"/>
       <c r="BO46" s="62"/>
       <c r="BP46" s="62"/>
-      <c r="BQ46" s="80"/>
+      <c r="BQ46" s="79"/>
       <c r="BR46" s="67"/>
       <c r="BS46" s="62"/>
       <c r="BT46" s="62"/>
@@ -10264,16 +10269,16 @@
       <c r="FW46" s="62"/>
       <c r="FX46" s="62"/>
       <c r="FY46" s="62"/>
-      <c r="FZ46" s="85"/>
-      <c r="GA46" s="86"/>
-      <c r="GB46" s="86"/>
+      <c r="FZ46" s="82"/>
+      <c r="GA46" s="83"/>
+      <c r="GB46" s="83"/>
       <c r="GC46" s="70"/>
       <c r="GD46" s="70"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A47" s="76"/>
       <c r="B47" s="57"/>
-      <c r="C47" s="84"/>
+      <c r="C47" s="71"/>
       <c r="D47" s="59"/>
       <c r="E47" s="59"/>
       <c r="F47" s="59"/>
@@ -10339,7 +10344,7 @@
       <c r="BN47" s="62"/>
       <c r="BO47" s="62"/>
       <c r="BP47" s="62"/>
-      <c r="BQ47" s="80"/>
+      <c r="BQ47" s="79"/>
       <c r="BR47" s="67"/>
       <c r="BS47" s="62"/>
       <c r="BT47" s="62"/>
@@ -10452,16 +10457,16 @@
       <c r="FW47" s="62"/>
       <c r="FX47" s="62"/>
       <c r="FY47" s="62"/>
-      <c r="FZ47" s="85"/>
-      <c r="GA47" s="86"/>
-      <c r="GB47" s="86"/>
+      <c r="FZ47" s="82"/>
+      <c r="GA47" s="83"/>
+      <c r="GB47" s="83"/>
       <c r="GC47" s="70"/>
       <c r="GD47" s="70"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A48" s="76"/>
       <c r="B48" s="57"/>
-      <c r="C48" s="84"/>
+      <c r="C48" s="71"/>
       <c r="D48" s="59"/>
       <c r="E48" s="59"/>
       <c r="F48" s="59"/>
@@ -10527,7 +10532,7 @@
       <c r="BN48" s="62"/>
       <c r="BO48" s="62"/>
       <c r="BP48" s="62"/>
-      <c r="BQ48" s="80"/>
+      <c r="BQ48" s="79"/>
       <c r="BR48" s="67"/>
       <c r="BS48" s="62"/>
       <c r="BT48" s="62"/>
@@ -10640,16 +10645,16 @@
       <c r="FW48" s="62"/>
       <c r="FX48" s="62"/>
       <c r="FY48" s="62"/>
-      <c r="FZ48" s="85"/>
-      <c r="GA48" s="86"/>
-      <c r="GB48" s="86"/>
+      <c r="FZ48" s="82"/>
+      <c r="GA48" s="83"/>
+      <c r="GB48" s="83"/>
       <c r="GC48" s="70"/>
       <c r="GD48" s="70"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A49" s="76"/>
       <c r="B49" s="57"/>
-      <c r="C49" s="84"/>
+      <c r="C49" s="71"/>
       <c r="D49" s="59"/>
       <c r="E49" s="59"/>
       <c r="F49" s="59"/>
@@ -10715,7 +10720,7 @@
       <c r="BN49" s="62"/>
       <c r="BO49" s="62"/>
       <c r="BP49" s="62"/>
-      <c r="BQ49" s="80"/>
+      <c r="BQ49" s="79"/>
       <c r="BR49" s="65"/>
       <c r="BS49" s="62"/>
       <c r="BT49" s="62"/>
@@ -10828,16 +10833,16 @@
       <c r="FW49" s="62"/>
       <c r="FX49" s="62"/>
       <c r="FY49" s="62"/>
-      <c r="FZ49" s="85"/>
-      <c r="GA49" s="86"/>
-      <c r="GB49" s="86"/>
+      <c r="FZ49" s="82"/>
+      <c r="GA49" s="83"/>
+      <c r="GB49" s="83"/>
       <c r="GC49" s="70"/>
       <c r="GD49" s="70"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A50" s="76"/>
       <c r="B50" s="57"/>
-      <c r="C50" s="84"/>
+      <c r="C50" s="71"/>
       <c r="D50" s="59"/>
       <c r="E50" s="59"/>
       <c r="F50" s="59"/>
@@ -10903,7 +10908,7 @@
       <c r="BN50" s="62"/>
       <c r="BO50" s="62"/>
       <c r="BP50" s="62"/>
-      <c r="BQ50" s="80"/>
+      <c r="BQ50" s="79"/>
       <c r="BR50" s="67"/>
       <c r="BS50" s="62"/>
       <c r="BT50" s="62"/>
@@ -11016,16 +11021,16 @@
       <c r="FW50" s="62"/>
       <c r="FX50" s="62"/>
       <c r="FY50" s="62"/>
-      <c r="FZ50" s="85"/>
-      <c r="GA50" s="86"/>
-      <c r="GB50" s="86"/>
+      <c r="FZ50" s="82"/>
+      <c r="GA50" s="83"/>
+      <c r="GB50" s="83"/>
       <c r="GC50" s="70"/>
       <c r="GD50" s="70"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A51" s="76"/>
       <c r="B51" s="57"/>
-      <c r="C51" s="84"/>
+      <c r="C51" s="71"/>
       <c r="D51" s="59"/>
       <c r="E51" s="59"/>
       <c r="F51" s="59"/>
@@ -11091,8 +11096,8 @@
       <c r="BN51" s="62"/>
       <c r="BO51" s="62"/>
       <c r="BP51" s="62"/>
-      <c r="BQ51" s="80"/>
-      <c r="BR51" s="87"/>
+      <c r="BQ51" s="79"/>
+      <c r="BR51" s="84"/>
       <c r="BS51" s="62"/>
       <c r="BT51" s="62"/>
       <c r="BU51" s="62"/>
@@ -11204,16 +11209,16 @@
       <c r="FW51" s="62"/>
       <c r="FX51" s="62"/>
       <c r="FY51" s="62"/>
-      <c r="FZ51" s="85"/>
-      <c r="GA51" s="86"/>
-      <c r="GB51" s="86"/>
+      <c r="FZ51" s="82"/>
+      <c r="GA51" s="83"/>
+      <c r="GB51" s="83"/>
       <c r="GC51" s="70"/>
       <c r="GD51" s="70"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A52" s="76"/>
       <c r="B52" s="57"/>
-      <c r="C52" s="84"/>
+      <c r="C52" s="71"/>
       <c r="D52" s="59"/>
       <c r="E52" s="59"/>
       <c r="F52" s="59"/>
@@ -11279,7 +11284,7 @@
       <c r="BN52" s="62"/>
       <c r="BO52" s="62"/>
       <c r="BP52" s="62"/>
-      <c r="BQ52" s="80"/>
+      <c r="BQ52" s="79"/>
       <c r="BR52" s="65"/>
       <c r="BS52" s="62"/>
       <c r="BT52" s="62"/>
@@ -11392,16 +11397,16 @@
       <c r="FW52" s="62"/>
       <c r="FX52" s="62"/>
       <c r="FY52" s="62"/>
-      <c r="FZ52" s="85"/>
-      <c r="GA52" s="86"/>
-      <c r="GB52" s="86"/>
+      <c r="FZ52" s="82"/>
+      <c r="GA52" s="83"/>
+      <c r="GB52" s="83"/>
       <c r="GC52" s="70"/>
       <c r="GD52" s="70"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A53" s="76"/>
       <c r="B53" s="57"/>
-      <c r="C53" s="84"/>
+      <c r="C53" s="71"/>
       <c r="D53" s="59"/>
       <c r="E53" s="59"/>
       <c r="F53" s="59"/>
@@ -11467,7 +11472,7 @@
       <c r="BN53" s="62"/>
       <c r="BO53" s="62"/>
       <c r="BP53" s="62"/>
-      <c r="BQ53" s="80"/>
+      <c r="BQ53" s="79"/>
       <c r="BR53" s="65"/>
       <c r="BS53" s="62"/>
       <c r="BT53" s="62"/>
@@ -11580,16 +11585,16 @@
       <c r="FW53" s="62"/>
       <c r="FX53" s="62"/>
       <c r="FY53" s="62"/>
-      <c r="FZ53" s="85"/>
-      <c r="GA53" s="86"/>
-      <c r="GB53" s="86"/>
+      <c r="FZ53" s="82"/>
+      <c r="GA53" s="83"/>
+      <c r="GB53" s="83"/>
       <c r="GC53" s="70"/>
       <c r="GD53" s="70"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A54" s="76"/>
       <c r="B54" s="57"/>
-      <c r="C54" s="58"/>
+      <c r="C54" s="71"/>
       <c r="D54" s="59"/>
       <c r="E54" s="59"/>
       <c r="F54" s="59"/>
@@ -11655,7 +11660,7 @@
       <c r="BN54" s="65"/>
       <c r="BO54" s="65"/>
       <c r="BP54" s="65"/>
-      <c r="BQ54" s="80"/>
+      <c r="BQ54" s="79"/>
       <c r="BR54" s="65"/>
       <c r="BS54" s="62"/>
       <c r="BT54" s="62"/>
@@ -11777,7 +11782,7 @@
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A55" s="76"/>
       <c r="B55" s="57"/>
-      <c r="C55" s="84"/>
+      <c r="C55" s="71"/>
       <c r="D55" s="59"/>
       <c r="E55" s="59"/>
       <c r="F55" s="59"/>
@@ -11843,7 +11848,7 @@
       <c r="BN55" s="62"/>
       <c r="BO55" s="62"/>
       <c r="BP55" s="62"/>
-      <c r="BQ55" s="80"/>
+      <c r="BQ55" s="79"/>
       <c r="BR55" s="67"/>
       <c r="BS55" s="62"/>
       <c r="BT55" s="62"/>
@@ -11965,7 +11970,7 @@
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A56" s="76"/>
       <c r="B56" s="57"/>
-      <c r="C56" s="84"/>
+      <c r="C56" s="71"/>
       <c r="D56" s="59"/>
       <c r="E56" s="59"/>
       <c r="F56" s="59"/>
@@ -12031,7 +12036,7 @@
       <c r="BN56" s="62"/>
       <c r="BO56" s="62"/>
       <c r="BP56" s="62"/>
-      <c r="BQ56" s="80"/>
+      <c r="BQ56" s="79"/>
       <c r="BR56" s="67"/>
       <c r="BS56" s="62"/>
       <c r="BT56" s="62"/>
@@ -12153,7 +12158,7 @@
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A57" s="76"/>
       <c r="B57" s="57"/>
-      <c r="C57" s="84"/>
+      <c r="C57" s="71"/>
       <c r="D57" s="59"/>
       <c r="E57" s="59"/>
       <c r="F57" s="59"/>
@@ -12341,7 +12346,7 @@
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A58" s="76"/>
       <c r="B58" s="57"/>
-      <c r="C58" s="84"/>
+      <c r="C58" s="71"/>
       <c r="D58" s="59"/>
       <c r="E58" s="59"/>
       <c r="F58" s="59"/>
@@ -12529,7 +12534,7 @@
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A59" s="76"/>
       <c r="B59" s="57"/>
-      <c r="C59" s="84"/>
+      <c r="C59" s="71"/>
       <c r="D59" s="59"/>
       <c r="E59" s="59"/>
       <c r="F59" s="59"/>
@@ -12717,7 +12722,7 @@
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A60" s="76"/>
       <c r="B60" s="57"/>
-      <c r="C60" s="58"/>
+      <c r="C60" s="71"/>
       <c r="D60" s="59"/>
       <c r="E60" s="59"/>
       <c r="F60" s="59"/>
@@ -12783,7 +12788,7 @@
       <c r="BN60" s="65"/>
       <c r="BO60" s="65"/>
       <c r="BP60" s="65"/>
-      <c r="BQ60" s="80"/>
+      <c r="BQ60" s="79"/>
       <c r="BR60" s="65"/>
       <c r="BS60" s="62"/>
       <c r="BT60" s="62"/>
@@ -12905,7 +12910,7 @@
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A61" s="76"/>
       <c r="B61" s="57"/>
-      <c r="C61" s="84"/>
+      <c r="C61" s="71"/>
       <c r="D61" s="59"/>
       <c r="E61" s="59"/>
       <c r="F61" s="59"/>
@@ -13093,7 +13098,7 @@
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A62" s="76"/>
       <c r="B62" s="57"/>
-      <c r="C62" s="84"/>
+      <c r="C62" s="71"/>
       <c r="D62" s="59"/>
       <c r="E62" s="59"/>
       <c r="F62" s="59"/>
@@ -13281,7 +13286,7 @@
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A63" s="76"/>
       <c r="B63" s="57"/>
-      <c r="C63" s="84"/>
+      <c r="C63" s="71"/>
       <c r="D63" s="59"/>
       <c r="E63" s="59"/>
       <c r="F63" s="59"/>
@@ -13469,7 +13474,7 @@
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A64" s="76"/>
       <c r="B64" s="57"/>
-      <c r="C64" s="84"/>
+      <c r="C64" s="71"/>
       <c r="D64" s="59"/>
       <c r="E64" s="59"/>
       <c r="F64" s="59"/>
@@ -13657,7 +13662,7 @@
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A65" s="76"/>
       <c r="B65" s="57"/>
-      <c r="C65" s="84"/>
+      <c r="C65" s="71"/>
       <c r="D65" s="59"/>
       <c r="E65" s="59"/>
       <c r="F65" s="59"/>
@@ -13845,7 +13850,7 @@
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A66" s="76"/>
       <c r="B66" s="57"/>
-      <c r="C66" s="84"/>
+      <c r="C66" s="71"/>
       <c r="D66" s="59"/>
       <c r="E66" s="59"/>
       <c r="F66" s="59"/>
@@ -14033,7 +14038,7 @@
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A67" s="76"/>
       <c r="B67" s="57"/>
-      <c r="C67" s="84"/>
+      <c r="C67" s="71"/>
       <c r="D67" s="59"/>
       <c r="E67" s="59"/>
       <c r="F67" s="59"/>
@@ -14221,43 +14226,43 @@
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A68" s="76"/>
       <c r="B68" s="57"/>
-      <c r="C68" s="84"/>
+      <c r="C68" s="71"/>
       <c r="D68" s="59"/>
-      <c r="E68" s="88"/>
-      <c r="F68" s="88"/>
-      <c r="G68" s="88"/>
+      <c r="E68" s="85"/>
+      <c r="F68" s="85"/>
+      <c r="G68" s="85"/>
       <c r="H68" s="59"/>
       <c r="I68" s="59"/>
       <c r="J68" s="59"/>
       <c r="K68" s="61"/>
       <c r="L68" s="59"/>
       <c r="M68" s="59"/>
-      <c r="N68" s="88"/>
-      <c r="O68" s="88"/>
-      <c r="P68" s="88"/>
-      <c r="Q68" s="88"/>
-      <c r="R68" s="88"/>
-      <c r="S68" s="88"/>
-      <c r="T68" s="88"/>
-      <c r="U68" s="88"/>
-      <c r="V68" s="88"/>
-      <c r="W68" s="88"/>
-      <c r="X68" s="88"/>
-      <c r="Y68" s="88"/>
-      <c r="Z68" s="88"/>
-      <c r="AA68" s="88"/>
-      <c r="AB68" s="88"/>
-      <c r="AC68" s="88"/>
-      <c r="AD68" s="88"/>
-      <c r="AE68" s="88"/>
-      <c r="AF68" s="88"/>
-      <c r="AG68" s="88"/>
-      <c r="AH68" s="88"/>
-      <c r="AI68" s="88"/>
-      <c r="AJ68" s="88"/>
-      <c r="AK68" s="88"/>
-      <c r="AL68" s="88"/>
-      <c r="AM68" s="88"/>
+      <c r="N68" s="85"/>
+      <c r="O68" s="85"/>
+      <c r="P68" s="85"/>
+      <c r="Q68" s="85"/>
+      <c r="R68" s="85"/>
+      <c r="S68" s="85"/>
+      <c r="T68" s="85"/>
+      <c r="U68" s="85"/>
+      <c r="V68" s="85"/>
+      <c r="W68" s="85"/>
+      <c r="X68" s="85"/>
+      <c r="Y68" s="85"/>
+      <c r="Z68" s="85"/>
+      <c r="AA68" s="85"/>
+      <c r="AB68" s="85"/>
+      <c r="AC68" s="85"/>
+      <c r="AD68" s="85"/>
+      <c r="AE68" s="85"/>
+      <c r="AF68" s="85"/>
+      <c r="AG68" s="85"/>
+      <c r="AH68" s="85"/>
+      <c r="AI68" s="85"/>
+      <c r="AJ68" s="85"/>
+      <c r="AK68" s="85"/>
+      <c r="AL68" s="85"/>
+      <c r="AM68" s="85"/>
       <c r="AN68" s="70"/>
       <c r="AO68" s="63"/>
       <c r="AP68" s="62"/>
@@ -14409,17 +14414,17 @@
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A69" s="76"/>
       <c r="B69" s="57"/>
-      <c r="C69" s="89"/>
-      <c r="D69" s="90"/>
-      <c r="E69" s="78"/>
-      <c r="F69" s="78"/>
-      <c r="G69" s="78"/>
+      <c r="C69" s="86"/>
+      <c r="D69" s="87"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="77"/>
       <c r="H69" s="59"/>
       <c r="I69" s="60"/>
-      <c r="J69" s="79"/>
-      <c r="K69" s="79"/>
-      <c r="L69" s="78"/>
-      <c r="M69" s="78"/>
+      <c r="J69" s="78"/>
+      <c r="K69" s="78"/>
+      <c r="L69" s="77"/>
+      <c r="M69" s="77"/>
       <c r="N69" s="65"/>
       <c r="O69" s="65"/>
       <c r="P69" s="65"/>
@@ -14475,7 +14480,7 @@
       <c r="BN69" s="65"/>
       <c r="BO69" s="65"/>
       <c r="BP69" s="65"/>
-      <c r="BQ69" s="80"/>
+      <c r="BQ69" s="79"/>
       <c r="BR69" s="65"/>
       <c r="BS69" s="65"/>
       <c r="BT69" s="65"/>
@@ -14597,17 +14602,17 @@
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A70" s="76"/>
       <c r="B70" s="57"/>
-      <c r="C70" s="77"/>
-      <c r="D70" s="78"/>
-      <c r="E70" s="78"/>
-      <c r="F70" s="78"/>
-      <c r="G70" s="78"/>
-      <c r="H70" s="78"/>
+      <c r="C70" s="88"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="77"/>
+      <c r="F70" s="77"/>
+      <c r="G70" s="77"/>
+      <c r="H70" s="77"/>
       <c r="I70" s="60"/>
-      <c r="J70" s="79"/>
-      <c r="K70" s="79"/>
-      <c r="L70" s="78"/>
-      <c r="M70" s="78"/>
+      <c r="J70" s="78"/>
+      <c r="K70" s="78"/>
+      <c r="L70" s="77"/>
+      <c r="M70" s="77"/>
       <c r="N70" s="65"/>
       <c r="O70" s="65"/>
       <c r="P70" s="65"/>
@@ -14663,7 +14668,7 @@
       <c r="BN70" s="65"/>
       <c r="BO70" s="65"/>
       <c r="BP70" s="65"/>
-      <c r="BQ70" s="80"/>
+      <c r="BQ70" s="79"/>
       <c r="BR70" s="65"/>
       <c r="BS70" s="65"/>
       <c r="BT70" s="65"/>
@@ -14785,7 +14790,7 @@
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A71" s="76"/>
       <c r="B71" s="57"/>
-      <c r="C71" s="71"/>
+      <c r="C71" s="89"/>
       <c r="D71" s="59"/>
       <c r="E71" s="59"/>
       <c r="F71" s="59"/>
@@ -14973,7 +14978,7 @@
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A72" s="76"/>
       <c r="B72" s="57"/>
-      <c r="C72" s="71"/>
+      <c r="C72" s="89"/>
       <c r="D72" s="59"/>
       <c r="E72" s="59"/>
       <c r="F72" s="59"/>
@@ -15155,18 +15160,18 @@
       <c r="FZ72" s="68"/>
       <c r="GA72" s="69"/>
       <c r="GB72" s="69"/>
-      <c r="GC72" s="91"/>
-      <c r="GD72" s="91"/>
-      <c r="GE72" s="91"/>
-      <c r="GF72" s="91"/>
-      <c r="GG72" s="91"/>
-      <c r="GH72" s="91"/>
-      <c r="GI72" s="91"/>
+      <c r="GC72" s="90"/>
+      <c r="GD72" s="90"/>
+      <c r="GE72" s="90"/>
+      <c r="GF72" s="90"/>
+      <c r="GG72" s="90"/>
+      <c r="GH72" s="90"/>
+      <c r="GI72" s="90"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A73" s="76"/>
       <c r="B73" s="57"/>
-      <c r="C73" s="71"/>
+      <c r="C73" s="89"/>
       <c r="D73" s="59"/>
       <c r="E73" s="59"/>
       <c r="F73" s="59"/>
@@ -15354,7 +15359,7 @@
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A74" s="76"/>
       <c r="B74" s="57"/>
-      <c r="C74" s="71"/>
+      <c r="C74" s="89"/>
       <c r="D74" s="59"/>
       <c r="E74" s="59"/>
       <c r="F74" s="59"/>
@@ -15542,7 +15547,7 @@
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A75" s="76"/>
       <c r="B75" s="57"/>
-      <c r="C75" s="71"/>
+      <c r="C75" s="89"/>
       <c r="D75" s="59"/>
       <c r="E75" s="59"/>
       <c r="F75" s="59"/>
@@ -15730,7 +15735,7 @@
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A76" s="76"/>
       <c r="B76" s="57"/>
-      <c r="C76" s="71"/>
+      <c r="C76" s="89"/>
       <c r="D76" s="59"/>
       <c r="E76" s="59"/>
       <c r="F76" s="59"/>
@@ -15984,7 +15989,7 @@
       <c r="BN77" s="65"/>
       <c r="BO77" s="65"/>
       <c r="BP77" s="65"/>
-      <c r="BQ77" s="80"/>
+      <c r="BQ77" s="79"/>
       <c r="BR77" s="67"/>
       <c r="BS77" s="62"/>
       <c r="BT77" s="62"/>
@@ -16100,13 +16105,13 @@
       <c r="FZ77" s="68"/>
       <c r="GA77" s="69"/>
       <c r="GB77" s="69"/>
-      <c r="GC77" s="91"/>
-      <c r="GD77" s="91"/>
-      <c r="GE77" s="91"/>
-      <c r="GF77" s="91"/>
-      <c r="GG77" s="91"/>
-      <c r="GH77" s="91"/>
-      <c r="GI77" s="91"/>
+      <c r="GC77" s="90"/>
+      <c r="GD77" s="90"/>
+      <c r="GE77" s="90"/>
+      <c r="GF77" s="90"/>
+      <c r="GG77" s="90"/>
+      <c r="GH77" s="90"/>
+      <c r="GI77" s="90"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A78" s="33"/>
@@ -16293,15 +16298,15 @@
       <c r="FZ78" s="68"/>
       <c r="GA78" s="69"/>
       <c r="GB78" s="69"/>
-      <c r="GC78" s="91"/>
-      <c r="GD78" s="91"/>
-      <c r="GE78" s="91"/>
-      <c r="GF78" s="91"/>
-      <c r="GG78" s="91"/>
-      <c r="GH78" s="91"/>
-      <c r="GI78" s="91"/>
-      <c r="GJ78" s="91"/>
-      <c r="GK78" s="91"/>
+      <c r="GC78" s="90"/>
+      <c r="GD78" s="90"/>
+      <c r="GE78" s="90"/>
+      <c r="GF78" s="90"/>
+      <c r="GG78" s="90"/>
+      <c r="GH78" s="90"/>
+      <c r="GI78" s="90"/>
+      <c r="GJ78" s="90"/>
+      <c r="GK78" s="90"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A79" s="33"/>
@@ -16488,15 +16493,15 @@
       <c r="FZ79" s="68"/>
       <c r="GA79" s="69"/>
       <c r="GB79" s="69"/>
-      <c r="GC79" s="91"/>
-      <c r="GD79" s="91"/>
-      <c r="GE79" s="91"/>
-      <c r="GF79" s="91"/>
-      <c r="GG79" s="91"/>
-      <c r="GH79" s="91"/>
-      <c r="GI79" s="91"/>
-      <c r="GJ79" s="91"/>
-      <c r="GK79" s="91"/>
+      <c r="GC79" s="90"/>
+      <c r="GD79" s="90"/>
+      <c r="GE79" s="90"/>
+      <c r="GF79" s="90"/>
+      <c r="GG79" s="90"/>
+      <c r="GH79" s="90"/>
+      <c r="GI79" s="90"/>
+      <c r="GJ79" s="90"/>
+      <c r="GK79" s="90"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A80" s="33"/>
@@ -16683,15 +16688,15 @@
       <c r="FZ80" s="68"/>
       <c r="GA80" s="69"/>
       <c r="GB80" s="69"/>
-      <c r="GC80" s="91"/>
-      <c r="GD80" s="91"/>
-      <c r="GE80" s="91"/>
-      <c r="GF80" s="91"/>
-      <c r="GG80" s="91"/>
-      <c r="GH80" s="91"/>
-      <c r="GI80" s="91"/>
-      <c r="GJ80" s="91"/>
-      <c r="GK80" s="91"/>
+      <c r="GC80" s="90"/>
+      <c r="GD80" s="90"/>
+      <c r="GE80" s="90"/>
+      <c r="GF80" s="90"/>
+      <c r="GG80" s="90"/>
+      <c r="GH80" s="90"/>
+      <c r="GI80" s="90"/>
+      <c r="GJ80" s="90"/>
+      <c r="GK80" s="90"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A81" s="33"/>
@@ -16878,15 +16883,15 @@
       <c r="FZ81" s="68"/>
       <c r="GA81" s="69"/>
       <c r="GB81" s="69"/>
-      <c r="GC81" s="91"/>
-      <c r="GD81" s="91"/>
-      <c r="GE81" s="91"/>
-      <c r="GF81" s="91"/>
-      <c r="GG81" s="91"/>
-      <c r="GH81" s="91"/>
-      <c r="GI81" s="91"/>
-      <c r="GJ81" s="91"/>
-      <c r="GK81" s="91"/>
+      <c r="GC81" s="90"/>
+      <c r="GD81" s="90"/>
+      <c r="GE81" s="90"/>
+      <c r="GF81" s="90"/>
+      <c r="GG81" s="90"/>
+      <c r="GH81" s="90"/>
+      <c r="GI81" s="90"/>
+      <c r="GJ81" s="90"/>
+      <c r="GK81" s="90"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A82" s="33"/>
@@ -17073,15 +17078,15 @@
       <c r="FZ82" s="68"/>
       <c r="GA82" s="69"/>
       <c r="GB82" s="69"/>
-      <c r="GC82" s="91"/>
-      <c r="GD82" s="91"/>
-      <c r="GE82" s="91"/>
-      <c r="GF82" s="91"/>
-      <c r="GG82" s="91"/>
-      <c r="GH82" s="91"/>
-      <c r="GI82" s="91"/>
-      <c r="GJ82" s="91"/>
-      <c r="GK82" s="91"/>
+      <c r="GC82" s="90"/>
+      <c r="GD82" s="90"/>
+      <c r="GE82" s="90"/>
+      <c r="GF82" s="90"/>
+      <c r="GG82" s="90"/>
+      <c r="GH82" s="90"/>
+      <c r="GI82" s="90"/>
+      <c r="GJ82" s="90"/>
+      <c r="GK82" s="90"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A83" s="33"/>
@@ -17268,15 +17273,15 @@
       <c r="FZ83" s="68"/>
       <c r="GA83" s="69"/>
       <c r="GB83" s="69"/>
-      <c r="GC83" s="91"/>
-      <c r="GD83" s="91"/>
-      <c r="GE83" s="91"/>
-      <c r="GF83" s="91"/>
-      <c r="GG83" s="91"/>
-      <c r="GH83" s="91"/>
-      <c r="GI83" s="91"/>
-      <c r="GJ83" s="91"/>
-      <c r="GK83" s="91"/>
+      <c r="GC83" s="90"/>
+      <c r="GD83" s="90"/>
+      <c r="GE83" s="90"/>
+      <c r="GF83" s="90"/>
+      <c r="GG83" s="90"/>
+      <c r="GH83" s="90"/>
+      <c r="GI83" s="90"/>
+      <c r="GJ83" s="90"/>
+      <c r="GK83" s="90"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A84" s="33"/>
@@ -17463,15 +17468,15 @@
       <c r="FZ84" s="68"/>
       <c r="GA84" s="69"/>
       <c r="GB84" s="69"/>
-      <c r="GC84" s="91"/>
-      <c r="GD84" s="91"/>
-      <c r="GE84" s="91"/>
-      <c r="GF84" s="91"/>
-      <c r="GG84" s="91"/>
-      <c r="GH84" s="91"/>
-      <c r="GI84" s="91"/>
-      <c r="GJ84" s="91"/>
-      <c r="GK84" s="91"/>
+      <c r="GC84" s="90"/>
+      <c r="GD84" s="90"/>
+      <c r="GE84" s="90"/>
+      <c r="GF84" s="90"/>
+      <c r="GG84" s="90"/>
+      <c r="GH84" s="90"/>
+      <c r="GI84" s="90"/>
+      <c r="GJ84" s="90"/>
+      <c r="GK84" s="90"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A85" s="33"/>
@@ -17658,15 +17663,15 @@
       <c r="FZ85" s="68"/>
       <c r="GA85" s="69"/>
       <c r="GB85" s="69"/>
-      <c r="GC85" s="91"/>
-      <c r="GD85" s="91"/>
-      <c r="GE85" s="91"/>
-      <c r="GF85" s="91"/>
-      <c r="GG85" s="91"/>
-      <c r="GH85" s="91"/>
-      <c r="GI85" s="91"/>
-      <c r="GJ85" s="91"/>
-      <c r="GK85" s="91"/>
+      <c r="GC85" s="90"/>
+      <c r="GD85" s="90"/>
+      <c r="GE85" s="90"/>
+      <c r="GF85" s="90"/>
+      <c r="GG85" s="90"/>
+      <c r="GH85" s="90"/>
+      <c r="GI85" s="90"/>
+      <c r="GJ85" s="90"/>
+      <c r="GK85" s="90"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A86" s="33"/>
@@ -17853,15 +17858,15 @@
       <c r="FZ86" s="68"/>
       <c r="GA86" s="69"/>
       <c r="GB86" s="69"/>
-      <c r="GC86" s="91"/>
-      <c r="GD86" s="91"/>
-      <c r="GE86" s="91"/>
-      <c r="GF86" s="91"/>
-      <c r="GG86" s="91"/>
-      <c r="GH86" s="91"/>
-      <c r="GI86" s="91"/>
-      <c r="GJ86" s="91"/>
-      <c r="GK86" s="91"/>
+      <c r="GC86" s="90"/>
+      <c r="GD86" s="90"/>
+      <c r="GE86" s="90"/>
+      <c r="GF86" s="90"/>
+      <c r="GG86" s="90"/>
+      <c r="GH86" s="90"/>
+      <c r="GI86" s="90"/>
+      <c r="GJ86" s="90"/>
+      <c r="GK86" s="90"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A87" s="33"/>
@@ -17932,7 +17937,7 @@
       <c r="BN87" s="65"/>
       <c r="BO87" s="65"/>
       <c r="BP87" s="65"/>
-      <c r="BQ87" s="80"/>
+      <c r="BQ87" s="79"/>
       <c r="BR87" s="67"/>
       <c r="BS87" s="62"/>
       <c r="BT87" s="62"/>
@@ -18048,18 +18053,18 @@
       <c r="FZ87" s="68"/>
       <c r="GA87" s="69"/>
       <c r="GB87" s="69"/>
-      <c r="GC87" s="91"/>
-      <c r="GD87" s="91"/>
-      <c r="GE87" s="91"/>
-      <c r="GF87" s="91"/>
-      <c r="GG87" s="91"/>
-      <c r="GH87" s="91"/>
-      <c r="GI87" s="91"/>
+      <c r="GC87" s="90"/>
+      <c r="GD87" s="90"/>
+      <c r="GE87" s="90"/>
+      <c r="GF87" s="90"/>
+      <c r="GG87" s="90"/>
+      <c r="GH87" s="90"/>
+      <c r="GI87" s="90"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A88" s="33"/>
       <c r="B88" s="57"/>
-      <c r="C88" s="81"/>
+      <c r="C88" s="91"/>
       <c r="D88" s="59"/>
       <c r="E88" s="59"/>
       <c r="F88" s="59"/>
@@ -18241,18 +18246,18 @@
       <c r="FZ88" s="68"/>
       <c r="GA88" s="69"/>
       <c r="GB88" s="69"/>
-      <c r="GC88" s="91"/>
-      <c r="GD88" s="91"/>
-      <c r="GE88" s="91"/>
-      <c r="GF88" s="91"/>
-      <c r="GG88" s="91"/>
-      <c r="GH88" s="91"/>
-      <c r="GI88" s="91"/>
+      <c r="GC88" s="90"/>
+      <c r="GD88" s="90"/>
+      <c r="GE88" s="90"/>
+      <c r="GF88" s="90"/>
+      <c r="GG88" s="90"/>
+      <c r="GH88" s="90"/>
+      <c r="GI88" s="90"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A89" s="33"/>
       <c r="B89" s="57"/>
-      <c r="C89" s="81"/>
+      <c r="C89" s="91"/>
       <c r="D89" s="59"/>
       <c r="E89" s="59"/>
       <c r="F89" s="59"/>
@@ -18434,18 +18439,18 @@
       <c r="FZ89" s="68"/>
       <c r="GA89" s="69"/>
       <c r="GB89" s="69"/>
-      <c r="GC89" s="91"/>
-      <c r="GD89" s="91"/>
-      <c r="GE89" s="91"/>
-      <c r="GF89" s="91"/>
-      <c r="GG89" s="91"/>
-      <c r="GH89" s="91"/>
-      <c r="GI89" s="91"/>
+      <c r="GC89" s="90"/>
+      <c r="GD89" s="90"/>
+      <c r="GE89" s="90"/>
+      <c r="GF89" s="90"/>
+      <c r="GG89" s="90"/>
+      <c r="GH89" s="90"/>
+      <c r="GI89" s="90"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A90" s="33"/>
       <c r="B90" s="57"/>
-      <c r="C90" s="81"/>
+      <c r="C90" s="91"/>
       <c r="D90" s="59"/>
       <c r="E90" s="59"/>
       <c r="F90" s="59"/>
@@ -18627,18 +18632,18 @@
       <c r="FZ90" s="68"/>
       <c r="GA90" s="69"/>
       <c r="GB90" s="69"/>
-      <c r="GC90" s="91"/>
-      <c r="GD90" s="91"/>
-      <c r="GE90" s="91"/>
-      <c r="GF90" s="91"/>
-      <c r="GG90" s="91"/>
-      <c r="GH90" s="91"/>
-      <c r="GI90" s="91"/>
+      <c r="GC90" s="90"/>
+      <c r="GD90" s="90"/>
+      <c r="GE90" s="90"/>
+      <c r="GF90" s="90"/>
+      <c r="GG90" s="90"/>
+      <c r="GH90" s="90"/>
+      <c r="GI90" s="90"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A91" s="43"/>
       <c r="B91" s="57"/>
-      <c r="C91" s="81"/>
+      <c r="C91" s="91"/>
       <c r="D91" s="59"/>
       <c r="E91" s="59"/>
       <c r="F91" s="59"/>
@@ -18820,18 +18825,18 @@
       <c r="FZ91" s="68"/>
       <c r="GA91" s="69"/>
       <c r="GB91" s="69"/>
-      <c r="GC91" s="91"/>
-      <c r="GD91" s="91"/>
-      <c r="GE91" s="91"/>
-      <c r="GF91" s="91"/>
-      <c r="GG91" s="91"/>
-      <c r="GH91" s="91"/>
-      <c r="GI91" s="91"/>
+      <c r="GC91" s="90"/>
+      <c r="GD91" s="90"/>
+      <c r="GE91" s="90"/>
+      <c r="GF91" s="90"/>
+      <c r="GG91" s="90"/>
+      <c r="GH91" s="90"/>
+      <c r="GI91" s="90"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A92" s="43"/>
       <c r="B92" s="57"/>
-      <c r="C92" s="81"/>
+      <c r="C92" s="91"/>
       <c r="D92" s="59"/>
       <c r="E92" s="59"/>
       <c r="F92" s="59"/>
@@ -19013,18 +19018,18 @@
       <c r="FZ92" s="68"/>
       <c r="GA92" s="69"/>
       <c r="GB92" s="69"/>
-      <c r="GC92" s="91"/>
-      <c r="GD92" s="91"/>
-      <c r="GE92" s="91"/>
-      <c r="GF92" s="91"/>
-      <c r="GG92" s="91"/>
-      <c r="GH92" s="91"/>
-      <c r="GI92" s="91"/>
+      <c r="GC92" s="90"/>
+      <c r="GD92" s="90"/>
+      <c r="GE92" s="90"/>
+      <c r="GF92" s="90"/>
+      <c r="GG92" s="90"/>
+      <c r="GH92" s="90"/>
+      <c r="GI92" s="90"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A93" s="43"/>
       <c r="B93" s="57"/>
-      <c r="C93" s="81"/>
+      <c r="C93" s="91"/>
       <c r="D93" s="59"/>
       <c r="E93" s="59"/>
       <c r="F93" s="59"/>
@@ -19206,18 +19211,18 @@
       <c r="FZ93" s="68"/>
       <c r="GA93" s="69"/>
       <c r="GB93" s="69"/>
-      <c r="GC93" s="91"/>
-      <c r="GD93" s="91"/>
-      <c r="GE93" s="91"/>
-      <c r="GF93" s="91"/>
-      <c r="GG93" s="91"/>
-      <c r="GH93" s="91"/>
-      <c r="GI93" s="91"/>
+      <c r="GC93" s="90"/>
+      <c r="GD93" s="90"/>
+      <c r="GE93" s="90"/>
+      <c r="GF93" s="90"/>
+      <c r="GG93" s="90"/>
+      <c r="GH93" s="90"/>
+      <c r="GI93" s="90"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A94" s="43"/>
       <c r="B94" s="57"/>
-      <c r="C94" s="81"/>
+      <c r="C94" s="91"/>
       <c r="D94" s="59"/>
       <c r="E94" s="59"/>
       <c r="F94" s="59"/>
@@ -19399,18 +19404,18 @@
       <c r="FZ94" s="68"/>
       <c r="GA94" s="69"/>
       <c r="GB94" s="69"/>
-      <c r="GC94" s="91"/>
-      <c r="GD94" s="91"/>
-      <c r="GE94" s="91"/>
-      <c r="GF94" s="91"/>
-      <c r="GG94" s="91"/>
-      <c r="GH94" s="91"/>
-      <c r="GI94" s="91"/>
+      <c r="GC94" s="90"/>
+      <c r="GD94" s="90"/>
+      <c r="GE94" s="90"/>
+      <c r="GF94" s="90"/>
+      <c r="GG94" s="90"/>
+      <c r="GH94" s="90"/>
+      <c r="GI94" s="90"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A95" s="43"/>
       <c r="B95" s="57"/>
-      <c r="C95" s="81"/>
+      <c r="C95" s="91"/>
       <c r="D95" s="59"/>
       <c r="E95" s="59"/>
       <c r="F95" s="59"/>
@@ -19592,13 +19597,13 @@
       <c r="FZ95" s="68"/>
       <c r="GA95" s="69"/>
       <c r="GB95" s="69"/>
-      <c r="GC95" s="91"/>
-      <c r="GD95" s="91"/>
-      <c r="GE95" s="91"/>
-      <c r="GF95" s="91"/>
-      <c r="GG95" s="91"/>
-      <c r="GH95" s="91"/>
-      <c r="GI95" s="91"/>
+      <c r="GC95" s="90"/>
+      <c r="GD95" s="90"/>
+      <c r="GE95" s="90"/>
+      <c r="GF95" s="90"/>
+      <c r="GG95" s="90"/>
+      <c r="GH95" s="90"/>
+      <c r="GI95" s="90"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A96" s="43"/>
@@ -19669,7 +19674,7 @@
       <c r="BN96" s="65"/>
       <c r="BO96" s="65"/>
       <c r="BP96" s="65"/>
-      <c r="BQ96" s="80"/>
+      <c r="BQ96" s="79"/>
       <c r="BR96" s="67"/>
       <c r="BS96" s="62"/>
       <c r="BT96" s="62"/>
@@ -19785,18 +19790,18 @@
       <c r="FZ96" s="68"/>
       <c r="GA96" s="69"/>
       <c r="GB96" s="69"/>
-      <c r="GC96" s="91"/>
-      <c r="GD96" s="91"/>
-      <c r="GE96" s="91"/>
-      <c r="GF96" s="91"/>
-      <c r="GG96" s="91"/>
-      <c r="GH96" s="91"/>
-      <c r="GI96" s="91"/>
+      <c r="GC96" s="90"/>
+      <c r="GD96" s="90"/>
+      <c r="GE96" s="90"/>
+      <c r="GF96" s="90"/>
+      <c r="GG96" s="90"/>
+      <c r="GH96" s="90"/>
+      <c r="GI96" s="90"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A97" s="43"/>
       <c r="B97" s="57"/>
-      <c r="C97" s="71"/>
+      <c r="C97" s="89"/>
       <c r="D97" s="59"/>
       <c r="E97" s="59"/>
       <c r="F97" s="59"/>
@@ -19862,7 +19867,7 @@
       <c r="BN97" s="62"/>
       <c r="BO97" s="62"/>
       <c r="BP97" s="62"/>
-      <c r="BQ97" s="80"/>
+      <c r="BQ97" s="79"/>
       <c r="BR97" s="67"/>
       <c r="BS97" s="62"/>
       <c r="BT97" s="62"/>
@@ -19978,18 +19983,18 @@
       <c r="FZ97" s="68"/>
       <c r="GA97" s="69"/>
       <c r="GB97" s="69"/>
-      <c r="GC97" s="91"/>
-      <c r="GD97" s="91"/>
-      <c r="GE97" s="91"/>
-      <c r="GF97" s="91"/>
-      <c r="GG97" s="91"/>
-      <c r="GH97" s="91"/>
-      <c r="GI97" s="91"/>
+      <c r="GC97" s="90"/>
+      <c r="GD97" s="90"/>
+      <c r="GE97" s="90"/>
+      <c r="GF97" s="90"/>
+      <c r="GG97" s="90"/>
+      <c r="GH97" s="90"/>
+      <c r="GI97" s="90"/>
     </row>
     <row r="98" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A98" s="43"/>
       <c r="B98" s="57"/>
-      <c r="C98" s="71"/>
+      <c r="C98" s="89"/>
       <c r="D98" s="59"/>
       <c r="E98" s="59"/>
       <c r="F98" s="59"/>
@@ -20055,7 +20060,7 @@
       <c r="BN98" s="62"/>
       <c r="BO98" s="62"/>
       <c r="BP98" s="62"/>
-      <c r="BQ98" s="80"/>
+      <c r="BQ98" s="79"/>
       <c r="BR98" s="67"/>
       <c r="BS98" s="62"/>
       <c r="BT98" s="62"/>
@@ -20171,18 +20176,18 @@
       <c r="FZ98" s="68"/>
       <c r="GA98" s="69"/>
       <c r="GB98" s="69"/>
-      <c r="GC98" s="91"/>
-      <c r="GD98" s="91"/>
-      <c r="GE98" s="91"/>
-      <c r="GF98" s="91"/>
-      <c r="GG98" s="91"/>
-      <c r="GH98" s="91"/>
-      <c r="GI98" s="91"/>
+      <c r="GC98" s="90"/>
+      <c r="GD98" s="90"/>
+      <c r="GE98" s="90"/>
+      <c r="GF98" s="90"/>
+      <c r="GG98" s="90"/>
+      <c r="GH98" s="90"/>
+      <c r="GI98" s="90"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A99" s="43"/>
       <c r="B99" s="57"/>
-      <c r="C99" s="71"/>
+      <c r="C99" s="89"/>
       <c r="D99" s="59"/>
       <c r="E99" s="59"/>
       <c r="F99" s="59"/>
@@ -20248,7 +20253,7 @@
       <c r="BN99" s="62"/>
       <c r="BO99" s="62"/>
       <c r="BP99" s="62"/>
-      <c r="BQ99" s="80"/>
+      <c r="BQ99" s="79"/>
       <c r="BR99" s="67"/>
       <c r="BS99" s="62"/>
       <c r="BT99" s="62"/>
@@ -20364,18 +20369,18 @@
       <c r="FZ99" s="68"/>
       <c r="GA99" s="69"/>
       <c r="GB99" s="69"/>
-      <c r="GC99" s="91"/>
-      <c r="GD99" s="91"/>
-      <c r="GE99" s="91"/>
-      <c r="GF99" s="91"/>
-      <c r="GG99" s="91"/>
-      <c r="GH99" s="91"/>
-      <c r="GI99" s="91"/>
+      <c r="GC99" s="90"/>
+      <c r="GD99" s="90"/>
+      <c r="GE99" s="90"/>
+      <c r="GF99" s="90"/>
+      <c r="GG99" s="90"/>
+      <c r="GH99" s="90"/>
+      <c r="GI99" s="90"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A100" s="43"/>
       <c r="B100" s="57"/>
-      <c r="C100" s="71"/>
+      <c r="C100" s="89"/>
       <c r="D100" s="59"/>
       <c r="E100" s="59"/>
       <c r="F100" s="59"/>
@@ -20441,7 +20446,7 @@
       <c r="BN100" s="62"/>
       <c r="BO100" s="62"/>
       <c r="BP100" s="62"/>
-      <c r="BQ100" s="80"/>
+      <c r="BQ100" s="79"/>
       <c r="BR100" s="65"/>
       <c r="BS100" s="62"/>
       <c r="BT100" s="62"/>
@@ -20557,18 +20562,18 @@
       <c r="FZ100" s="68"/>
       <c r="GA100" s="69"/>
       <c r="GB100" s="69"/>
-      <c r="GC100" s="91"/>
-      <c r="GD100" s="91"/>
-      <c r="GE100" s="91"/>
-      <c r="GF100" s="91"/>
-      <c r="GG100" s="91"/>
-      <c r="GH100" s="91"/>
-      <c r="GI100" s="91"/>
+      <c r="GC100" s="90"/>
+      <c r="GD100" s="90"/>
+      <c r="GE100" s="90"/>
+      <c r="GF100" s="90"/>
+      <c r="GG100" s="90"/>
+      <c r="GH100" s="90"/>
+      <c r="GI100" s="90"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A101" s="43"/>
       <c r="B101" s="57"/>
-      <c r="C101" s="71"/>
+      <c r="C101" s="89"/>
       <c r="D101" s="59"/>
       <c r="E101" s="59"/>
       <c r="F101" s="59"/>
@@ -20634,7 +20639,7 @@
       <c r="BN101" s="62"/>
       <c r="BO101" s="62"/>
       <c r="BP101" s="62"/>
-      <c r="BQ101" s="80"/>
+      <c r="BQ101" s="79"/>
       <c r="BR101" s="67"/>
       <c r="BS101" s="62"/>
       <c r="BT101" s="62"/>
@@ -20750,18 +20755,18 @@
       <c r="FZ101" s="68"/>
       <c r="GA101" s="69"/>
       <c r="GB101" s="69"/>
-      <c r="GC101" s="91"/>
-      <c r="GD101" s="91"/>
-      <c r="GE101" s="91"/>
-      <c r="GF101" s="91"/>
-      <c r="GG101" s="91"/>
-      <c r="GH101" s="91"/>
-      <c r="GI101" s="91"/>
+      <c r="GC101" s="90"/>
+      <c r="GD101" s="90"/>
+      <c r="GE101" s="90"/>
+      <c r="GF101" s="90"/>
+      <c r="GG101" s="90"/>
+      <c r="GH101" s="90"/>
+      <c r="GI101" s="90"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A102" s="43"/>
       <c r="B102" s="57"/>
-      <c r="C102" s="71"/>
+      <c r="C102" s="89"/>
       <c r="D102" s="59"/>
       <c r="E102" s="59"/>
       <c r="F102" s="59"/>
@@ -20827,7 +20832,7 @@
       <c r="BN102" s="62"/>
       <c r="BO102" s="62"/>
       <c r="BP102" s="62"/>
-      <c r="BQ102" s="80"/>
+      <c r="BQ102" s="79"/>
       <c r="BR102" s="65"/>
       <c r="BS102" s="62"/>
       <c r="BT102" s="62"/>
@@ -20943,18 +20948,18 @@
       <c r="FZ102" s="68"/>
       <c r="GA102" s="69"/>
       <c r="GB102" s="69"/>
-      <c r="GC102" s="91"/>
-      <c r="GD102" s="91"/>
-      <c r="GE102" s="91"/>
-      <c r="GF102" s="91"/>
-      <c r="GG102" s="91"/>
-      <c r="GH102" s="91"/>
-      <c r="GI102" s="91"/>
+      <c r="GC102" s="90"/>
+      <c r="GD102" s="90"/>
+      <c r="GE102" s="90"/>
+      <c r="GF102" s="90"/>
+      <c r="GG102" s="90"/>
+      <c r="GH102" s="90"/>
+      <c r="GI102" s="90"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A103" s="43"/>
       <c r="B103" s="57"/>
-      <c r="C103" s="71"/>
+      <c r="C103" s="89"/>
       <c r="D103" s="59"/>
       <c r="E103" s="59"/>
       <c r="F103" s="59"/>
@@ -21020,7 +21025,7 @@
       <c r="BN103" s="62"/>
       <c r="BO103" s="62"/>
       <c r="BP103" s="62"/>
-      <c r="BQ103" s="80"/>
+      <c r="BQ103" s="79"/>
       <c r="BR103" s="65"/>
       <c r="BS103" s="62"/>
       <c r="BT103" s="62"/>
@@ -21136,18 +21141,18 @@
       <c r="FZ103" s="68"/>
       <c r="GA103" s="69"/>
       <c r="GB103" s="69"/>
-      <c r="GC103" s="91"/>
-      <c r="GD103" s="91"/>
-      <c r="GE103" s="91"/>
-      <c r="GF103" s="91"/>
-      <c r="GG103" s="91"/>
-      <c r="GH103" s="91"/>
-      <c r="GI103" s="91"/>
+      <c r="GC103" s="90"/>
+      <c r="GD103" s="90"/>
+      <c r="GE103" s="90"/>
+      <c r="GF103" s="90"/>
+      <c r="GG103" s="90"/>
+      <c r="GH103" s="90"/>
+      <c r="GI103" s="90"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A104" s="43"/>
       <c r="B104" s="57"/>
-      <c r="C104" s="71"/>
+      <c r="C104" s="89"/>
       <c r="D104" s="59"/>
       <c r="E104" s="59"/>
       <c r="F104" s="59"/>
@@ -21213,7 +21218,7 @@
       <c r="BN104" s="62"/>
       <c r="BO104" s="62"/>
       <c r="BP104" s="62"/>
-      <c r="BQ104" s="80"/>
+      <c r="BQ104" s="79"/>
       <c r="BR104" s="65"/>
       <c r="BS104" s="62"/>
       <c r="BT104" s="62"/>
@@ -21329,18 +21334,18 @@
       <c r="FZ104" s="68"/>
       <c r="GA104" s="69"/>
       <c r="GB104" s="69"/>
-      <c r="GC104" s="91"/>
-      <c r="GD104" s="91"/>
-      <c r="GE104" s="91"/>
-      <c r="GF104" s="91"/>
-      <c r="GG104" s="91"/>
-      <c r="GH104" s="91"/>
-      <c r="GI104" s="91"/>
+      <c r="GC104" s="90"/>
+      <c r="GD104" s="90"/>
+      <c r="GE104" s="90"/>
+      <c r="GF104" s="90"/>
+      <c r="GG104" s="90"/>
+      <c r="GH104" s="90"/>
+      <c r="GI104" s="90"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A105" s="43"/>
       <c r="B105" s="57"/>
-      <c r="C105" s="71"/>
+      <c r="C105" s="89"/>
       <c r="D105" s="59"/>
       <c r="E105" s="59"/>
       <c r="F105" s="59"/>
@@ -21406,7 +21411,7 @@
       <c r="BN105" s="62"/>
       <c r="BO105" s="62"/>
       <c r="BP105" s="62"/>
-      <c r="BQ105" s="80"/>
+      <c r="BQ105" s="79"/>
       <c r="BR105" s="65"/>
       <c r="BS105" s="62"/>
       <c r="BT105" s="62"/>
@@ -21522,18 +21527,18 @@
       <c r="FZ105" s="68"/>
       <c r="GA105" s="69"/>
       <c r="GB105" s="69"/>
-      <c r="GC105" s="91"/>
-      <c r="GD105" s="91"/>
-      <c r="GE105" s="91"/>
-      <c r="GF105" s="91"/>
-      <c r="GG105" s="91"/>
-      <c r="GH105" s="91"/>
-      <c r="GI105" s="91"/>
+      <c r="GC105" s="90"/>
+      <c r="GD105" s="90"/>
+      <c r="GE105" s="90"/>
+      <c r="GF105" s="90"/>
+      <c r="GG105" s="90"/>
+      <c r="GH105" s="90"/>
+      <c r="GI105" s="90"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A106" s="43"/>
       <c r="B106" s="57"/>
-      <c r="C106" s="71"/>
+      <c r="C106" s="89"/>
       <c r="D106" s="59"/>
       <c r="E106" s="59"/>
       <c r="F106" s="59"/>
@@ -21599,7 +21604,7 @@
       <c r="BN106" s="62"/>
       <c r="BO106" s="62"/>
       <c r="BP106" s="62"/>
-      <c r="BQ106" s="80"/>
+      <c r="BQ106" s="79"/>
       <c r="BR106" s="65"/>
       <c r="BS106" s="62"/>
       <c r="BT106" s="62"/>
@@ -21715,18 +21720,18 @@
       <c r="FZ106" s="68"/>
       <c r="GA106" s="69"/>
       <c r="GB106" s="69"/>
-      <c r="GC106" s="91"/>
-      <c r="GD106" s="91"/>
-      <c r="GE106" s="91"/>
-      <c r="GF106" s="91"/>
-      <c r="GG106" s="91"/>
-      <c r="GH106" s="91"/>
-      <c r="GI106" s="91"/>
+      <c r="GC106" s="90"/>
+      <c r="GD106" s="90"/>
+      <c r="GE106" s="90"/>
+      <c r="GF106" s="90"/>
+      <c r="GG106" s="90"/>
+      <c r="GH106" s="90"/>
+      <c r="GI106" s="90"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A107" s="43"/>
       <c r="B107" s="57"/>
-      <c r="C107" s="71"/>
+      <c r="C107" s="89"/>
       <c r="D107" s="59"/>
       <c r="E107" s="59"/>
       <c r="F107" s="59"/>
@@ -21792,7 +21797,7 @@
       <c r="BN107" s="62"/>
       <c r="BO107" s="62"/>
       <c r="BP107" s="62"/>
-      <c r="BQ107" s="80"/>
+      <c r="BQ107" s="79"/>
       <c r="BR107" s="62"/>
       <c r="BS107" s="62"/>
       <c r="BT107" s="62"/>
@@ -21908,18 +21913,18 @@
       <c r="FZ107" s="68"/>
       <c r="GA107" s="69"/>
       <c r="GB107" s="69"/>
-      <c r="GC107" s="91"/>
-      <c r="GD107" s="91"/>
-      <c r="GE107" s="91"/>
-      <c r="GF107" s="91"/>
-      <c r="GG107" s="91"/>
-      <c r="GH107" s="91"/>
-      <c r="GI107" s="91"/>
+      <c r="GC107" s="90"/>
+      <c r="GD107" s="90"/>
+      <c r="GE107" s="90"/>
+      <c r="GF107" s="90"/>
+      <c r="GG107" s="90"/>
+      <c r="GH107" s="90"/>
+      <c r="GI107" s="90"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A108" s="43"/>
       <c r="B108" s="57"/>
-      <c r="C108" s="71"/>
+      <c r="C108" s="89"/>
       <c r="D108" s="59"/>
       <c r="E108" s="59"/>
       <c r="F108" s="59"/>
@@ -21985,7 +21990,7 @@
       <c r="BN108" s="62"/>
       <c r="BO108" s="62"/>
       <c r="BP108" s="62"/>
-      <c r="BQ108" s="80"/>
+      <c r="BQ108" s="79"/>
       <c r="BR108" s="62"/>
       <c r="BS108" s="62"/>
       <c r="BT108" s="62"/>
@@ -22101,18 +22106,18 @@
       <c r="FZ108" s="68"/>
       <c r="GA108" s="69"/>
       <c r="GB108" s="69"/>
-      <c r="GC108" s="91"/>
-      <c r="GD108" s="91"/>
-      <c r="GE108" s="91"/>
-      <c r="GF108" s="91"/>
-      <c r="GG108" s="91"/>
-      <c r="GH108" s="91"/>
-      <c r="GI108" s="91"/>
+      <c r="GC108" s="90"/>
+      <c r="GD108" s="90"/>
+      <c r="GE108" s="90"/>
+      <c r="GF108" s="90"/>
+      <c r="GG108" s="90"/>
+      <c r="GH108" s="90"/>
+      <c r="GI108" s="90"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A109" s="43"/>
       <c r="B109" s="57"/>
-      <c r="C109" s="71"/>
+      <c r="C109" s="89"/>
       <c r="D109" s="59"/>
       <c r="E109" s="59"/>
       <c r="F109" s="59"/>
@@ -22178,7 +22183,7 @@
       <c r="BN109" s="62"/>
       <c r="BO109" s="62"/>
       <c r="BP109" s="62"/>
-      <c r="BQ109" s="80"/>
+      <c r="BQ109" s="79"/>
       <c r="BR109" s="62"/>
       <c r="BS109" s="62"/>
       <c r="BT109" s="62"/>
@@ -22294,18 +22299,18 @@
       <c r="FZ109" s="68"/>
       <c r="GA109" s="69"/>
       <c r="GB109" s="69"/>
-      <c r="GC109" s="91"/>
-      <c r="GD109" s="91"/>
-      <c r="GE109" s="91"/>
-      <c r="GF109" s="91"/>
-      <c r="GG109" s="91"/>
-      <c r="GH109" s="91"/>
-      <c r="GI109" s="91"/>
+      <c r="GC109" s="90"/>
+      <c r="GD109" s="90"/>
+      <c r="GE109" s="90"/>
+      <c r="GF109" s="90"/>
+      <c r="GG109" s="90"/>
+      <c r="GH109" s="90"/>
+      <c r="GI109" s="90"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A110" s="43"/>
       <c r="B110" s="57"/>
-      <c r="C110" s="71"/>
+      <c r="C110" s="89"/>
       <c r="D110" s="59"/>
       <c r="E110" s="59"/>
       <c r="F110" s="59"/>
@@ -22371,7 +22376,7 @@
       <c r="BN110" s="62"/>
       <c r="BO110" s="62"/>
       <c r="BP110" s="62"/>
-      <c r="BQ110" s="80"/>
+      <c r="BQ110" s="79"/>
       <c r="BR110" s="62"/>
       <c r="BS110" s="62"/>
       <c r="BT110" s="62"/>
@@ -22487,18 +22492,18 @@
       <c r="FZ110" s="68"/>
       <c r="GA110" s="69"/>
       <c r="GB110" s="69"/>
-      <c r="GC110" s="91"/>
-      <c r="GD110" s="91"/>
-      <c r="GE110" s="91"/>
-      <c r="GF110" s="91"/>
-      <c r="GG110" s="91"/>
-      <c r="GH110" s="91"/>
-      <c r="GI110" s="91"/>
+      <c r="GC110" s="90"/>
+      <c r="GD110" s="90"/>
+      <c r="GE110" s="90"/>
+      <c r="GF110" s="90"/>
+      <c r="GG110" s="90"/>
+      <c r="GH110" s="90"/>
+      <c r="GI110" s="90"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A111" s="43"/>
       <c r="B111" s="57"/>
-      <c r="C111" s="71"/>
+      <c r="C111" s="89"/>
       <c r="D111" s="59"/>
       <c r="E111" s="59"/>
       <c r="F111" s="59"/>
@@ -22564,7 +22569,7 @@
       <c r="BN111" s="62"/>
       <c r="BO111" s="62"/>
       <c r="BP111" s="62"/>
-      <c r="BQ111" s="80"/>
+      <c r="BQ111" s="79"/>
       <c r="BR111" s="62"/>
       <c r="BS111" s="62"/>
       <c r="BT111" s="62"/>
@@ -22680,18 +22685,18 @@
       <c r="FZ111" s="68"/>
       <c r="GA111" s="69"/>
       <c r="GB111" s="69"/>
-      <c r="GC111" s="91"/>
-      <c r="GD111" s="91"/>
-      <c r="GE111" s="91"/>
-      <c r="GF111" s="91"/>
-      <c r="GG111" s="91"/>
-      <c r="GH111" s="91"/>
-      <c r="GI111" s="91"/>
+      <c r="GC111" s="90"/>
+      <c r="GD111" s="90"/>
+      <c r="GE111" s="90"/>
+      <c r="GF111" s="90"/>
+      <c r="GG111" s="90"/>
+      <c r="GH111" s="90"/>
+      <c r="GI111" s="90"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A112" s="43"/>
       <c r="B112" s="57"/>
-      <c r="C112" s="71"/>
+      <c r="C112" s="89"/>
       <c r="D112" s="59"/>
       <c r="E112" s="59"/>
       <c r="F112" s="59"/>
@@ -22757,7 +22762,7 @@
       <c r="BN112" s="62"/>
       <c r="BO112" s="62"/>
       <c r="BP112" s="62"/>
-      <c r="BQ112" s="80"/>
+      <c r="BQ112" s="79"/>
       <c r="BR112" s="62"/>
       <c r="BS112" s="62"/>
       <c r="BT112" s="62"/>
@@ -22873,18 +22878,18 @@
       <c r="FZ112" s="68"/>
       <c r="GA112" s="69"/>
       <c r="GB112" s="69"/>
-      <c r="GC112" s="91"/>
-      <c r="GD112" s="91"/>
-      <c r="GE112" s="91"/>
-      <c r="GF112" s="91"/>
-      <c r="GG112" s="91"/>
-      <c r="GH112" s="91"/>
-      <c r="GI112" s="91"/>
+      <c r="GC112" s="90"/>
+      <c r="GD112" s="90"/>
+      <c r="GE112" s="90"/>
+      <c r="GF112" s="90"/>
+      <c r="GG112" s="90"/>
+      <c r="GH112" s="90"/>
+      <c r="GI112" s="90"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A113" s="43"/>
       <c r="B113" s="57"/>
-      <c r="C113" s="71"/>
+      <c r="C113" s="89"/>
       <c r="D113" s="59"/>
       <c r="E113" s="59"/>
       <c r="F113" s="59"/>
@@ -22950,7 +22955,7 @@
       <c r="BN113" s="62"/>
       <c r="BO113" s="62"/>
       <c r="BP113" s="62"/>
-      <c r="BQ113" s="80"/>
+      <c r="BQ113" s="79"/>
       <c r="BR113" s="62"/>
       <c r="BS113" s="62"/>
       <c r="BT113" s="62"/>
@@ -23066,18 +23071,18 @@
       <c r="FZ113" s="68"/>
       <c r="GA113" s="69"/>
       <c r="GB113" s="69"/>
-      <c r="GC113" s="91"/>
-      <c r="GD113" s="91"/>
-      <c r="GE113" s="91"/>
-      <c r="GF113" s="91"/>
-      <c r="GG113" s="91"/>
-      <c r="GH113" s="91"/>
-      <c r="GI113" s="91"/>
+      <c r="GC113" s="90"/>
+      <c r="GD113" s="90"/>
+      <c r="GE113" s="90"/>
+      <c r="GF113" s="90"/>
+      <c r="GG113" s="90"/>
+      <c r="GH113" s="90"/>
+      <c r="GI113" s="90"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A114" s="43"/>
       <c r="B114" s="57"/>
-      <c r="C114" s="71"/>
+      <c r="C114" s="89"/>
       <c r="D114" s="59"/>
       <c r="E114" s="59"/>
       <c r="F114" s="59"/>
@@ -23143,7 +23148,7 @@
       <c r="BN114" s="62"/>
       <c r="BO114" s="62"/>
       <c r="BP114" s="62"/>
-      <c r="BQ114" s="80"/>
+      <c r="BQ114" s="79"/>
       <c r="BR114" s="62"/>
       <c r="BS114" s="62"/>
       <c r="BT114" s="62"/>
@@ -23259,18 +23264,18 @@
       <c r="FZ114" s="68"/>
       <c r="GA114" s="69"/>
       <c r="GB114" s="69"/>
-      <c r="GC114" s="91"/>
-      <c r="GD114" s="91"/>
-      <c r="GE114" s="91"/>
-      <c r="GF114" s="91"/>
-      <c r="GG114" s="91"/>
-      <c r="GH114" s="91"/>
-      <c r="GI114" s="91"/>
+      <c r="GC114" s="90"/>
+      <c r="GD114" s="90"/>
+      <c r="GE114" s="90"/>
+      <c r="GF114" s="90"/>
+      <c r="GG114" s="90"/>
+      <c r="GH114" s="90"/>
+      <c r="GI114" s="90"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A115" s="43"/>
       <c r="B115" s="57"/>
-      <c r="C115" s="71"/>
+      <c r="C115" s="89"/>
       <c r="D115" s="59"/>
       <c r="E115" s="59"/>
       <c r="F115" s="59"/>
@@ -23336,7 +23341,7 @@
       <c r="BN115" s="62"/>
       <c r="BO115" s="62"/>
       <c r="BP115" s="62"/>
-      <c r="BQ115" s="80"/>
+      <c r="BQ115" s="79"/>
       <c r="BR115" s="62"/>
       <c r="BS115" s="62"/>
       <c r="BT115" s="62"/>
@@ -23452,18 +23457,18 @@
       <c r="FZ115" s="68"/>
       <c r="GA115" s="69"/>
       <c r="GB115" s="69"/>
-      <c r="GC115" s="91"/>
-      <c r="GD115" s="91"/>
-      <c r="GE115" s="91"/>
-      <c r="GF115" s="91"/>
-      <c r="GG115" s="91"/>
-      <c r="GH115" s="91"/>
-      <c r="GI115" s="91"/>
+      <c r="GC115" s="90"/>
+      <c r="GD115" s="90"/>
+      <c r="GE115" s="90"/>
+      <c r="GF115" s="90"/>
+      <c r="GG115" s="90"/>
+      <c r="GH115" s="90"/>
+      <c r="GI115" s="90"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A116" s="43"/>
       <c r="B116" s="57"/>
-      <c r="C116" s="71"/>
+      <c r="C116" s="89"/>
       <c r="D116" s="59"/>
       <c r="E116" s="59"/>
       <c r="F116" s="59"/>
@@ -23529,7 +23534,7 @@
       <c r="BN116" s="62"/>
       <c r="BO116" s="62"/>
       <c r="BP116" s="62"/>
-      <c r="BQ116" s="80"/>
+      <c r="BQ116" s="79"/>
       <c r="BR116" s="62"/>
       <c r="BS116" s="62"/>
       <c r="BT116" s="62"/>
@@ -23645,18 +23650,18 @@
       <c r="FZ116" s="68"/>
       <c r="GA116" s="69"/>
       <c r="GB116" s="69"/>
-      <c r="GC116" s="91"/>
-      <c r="GD116" s="91"/>
-      <c r="GE116" s="91"/>
-      <c r="GF116" s="91"/>
-      <c r="GG116" s="91"/>
-      <c r="GH116" s="91"/>
-      <c r="GI116" s="91"/>
+      <c r="GC116" s="90"/>
+      <c r="GD116" s="90"/>
+      <c r="GE116" s="90"/>
+      <c r="GF116" s="90"/>
+      <c r="GG116" s="90"/>
+      <c r="GH116" s="90"/>
+      <c r="GI116" s="90"/>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A117" s="43"/>
       <c r="B117" s="57"/>
-      <c r="C117" s="71"/>
+      <c r="C117" s="89"/>
       <c r="D117" s="59"/>
       <c r="E117" s="59"/>
       <c r="F117" s="59"/>
@@ -23722,7 +23727,7 @@
       <c r="BN117" s="62"/>
       <c r="BO117" s="62"/>
       <c r="BP117" s="62"/>
-      <c r="BQ117" s="80"/>
+      <c r="BQ117" s="79"/>
       <c r="BR117" s="62"/>
       <c r="BS117" s="62"/>
       <c r="BT117" s="62"/>
@@ -23838,18 +23843,18 @@
       <c r="FZ117" s="68"/>
       <c r="GA117" s="69"/>
       <c r="GB117" s="69"/>
-      <c r="GC117" s="91"/>
-      <c r="GD117" s="91"/>
-      <c r="GE117" s="91"/>
-      <c r="GF117" s="91"/>
-      <c r="GG117" s="91"/>
-      <c r="GH117" s="91"/>
-      <c r="GI117" s="91"/>
+      <c r="GC117" s="90"/>
+      <c r="GD117" s="90"/>
+      <c r="GE117" s="90"/>
+      <c r="GF117" s="90"/>
+      <c r="GG117" s="90"/>
+      <c r="GH117" s="90"/>
+      <c r="GI117" s="90"/>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A118" s="43"/>
       <c r="B118" s="57"/>
-      <c r="C118" s="71"/>
+      <c r="C118" s="89"/>
       <c r="D118" s="59"/>
       <c r="E118" s="59"/>
       <c r="F118" s="59"/>
@@ -24031,18 +24036,18 @@
       <c r="FZ118" s="68"/>
       <c r="GA118" s="69"/>
       <c r="GB118" s="69"/>
-      <c r="GC118" s="91"/>
-      <c r="GD118" s="91"/>
-      <c r="GE118" s="91"/>
-      <c r="GF118" s="91"/>
-      <c r="GG118" s="91"/>
-      <c r="GH118" s="91"/>
-      <c r="GI118" s="91"/>
+      <c r="GC118" s="90"/>
+      <c r="GD118" s="90"/>
+      <c r="GE118" s="90"/>
+      <c r="GF118" s="90"/>
+      <c r="GG118" s="90"/>
+      <c r="GH118" s="90"/>
+      <c r="GI118" s="90"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A119" s="43"/>
       <c r="B119" s="57"/>
-      <c r="C119" s="71"/>
+      <c r="C119" s="89"/>
       <c r="D119" s="59"/>
       <c r="E119" s="59"/>
       <c r="F119" s="59"/>
@@ -24224,18 +24229,18 @@
       <c r="FZ119" s="68"/>
       <c r="GA119" s="69"/>
       <c r="GB119" s="69"/>
-      <c r="GC119" s="91"/>
-      <c r="GD119" s="91"/>
-      <c r="GE119" s="91"/>
-      <c r="GF119" s="91"/>
-      <c r="GG119" s="91"/>
-      <c r="GH119" s="91"/>
-      <c r="GI119" s="91"/>
+      <c r="GC119" s="90"/>
+      <c r="GD119" s="90"/>
+      <c r="GE119" s="90"/>
+      <c r="GF119" s="90"/>
+      <c r="GG119" s="90"/>
+      <c r="GH119" s="90"/>
+      <c r="GI119" s="90"/>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A120" s="43"/>
       <c r="B120" s="57"/>
-      <c r="C120" s="71"/>
+      <c r="C120" s="89"/>
       <c r="D120" s="59"/>
       <c r="E120" s="59"/>
       <c r="F120" s="59"/>
@@ -24417,13 +24422,13 @@
       <c r="FZ120" s="68"/>
       <c r="GA120" s="69"/>
       <c r="GB120" s="69"/>
-      <c r="GC120" s="91"/>
-      <c r="GD120" s="91"/>
-      <c r="GE120" s="91"/>
-      <c r="GF120" s="91"/>
-      <c r="GG120" s="91"/>
-      <c r="GH120" s="91"/>
-      <c r="GI120" s="91"/>
+      <c r="GC120" s="90"/>
+      <c r="GD120" s="90"/>
+      <c r="GE120" s="90"/>
+      <c r="GF120" s="90"/>
+      <c r="GG120" s="90"/>
+      <c r="GH120" s="90"/>
+      <c r="GI120" s="90"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A121" s="43"/>
@@ -24494,7 +24499,7 @@
       <c r="BN121" s="65"/>
       <c r="BO121" s="65"/>
       <c r="BP121" s="65"/>
-      <c r="BQ121" s="80"/>
+      <c r="BQ121" s="79"/>
       <c r="BR121" s="65"/>
       <c r="BS121" s="62"/>
       <c r="BT121" s="62"/>
@@ -24610,18 +24615,18 @@
       <c r="FZ121" s="68"/>
       <c r="GA121" s="69"/>
       <c r="GB121" s="69"/>
-      <c r="GC121" s="91"/>
-      <c r="GD121" s="91"/>
-      <c r="GE121" s="91"/>
-      <c r="GF121" s="91"/>
-      <c r="GG121" s="91"/>
-      <c r="GH121" s="91"/>
-      <c r="GI121" s="91"/>
+      <c r="GC121" s="90"/>
+      <c r="GD121" s="90"/>
+      <c r="GE121" s="90"/>
+      <c r="GF121" s="90"/>
+      <c r="GG121" s="90"/>
+      <c r="GH121" s="90"/>
+      <c r="GI121" s="90"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A122" s="43"/>
       <c r="B122" s="95"/>
-      <c r="C122" s="84"/>
+      <c r="C122" s="96"/>
       <c r="D122" s="59"/>
       <c r="E122" s="59"/>
       <c r="F122" s="59"/>
@@ -24687,7 +24692,7 @@
       <c r="BN122" s="62"/>
       <c r="BO122" s="62"/>
       <c r="BP122" s="62"/>
-      <c r="BQ122" s="80"/>
+      <c r="BQ122" s="79"/>
       <c r="BR122" s="67"/>
       <c r="BS122" s="62"/>
       <c r="BT122" s="62"/>
@@ -24800,21 +24805,21 @@
       <c r="FW122" s="73"/>
       <c r="FX122" s="73"/>
       <c r="FY122" s="62"/>
-      <c r="FZ122" s="85"/>
-      <c r="GA122" s="86"/>
-      <c r="GB122" s="86"/>
-      <c r="GC122" s="91"/>
-      <c r="GD122" s="91"/>
-      <c r="GE122" s="91"/>
-      <c r="GF122" s="91"/>
-      <c r="GG122" s="91"/>
-      <c r="GH122" s="91"/>
-      <c r="GI122" s="91"/>
+      <c r="FZ122" s="82"/>
+      <c r="GA122" s="83"/>
+      <c r="GB122" s="83"/>
+      <c r="GC122" s="90"/>
+      <c r="GD122" s="90"/>
+      <c r="GE122" s="90"/>
+      <c r="GF122" s="90"/>
+      <c r="GG122" s="90"/>
+      <c r="GH122" s="90"/>
+      <c r="GI122" s="90"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A123" s="43"/>
       <c r="B123" s="95"/>
-      <c r="C123" s="84"/>
+      <c r="C123" s="96"/>
       <c r="D123" s="59"/>
       <c r="E123" s="59"/>
       <c r="F123" s="59"/>
@@ -24880,7 +24885,7 @@
       <c r="BN123" s="62"/>
       <c r="BO123" s="62"/>
       <c r="BP123" s="62"/>
-      <c r="BQ123" s="80"/>
+      <c r="BQ123" s="79"/>
       <c r="BR123" s="67"/>
       <c r="BS123" s="62"/>
       <c r="BT123" s="62"/>
@@ -24993,23 +24998,23 @@
       <c r="FW123" s="73"/>
       <c r="FX123" s="73"/>
       <c r="FY123" s="62"/>
-      <c r="FZ123" s="85"/>
-      <c r="GA123" s="86"/>
-      <c r="GB123" s="86"/>
-      <c r="GC123" s="91"/>
-      <c r="GD123" s="91"/>
-      <c r="GE123" s="91"/>
-      <c r="GF123" s="91"/>
-      <c r="GG123" s="91"/>
-      <c r="GH123" s="91"/>
-      <c r="GI123" s="91"/>
+      <c r="FZ123" s="82"/>
+      <c r="GA123" s="83"/>
+      <c r="GB123" s="83"/>
+      <c r="GC123" s="90"/>
+      <c r="GD123" s="90"/>
+      <c r="GE123" s="90"/>
+      <c r="GF123" s="90"/>
+      <c r="GG123" s="90"/>
+      <c r="GH123" s="90"/>
+      <c r="GI123" s="90"/>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A124" s="43" t="n">
         <v>1</v>
       </c>
       <c r="B124" s="95"/>
-      <c r="C124" s="84"/>
+      <c r="C124" s="96"/>
       <c r="D124" s="59"/>
       <c r="E124" s="59"/>
       <c r="F124" s="59"/>
@@ -25075,7 +25080,7 @@
       <c r="BN124" s="62"/>
       <c r="BO124" s="62"/>
       <c r="BP124" s="62"/>
-      <c r="BQ124" s="80"/>
+      <c r="BQ124" s="79"/>
       <c r="BR124" s="67"/>
       <c r="BS124" s="62"/>
       <c r="BT124" s="62"/>
@@ -25188,21 +25193,21 @@
       <c r="FW124" s="72"/>
       <c r="FX124" s="72"/>
       <c r="FY124" s="62"/>
-      <c r="FZ124" s="85"/>
-      <c r="GA124" s="86"/>
-      <c r="GB124" s="86"/>
-      <c r="GC124" s="91"/>
-      <c r="GD124" s="91"/>
-      <c r="GE124" s="91"/>
-      <c r="GF124" s="91"/>
-      <c r="GG124" s="91"/>
-      <c r="GH124" s="91"/>
-      <c r="GI124" s="91"/>
+      <c r="FZ124" s="82"/>
+      <c r="GA124" s="83"/>
+      <c r="GB124" s="83"/>
+      <c r="GC124" s="90"/>
+      <c r="GD124" s="90"/>
+      <c r="GE124" s="90"/>
+      <c r="GF124" s="90"/>
+      <c r="GG124" s="90"/>
+      <c r="GH124" s="90"/>
+      <c r="GI124" s="90"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A125" s="43"/>
       <c r="B125" s="95"/>
-      <c r="C125" s="84"/>
+      <c r="C125" s="96"/>
       <c r="D125" s="59"/>
       <c r="E125" s="59"/>
       <c r="F125" s="59"/>
@@ -25268,7 +25273,7 @@
       <c r="BN125" s="62"/>
       <c r="BO125" s="62"/>
       <c r="BP125" s="62"/>
-      <c r="BQ125" s="80"/>
+      <c r="BQ125" s="79"/>
       <c r="BR125" s="65"/>
       <c r="BS125" s="62"/>
       <c r="BT125" s="62"/>
@@ -25381,21 +25386,21 @@
       <c r="FW125" s="62"/>
       <c r="FX125" s="62"/>
       <c r="FY125" s="62"/>
-      <c r="FZ125" s="85"/>
-      <c r="GA125" s="86"/>
-      <c r="GB125" s="86"/>
-      <c r="GC125" s="91"/>
-      <c r="GD125" s="91"/>
-      <c r="GE125" s="91"/>
-      <c r="GF125" s="91"/>
-      <c r="GG125" s="91"/>
-      <c r="GH125" s="91"/>
-      <c r="GI125" s="91"/>
+      <c r="FZ125" s="82"/>
+      <c r="GA125" s="83"/>
+      <c r="GB125" s="83"/>
+      <c r="GC125" s="90"/>
+      <c r="GD125" s="90"/>
+      <c r="GE125" s="90"/>
+      <c r="GF125" s="90"/>
+      <c r="GG125" s="90"/>
+      <c r="GH125" s="90"/>
+      <c r="GI125" s="90"/>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A126" s="43"/>
       <c r="B126" s="95"/>
-      <c r="C126" s="84"/>
+      <c r="C126" s="96"/>
       <c r="D126" s="59"/>
       <c r="E126" s="59"/>
       <c r="F126" s="59"/>
@@ -25461,7 +25466,7 @@
       <c r="BN126" s="62"/>
       <c r="BO126" s="62"/>
       <c r="BP126" s="62"/>
-      <c r="BQ126" s="80"/>
+      <c r="BQ126" s="79"/>
       <c r="BR126" s="67"/>
       <c r="BS126" s="62"/>
       <c r="BT126" s="62"/>
@@ -25574,21 +25579,21 @@
       <c r="FW126" s="62"/>
       <c r="FX126" s="62"/>
       <c r="FY126" s="62"/>
-      <c r="FZ126" s="85"/>
-      <c r="GA126" s="86"/>
-      <c r="GB126" s="86"/>
-      <c r="GC126" s="91"/>
-      <c r="GD126" s="91"/>
-      <c r="GE126" s="91"/>
-      <c r="GF126" s="91"/>
-      <c r="GG126" s="91"/>
-      <c r="GH126" s="91"/>
-      <c r="GI126" s="91"/>
+      <c r="FZ126" s="82"/>
+      <c r="GA126" s="83"/>
+      <c r="GB126" s="83"/>
+      <c r="GC126" s="90"/>
+      <c r="GD126" s="90"/>
+      <c r="GE126" s="90"/>
+      <c r="GF126" s="90"/>
+      <c r="GG126" s="90"/>
+      <c r="GH126" s="90"/>
+      <c r="GI126" s="90"/>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A127" s="43"/>
       <c r="B127" s="95"/>
-      <c r="C127" s="84"/>
+      <c r="C127" s="96"/>
       <c r="D127" s="59"/>
       <c r="E127" s="59"/>
       <c r="F127" s="59"/>
@@ -25654,7 +25659,7 @@
       <c r="BN127" s="62"/>
       <c r="BO127" s="62"/>
       <c r="BP127" s="62"/>
-      <c r="BQ127" s="80"/>
+      <c r="BQ127" s="79"/>
       <c r="BR127" s="62"/>
       <c r="BS127" s="62"/>
       <c r="BT127" s="62"/>
@@ -25767,21 +25772,21 @@
       <c r="FW127" s="62"/>
       <c r="FX127" s="62"/>
       <c r="FY127" s="62"/>
-      <c r="FZ127" s="85"/>
-      <c r="GA127" s="86"/>
-      <c r="GB127" s="86"/>
-      <c r="GC127" s="91"/>
-      <c r="GD127" s="91"/>
-      <c r="GE127" s="91"/>
-      <c r="GF127" s="91"/>
-      <c r="GG127" s="91"/>
-      <c r="GH127" s="91"/>
-      <c r="GI127" s="91"/>
+      <c r="FZ127" s="82"/>
+      <c r="GA127" s="83"/>
+      <c r="GB127" s="83"/>
+      <c r="GC127" s="90"/>
+      <c r="GD127" s="90"/>
+      <c r="GE127" s="90"/>
+      <c r="GF127" s="90"/>
+      <c r="GG127" s="90"/>
+      <c r="GH127" s="90"/>
+      <c r="GI127" s="90"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A128" s="43"/>
       <c r="B128" s="95"/>
-      <c r="C128" s="84"/>
+      <c r="C128" s="96"/>
       <c r="D128" s="59"/>
       <c r="E128" s="59"/>
       <c r="F128" s="59"/>
@@ -25847,7 +25852,7 @@
       <c r="BN128" s="62"/>
       <c r="BO128" s="62"/>
       <c r="BP128" s="62"/>
-      <c r="BQ128" s="80"/>
+      <c r="BQ128" s="79"/>
       <c r="BR128" s="62"/>
       <c r="BS128" s="62"/>
       <c r="BT128" s="62"/>
@@ -25960,21 +25965,21 @@
       <c r="FW128" s="62"/>
       <c r="FX128" s="62"/>
       <c r="FY128" s="62"/>
-      <c r="FZ128" s="85"/>
-      <c r="GA128" s="86"/>
-      <c r="GB128" s="86"/>
-      <c r="GC128" s="91"/>
-      <c r="GD128" s="91"/>
-      <c r="GE128" s="91"/>
-      <c r="GF128" s="91"/>
-      <c r="GG128" s="91"/>
-      <c r="GH128" s="91"/>
-      <c r="GI128" s="91"/>
+      <c r="FZ128" s="82"/>
+      <c r="GA128" s="83"/>
+      <c r="GB128" s="83"/>
+      <c r="GC128" s="90"/>
+      <c r="GD128" s="90"/>
+      <c r="GE128" s="90"/>
+      <c r="GF128" s="90"/>
+      <c r="GG128" s="90"/>
+      <c r="GH128" s="90"/>
+      <c r="GI128" s="90"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A129" s="43"/>
       <c r="B129" s="95"/>
-      <c r="C129" s="84"/>
+      <c r="C129" s="96"/>
       <c r="D129" s="75"/>
       <c r="E129" s="75"/>
       <c r="F129" s="75"/>
@@ -25982,7 +25987,7 @@
       <c r="H129" s="75"/>
       <c r="I129" s="59"/>
       <c r="J129" s="75"/>
-      <c r="K129" s="96"/>
+      <c r="K129" s="97"/>
       <c r="L129" s="75"/>
       <c r="M129" s="75"/>
       <c r="N129" s="92"/>
@@ -26040,7 +26045,7 @@
       <c r="BN129" s="62"/>
       <c r="BO129" s="62"/>
       <c r="BP129" s="62"/>
-      <c r="BQ129" s="80"/>
+      <c r="BQ129" s="79"/>
       <c r="BR129" s="92"/>
       <c r="BS129" s="92"/>
       <c r="BT129" s="92"/>
@@ -26153,21 +26158,21 @@
       <c r="FW129" s="92"/>
       <c r="FX129" s="92"/>
       <c r="FY129" s="92"/>
-      <c r="FZ129" s="85"/>
-      <c r="GA129" s="86"/>
-      <c r="GB129" s="86"/>
-      <c r="GC129" s="91"/>
-      <c r="GD129" s="91"/>
-      <c r="GE129" s="91"/>
-      <c r="GF129" s="91"/>
-      <c r="GG129" s="91"/>
-      <c r="GH129" s="91"/>
-      <c r="GI129" s="91"/>
+      <c r="FZ129" s="82"/>
+      <c r="GA129" s="83"/>
+      <c r="GB129" s="83"/>
+      <c r="GC129" s="90"/>
+      <c r="GD129" s="90"/>
+      <c r="GE129" s="90"/>
+      <c r="GF129" s="90"/>
+      <c r="GG129" s="90"/>
+      <c r="GH129" s="90"/>
+      <c r="GI129" s="90"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A130" s="43"/>
       <c r="B130" s="95"/>
-      <c r="C130" s="84"/>
+      <c r="C130" s="96"/>
       <c r="D130" s="59"/>
       <c r="E130" s="59"/>
       <c r="F130" s="59"/>
@@ -26175,7 +26180,7 @@
       <c r="H130" s="59"/>
       <c r="I130" s="59"/>
       <c r="J130" s="75"/>
-      <c r="K130" s="96"/>
+      <c r="K130" s="97"/>
       <c r="L130" s="75"/>
       <c r="M130" s="75"/>
       <c r="N130" s="62"/>
@@ -26233,7 +26238,7 @@
       <c r="BN130" s="62"/>
       <c r="BO130" s="62"/>
       <c r="BP130" s="62"/>
-      <c r="BQ130" s="80"/>
+      <c r="BQ130" s="79"/>
       <c r="BR130" s="92"/>
       <c r="BS130" s="92"/>
       <c r="BT130" s="92"/>
@@ -26346,58 +26351,58 @@
       <c r="FW130" s="92"/>
       <c r="FX130" s="92"/>
       <c r="FY130" s="92"/>
-      <c r="FZ130" s="85"/>
-      <c r="GA130" s="86"/>
-      <c r="GB130" s="86"/>
-      <c r="GC130" s="91"/>
-      <c r="GD130" s="91"/>
-      <c r="GE130" s="91"/>
-      <c r="GF130" s="91"/>
-      <c r="GG130" s="91"/>
-      <c r="GH130" s="91"/>
-      <c r="GI130" s="91"/>
+      <c r="FZ130" s="82"/>
+      <c r="GA130" s="83"/>
+      <c r="GB130" s="83"/>
+      <c r="GC130" s="90"/>
+      <c r="GD130" s="90"/>
+      <c r="GE130" s="90"/>
+      <c r="GF130" s="90"/>
+      <c r="GG130" s="90"/>
+      <c r="GH130" s="90"/>
+      <c r="GI130" s="90"/>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A131" s="43"/>
       <c r="B131" s="95"/>
-      <c r="C131" s="84"/>
+      <c r="C131" s="96"/>
       <c r="D131" s="59"/>
-      <c r="E131" s="88"/>
-      <c r="F131" s="88"/>
-      <c r="G131" s="88"/>
-      <c r="H131" s="88"/>
+      <c r="E131" s="85"/>
+      <c r="F131" s="85"/>
+      <c r="G131" s="85"/>
+      <c r="H131" s="85"/>
       <c r="I131" s="59"/>
       <c r="J131" s="75"/>
-      <c r="K131" s="96"/>
+      <c r="K131" s="97"/>
       <c r="L131" s="75"/>
       <c r="M131" s="75"/>
-      <c r="N131" s="88"/>
-      <c r="O131" s="88"/>
-      <c r="P131" s="88"/>
-      <c r="Q131" s="88"/>
-      <c r="R131" s="88"/>
-      <c r="S131" s="88"/>
-      <c r="T131" s="88"/>
-      <c r="U131" s="88"/>
-      <c r="V131" s="88"/>
-      <c r="W131" s="88"/>
-      <c r="X131" s="88"/>
-      <c r="Y131" s="88"/>
-      <c r="Z131" s="88"/>
-      <c r="AA131" s="88"/>
-      <c r="AB131" s="88"/>
-      <c r="AC131" s="88"/>
-      <c r="AD131" s="88"/>
-      <c r="AE131" s="88"/>
-      <c r="AF131" s="88"/>
-      <c r="AG131" s="88"/>
-      <c r="AH131" s="88"/>
-      <c r="AI131" s="88"/>
-      <c r="AJ131" s="88"/>
-      <c r="AK131" s="88"/>
-      <c r="AL131" s="88"/>
-      <c r="AM131" s="88"/>
-      <c r="AN131" s="88"/>
+      <c r="N131" s="85"/>
+      <c r="O131" s="85"/>
+      <c r="P131" s="85"/>
+      <c r="Q131" s="85"/>
+      <c r="R131" s="85"/>
+      <c r="S131" s="85"/>
+      <c r="T131" s="85"/>
+      <c r="U131" s="85"/>
+      <c r="V131" s="85"/>
+      <c r="W131" s="85"/>
+      <c r="X131" s="85"/>
+      <c r="Y131" s="85"/>
+      <c r="Z131" s="85"/>
+      <c r="AA131" s="85"/>
+      <c r="AB131" s="85"/>
+      <c r="AC131" s="85"/>
+      <c r="AD131" s="85"/>
+      <c r="AE131" s="85"/>
+      <c r="AF131" s="85"/>
+      <c r="AG131" s="85"/>
+      <c r="AH131" s="85"/>
+      <c r="AI131" s="85"/>
+      <c r="AJ131" s="85"/>
+      <c r="AK131" s="85"/>
+      <c r="AL131" s="85"/>
+      <c r="AM131" s="85"/>
+      <c r="AN131" s="85"/>
       <c r="AO131" s="63"/>
       <c r="AP131" s="62"/>
       <c r="AQ131" s="62"/>
@@ -26426,7 +26431,7 @@
       <c r="BN131" s="62"/>
       <c r="BO131" s="62"/>
       <c r="BP131" s="62"/>
-      <c r="BQ131" s="80"/>
+      <c r="BQ131" s="79"/>
       <c r="BR131" s="92"/>
       <c r="BS131" s="92"/>
       <c r="BT131" s="92"/>
@@ -26539,216 +26544,216 @@
       <c r="FW131" s="92"/>
       <c r="FX131" s="92"/>
       <c r="FY131" s="92"/>
-      <c r="FZ131" s="85"/>
-      <c r="GA131" s="86"/>
-      <c r="GB131" s="86"/>
-      <c r="GC131" s="91"/>
-      <c r="GD131" s="91"/>
-      <c r="GE131" s="91"/>
-      <c r="GF131" s="91"/>
-      <c r="GG131" s="91"/>
-      <c r="GH131" s="91"/>
-      <c r="GI131" s="91"/>
+      <c r="FZ131" s="82"/>
+      <c r="GA131" s="83"/>
+      <c r="GB131" s="83"/>
+      <c r="GC131" s="90"/>
+      <c r="GD131" s="90"/>
+      <c r="GE131" s="90"/>
+      <c r="GF131" s="90"/>
+      <c r="GG131" s="90"/>
+      <c r="GH131" s="90"/>
+      <c r="GI131" s="90"/>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A132" s="43"/>
-      <c r="B132" s="97"/>
-      <c r="C132" s="98"/>
-      <c r="D132" s="98"/>
-      <c r="E132" s="98"/>
-      <c r="F132" s="98"/>
-      <c r="G132" s="98"/>
-      <c r="H132" s="98"/>
-      <c r="I132" s="98"/>
-      <c r="J132" s="98"/>
-      <c r="K132" s="99"/>
-      <c r="L132" s="98"/>
-      <c r="M132" s="98"/>
-      <c r="N132" s="98"/>
-      <c r="O132" s="98"/>
-      <c r="P132" s="98"/>
-      <c r="Q132" s="98"/>
-      <c r="R132" s="98"/>
-      <c r="S132" s="98"/>
-      <c r="T132" s="98"/>
-      <c r="U132" s="98"/>
-      <c r="V132" s="98"/>
-      <c r="W132" s="98"/>
-      <c r="X132" s="98"/>
-      <c r="Y132" s="98"/>
-      <c r="Z132" s="98"/>
-      <c r="AA132" s="98"/>
-      <c r="AB132" s="98"/>
-      <c r="AC132" s="98"/>
-      <c r="AD132" s="98"/>
-      <c r="AE132" s="98"/>
-      <c r="AF132" s="98"/>
-      <c r="AG132" s="98"/>
-      <c r="AH132" s="98"/>
-      <c r="AI132" s="98"/>
-      <c r="AJ132" s="98"/>
-      <c r="AK132" s="98"/>
-      <c r="AL132" s="98"/>
-      <c r="AM132" s="98"/>
-      <c r="AN132" s="98"/>
-      <c r="AO132" s="98"/>
-      <c r="AP132" s="98"/>
-      <c r="AQ132" s="98"/>
-      <c r="AR132" s="98"/>
-      <c r="AS132" s="100"/>
-      <c r="AT132" s="98"/>
-      <c r="AU132" s="98"/>
-      <c r="AV132" s="98"/>
-      <c r="AW132" s="98"/>
-      <c r="AX132" s="98"/>
-      <c r="AY132" s="98"/>
-      <c r="AZ132" s="98"/>
-      <c r="BA132" s="98"/>
-      <c r="BB132" s="98"/>
-      <c r="BC132" s="98"/>
-      <c r="BD132" s="98"/>
-      <c r="BE132" s="98"/>
-      <c r="BF132" s="98"/>
-      <c r="BG132" s="98"/>
-      <c r="BH132" s="98"/>
-      <c r="BI132" s="98"/>
-      <c r="BJ132" s="98"/>
-      <c r="BK132" s="98"/>
-      <c r="BL132" s="98"/>
-      <c r="BM132" s="98"/>
-      <c r="BN132" s="98"/>
-      <c r="BO132" s="98"/>
-      <c r="BP132" s="98"/>
+      <c r="B132" s="98"/>
+      <c r="C132" s="99"/>
+      <c r="D132" s="99"/>
+      <c r="E132" s="99"/>
+      <c r="F132" s="99"/>
+      <c r="G132" s="99"/>
+      <c r="H132" s="99"/>
+      <c r="I132" s="99"/>
+      <c r="J132" s="99"/>
+      <c r="K132" s="100"/>
+      <c r="L132" s="99"/>
+      <c r="M132" s="99"/>
+      <c r="N132" s="99"/>
+      <c r="O132" s="99"/>
+      <c r="P132" s="99"/>
+      <c r="Q132" s="99"/>
+      <c r="R132" s="99"/>
+      <c r="S132" s="99"/>
+      <c r="T132" s="99"/>
+      <c r="U132" s="99"/>
+      <c r="V132" s="99"/>
+      <c r="W132" s="99"/>
+      <c r="X132" s="99"/>
+      <c r="Y132" s="99"/>
+      <c r="Z132" s="99"/>
+      <c r="AA132" s="99"/>
+      <c r="AB132" s="99"/>
+      <c r="AC132" s="99"/>
+      <c r="AD132" s="99"/>
+      <c r="AE132" s="99"/>
+      <c r="AF132" s="99"/>
+      <c r="AG132" s="99"/>
+      <c r="AH132" s="99"/>
+      <c r="AI132" s="99"/>
+      <c r="AJ132" s="99"/>
+      <c r="AK132" s="99"/>
+      <c r="AL132" s="99"/>
+      <c r="AM132" s="99"/>
+      <c r="AN132" s="99"/>
+      <c r="AO132" s="99"/>
+      <c r="AP132" s="99"/>
+      <c r="AQ132" s="99"/>
+      <c r="AR132" s="99"/>
+      <c r="AS132" s="101"/>
+      <c r="AT132" s="99"/>
+      <c r="AU132" s="99"/>
+      <c r="AV132" s="99"/>
+      <c r="AW132" s="99"/>
+      <c r="AX132" s="99"/>
+      <c r="AY132" s="99"/>
+      <c r="AZ132" s="99"/>
+      <c r="BA132" s="99"/>
+      <c r="BB132" s="99"/>
+      <c r="BC132" s="99"/>
+      <c r="BD132" s="99"/>
+      <c r="BE132" s="99"/>
+      <c r="BF132" s="99"/>
+      <c r="BG132" s="99"/>
+      <c r="BH132" s="99"/>
+      <c r="BI132" s="99"/>
+      <c r="BJ132" s="99"/>
+      <c r="BK132" s="99"/>
+      <c r="BL132" s="99"/>
+      <c r="BM132" s="99"/>
+      <c r="BN132" s="99"/>
+      <c r="BO132" s="99"/>
+      <c r="BP132" s="99"/>
       <c r="BQ132" s="64"/>
-      <c r="BR132" s="98"/>
-      <c r="BS132" s="98"/>
-      <c r="BT132" s="98"/>
-      <c r="BU132" s="98"/>
-      <c r="BV132" s="98"/>
-      <c r="BW132" s="98"/>
-      <c r="BX132" s="98"/>
-      <c r="BY132" s="98"/>
-      <c r="BZ132" s="98"/>
-      <c r="CA132" s="98"/>
-      <c r="CB132" s="98"/>
-      <c r="CC132" s="98"/>
-      <c r="CD132" s="98"/>
-      <c r="CE132" s="98"/>
-      <c r="CF132" s="98"/>
-      <c r="CG132" s="98"/>
-      <c r="CH132" s="98"/>
-      <c r="CI132" s="98"/>
-      <c r="CJ132" s="98"/>
-      <c r="CK132" s="98"/>
-      <c r="CL132" s="98"/>
-      <c r="CM132" s="98"/>
-      <c r="CN132" s="98"/>
-      <c r="CO132" s="98"/>
-      <c r="CP132" s="98"/>
-      <c r="CQ132" s="98"/>
-      <c r="CR132" s="98"/>
-      <c r="CS132" s="98"/>
+      <c r="BR132" s="99"/>
+      <c r="BS132" s="99"/>
+      <c r="BT132" s="99"/>
+      <c r="BU132" s="99"/>
+      <c r="BV132" s="99"/>
+      <c r="BW132" s="99"/>
+      <c r="BX132" s="99"/>
+      <c r="BY132" s="99"/>
+      <c r="BZ132" s="99"/>
+      <c r="CA132" s="99"/>
+      <c r="CB132" s="99"/>
+      <c r="CC132" s="99"/>
+      <c r="CD132" s="99"/>
+      <c r="CE132" s="99"/>
+      <c r="CF132" s="99"/>
+      <c r="CG132" s="99"/>
+      <c r="CH132" s="99"/>
+      <c r="CI132" s="99"/>
+      <c r="CJ132" s="99"/>
+      <c r="CK132" s="99"/>
+      <c r="CL132" s="99"/>
+      <c r="CM132" s="99"/>
+      <c r="CN132" s="99"/>
+      <c r="CO132" s="99"/>
+      <c r="CP132" s="99"/>
+      <c r="CQ132" s="99"/>
+      <c r="CR132" s="99"/>
+      <c r="CS132" s="99"/>
       <c r="CT132" s="67"/>
-      <c r="CU132" s="98"/>
-      <c r="CV132" s="98"/>
-      <c r="CW132" s="98"/>
-      <c r="CX132" s="98"/>
-      <c r="CY132" s="98"/>
-      <c r="CZ132" s="98"/>
-      <c r="DA132" s="98"/>
-      <c r="DB132" s="98"/>
-      <c r="DC132" s="98"/>
-      <c r="DD132" s="98"/>
-      <c r="DE132" s="98"/>
-      <c r="DF132" s="98"/>
-      <c r="DG132" s="98"/>
-      <c r="DH132" s="98"/>
-      <c r="DI132" s="98"/>
-      <c r="DJ132" s="98"/>
-      <c r="DK132" s="98"/>
-      <c r="DL132" s="98"/>
-      <c r="DM132" s="98"/>
-      <c r="DN132" s="98"/>
-      <c r="DO132" s="98"/>
-      <c r="DP132" s="98"/>
-      <c r="DQ132" s="98"/>
-      <c r="DR132" s="98"/>
-      <c r="DS132" s="98"/>
-      <c r="DT132" s="98"/>
-      <c r="DU132" s="98"/>
+      <c r="CU132" s="99"/>
+      <c r="CV132" s="99"/>
+      <c r="CW132" s="99"/>
+      <c r="CX132" s="99"/>
+      <c r="CY132" s="99"/>
+      <c r="CZ132" s="99"/>
+      <c r="DA132" s="99"/>
+      <c r="DB132" s="99"/>
+      <c r="DC132" s="99"/>
+      <c r="DD132" s="99"/>
+      <c r="DE132" s="99"/>
+      <c r="DF132" s="99"/>
+      <c r="DG132" s="99"/>
+      <c r="DH132" s="99"/>
+      <c r="DI132" s="99"/>
+      <c r="DJ132" s="99"/>
+      <c r="DK132" s="99"/>
+      <c r="DL132" s="99"/>
+      <c r="DM132" s="99"/>
+      <c r="DN132" s="99"/>
+      <c r="DO132" s="99"/>
+      <c r="DP132" s="99"/>
+      <c r="DQ132" s="99"/>
+      <c r="DR132" s="99"/>
+      <c r="DS132" s="99"/>
+      <c r="DT132" s="99"/>
+      <c r="DU132" s="99"/>
       <c r="DV132" s="67"/>
-      <c r="DW132" s="98"/>
-      <c r="DX132" s="98"/>
-      <c r="DY132" s="98"/>
-      <c r="DZ132" s="98"/>
-      <c r="EA132" s="98"/>
-      <c r="EB132" s="98"/>
-      <c r="EC132" s="98"/>
-      <c r="ED132" s="98"/>
-      <c r="EE132" s="98"/>
-      <c r="EF132" s="98"/>
-      <c r="EG132" s="98"/>
-      <c r="EH132" s="98"/>
-      <c r="EI132" s="98"/>
-      <c r="EJ132" s="98"/>
-      <c r="EK132" s="98"/>
-      <c r="EL132" s="98"/>
-      <c r="EM132" s="98"/>
-      <c r="EN132" s="98"/>
-      <c r="EO132" s="98"/>
-      <c r="EP132" s="98"/>
-      <c r="EQ132" s="98"/>
-      <c r="ER132" s="98"/>
-      <c r="ES132" s="98"/>
-      <c r="ET132" s="98"/>
-      <c r="EU132" s="98"/>
-      <c r="EV132" s="98"/>
-      <c r="EW132" s="98"/>
+      <c r="DW132" s="99"/>
+      <c r="DX132" s="99"/>
+      <c r="DY132" s="99"/>
+      <c r="DZ132" s="99"/>
+      <c r="EA132" s="99"/>
+      <c r="EB132" s="99"/>
+      <c r="EC132" s="99"/>
+      <c r="ED132" s="99"/>
+      <c r="EE132" s="99"/>
+      <c r="EF132" s="99"/>
+      <c r="EG132" s="99"/>
+      <c r="EH132" s="99"/>
+      <c r="EI132" s="99"/>
+      <c r="EJ132" s="99"/>
+      <c r="EK132" s="99"/>
+      <c r="EL132" s="99"/>
+      <c r="EM132" s="99"/>
+      <c r="EN132" s="99"/>
+      <c r="EO132" s="99"/>
+      <c r="EP132" s="99"/>
+      <c r="EQ132" s="99"/>
+      <c r="ER132" s="99"/>
+      <c r="ES132" s="99"/>
+      <c r="ET132" s="99"/>
+      <c r="EU132" s="99"/>
+      <c r="EV132" s="99"/>
+      <c r="EW132" s="99"/>
       <c r="EX132" s="67"/>
-      <c r="EY132" s="98"/>
-      <c r="EZ132" s="98"/>
-      <c r="FA132" s="98"/>
-      <c r="FB132" s="98"/>
-      <c r="FC132" s="98"/>
-      <c r="FD132" s="98"/>
-      <c r="FE132" s="98"/>
-      <c r="FF132" s="98"/>
-      <c r="FG132" s="98"/>
-      <c r="FH132" s="98"/>
-      <c r="FI132" s="98"/>
-      <c r="FJ132" s="98"/>
-      <c r="FK132" s="98"/>
-      <c r="FL132" s="98"/>
-      <c r="FM132" s="98"/>
-      <c r="FN132" s="98"/>
-      <c r="FO132" s="98"/>
-      <c r="FP132" s="98"/>
-      <c r="FQ132" s="98"/>
-      <c r="FR132" s="98"/>
-      <c r="FS132" s="98"/>
-      <c r="FT132" s="98"/>
-      <c r="FU132" s="98"/>
-      <c r="FV132" s="98"/>
-      <c r="FW132" s="98"/>
-      <c r="FX132" s="98"/>
-      <c r="FY132" s="98"/>
-      <c r="FZ132" s="85"/>
-      <c r="GA132" s="86"/>
-      <c r="GB132" s="86"/>
-      <c r="GC132" s="91"/>
-      <c r="GD132" s="91"/>
-      <c r="GE132" s="91"/>
-      <c r="GF132" s="91"/>
-      <c r="GG132" s="91"/>
-      <c r="GH132" s="91"/>
-      <c r="GI132" s="91"/>
-      <c r="GJ132" s="91"/>
-      <c r="GK132" s="91"/>
+      <c r="EY132" s="99"/>
+      <c r="EZ132" s="99"/>
+      <c r="FA132" s="99"/>
+      <c r="FB132" s="99"/>
+      <c r="FC132" s="99"/>
+      <c r="FD132" s="99"/>
+      <c r="FE132" s="99"/>
+      <c r="FF132" s="99"/>
+      <c r="FG132" s="99"/>
+      <c r="FH132" s="99"/>
+      <c r="FI132" s="99"/>
+      <c r="FJ132" s="99"/>
+      <c r="FK132" s="99"/>
+      <c r="FL132" s="99"/>
+      <c r="FM132" s="99"/>
+      <c r="FN132" s="99"/>
+      <c r="FO132" s="99"/>
+      <c r="FP132" s="99"/>
+      <c r="FQ132" s="99"/>
+      <c r="FR132" s="99"/>
+      <c r="FS132" s="99"/>
+      <c r="FT132" s="99"/>
+      <c r="FU132" s="99"/>
+      <c r="FV132" s="99"/>
+      <c r="FW132" s="99"/>
+      <c r="FX132" s="99"/>
+      <c r="FY132" s="99"/>
+      <c r="FZ132" s="82"/>
+      <c r="GA132" s="83"/>
+      <c r="GB132" s="83"/>
+      <c r="GC132" s="90"/>
+      <c r="GD132" s="90"/>
+      <c r="GE132" s="90"/>
+      <c r="GF132" s="90"/>
+      <c r="GG132" s="90"/>
+      <c r="GH132" s="90"/>
+      <c r="GI132" s="90"/>
+      <c r="GJ132" s="90"/>
+      <c r="GK132" s="90"/>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A133" s="43"/>
-      <c r="B133" s="101"/>
-      <c r="C133" s="102"/>
+      <c r="B133" s="102"/>
+      <c r="C133" s="103"/>
       <c r="D133" s="59"/>
       <c r="E133" s="59"/>
       <c r="F133" s="59"/>
@@ -26930,18 +26935,18 @@
       <c r="FZ133" s="68"/>
       <c r="GA133" s="69"/>
       <c r="GB133" s="59"/>
-      <c r="GC133" s="91"/>
-      <c r="GD133" s="91"/>
-      <c r="GE133" s="91"/>
-      <c r="GF133" s="91"/>
-      <c r="GG133" s="91"/>
-      <c r="GH133" s="91"/>
-      <c r="GI133" s="91"/>
+      <c r="GC133" s="90"/>
+      <c r="GD133" s="90"/>
+      <c r="GE133" s="90"/>
+      <c r="GF133" s="90"/>
+      <c r="GG133" s="90"/>
+      <c r="GH133" s="90"/>
+      <c r="GI133" s="90"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A134" s="43"/>
-      <c r="B134" s="101"/>
-      <c r="C134" s="102"/>
+      <c r="B134" s="102"/>
+      <c r="C134" s="103"/>
       <c r="D134" s="59"/>
       <c r="E134" s="59"/>
       <c r="F134" s="59"/>
@@ -27123,20 +27128,20 @@
       <c r="FZ134" s="68"/>
       <c r="GA134" s="69"/>
       <c r="GB134" s="69"/>
-      <c r="GC134" s="91"/>
-      <c r="GD134" s="91"/>
-      <c r="GE134" s="91"/>
-      <c r="GF134" s="91"/>
-      <c r="GG134" s="91"/>
-      <c r="GH134" s="91"/>
-      <c r="GI134" s="91"/>
-      <c r="GJ134" s="91"/>
-      <c r="GK134" s="91"/>
+      <c r="GC134" s="90"/>
+      <c r="GD134" s="90"/>
+      <c r="GE134" s="90"/>
+      <c r="GF134" s="90"/>
+      <c r="GG134" s="90"/>
+      <c r="GH134" s="90"/>
+      <c r="GI134" s="90"/>
+      <c r="GJ134" s="90"/>
+      <c r="GK134" s="90"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A135" s="43"/>
-      <c r="B135" s="101"/>
-      <c r="C135" s="102"/>
+      <c r="B135" s="102"/>
+      <c r="C135" s="103"/>
       <c r="D135" s="59"/>
       <c r="E135" s="59"/>
       <c r="F135" s="59"/>
@@ -27318,20 +27323,20 @@
       <c r="FZ135" s="68"/>
       <c r="GA135" s="69"/>
       <c r="GB135" s="69"/>
-      <c r="GC135" s="91"/>
-      <c r="GD135" s="91"/>
-      <c r="GE135" s="91"/>
-      <c r="GF135" s="91"/>
-      <c r="GG135" s="91"/>
-      <c r="GH135" s="91"/>
-      <c r="GI135" s="91"/>
-      <c r="GJ135" s="91"/>
-      <c r="GK135" s="91"/>
+      <c r="GC135" s="90"/>
+      <c r="GD135" s="90"/>
+      <c r="GE135" s="90"/>
+      <c r="GF135" s="90"/>
+      <c r="GG135" s="90"/>
+      <c r="GH135" s="90"/>
+      <c r="GI135" s="90"/>
+      <c r="GJ135" s="90"/>
+      <c r="GK135" s="90"/>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A136" s="43"/>
-      <c r="B136" s="101"/>
-      <c r="C136" s="102"/>
+      <c r="B136" s="102"/>
+      <c r="C136" s="103"/>
       <c r="D136" s="59"/>
       <c r="E136" s="59"/>
       <c r="F136" s="59"/>
@@ -27513,20 +27518,20 @@
       <c r="FZ136" s="68"/>
       <c r="GA136" s="69"/>
       <c r="GB136" s="69"/>
-      <c r="GC136" s="91"/>
-      <c r="GD136" s="91"/>
-      <c r="GE136" s="91"/>
-      <c r="GF136" s="91"/>
-      <c r="GG136" s="91"/>
-      <c r="GH136" s="91"/>
-      <c r="GI136" s="91"/>
-      <c r="GJ136" s="91"/>
-      <c r="GK136" s="91"/>
+      <c r="GC136" s="90"/>
+      <c r="GD136" s="90"/>
+      <c r="GE136" s="90"/>
+      <c r="GF136" s="90"/>
+      <c r="GG136" s="90"/>
+      <c r="GH136" s="90"/>
+      <c r="GI136" s="90"/>
+      <c r="GJ136" s="90"/>
+      <c r="GK136" s="90"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A137" s="43"/>
-      <c r="B137" s="101"/>
-      <c r="C137" s="102"/>
+      <c r="B137" s="102"/>
+      <c r="C137" s="103"/>
       <c r="D137" s="59"/>
       <c r="E137" s="59"/>
       <c r="F137" s="59"/>
@@ -27708,20 +27713,20 @@
       <c r="FZ137" s="68"/>
       <c r="GA137" s="69"/>
       <c r="GB137" s="69"/>
-      <c r="GC137" s="91"/>
-      <c r="GD137" s="91"/>
-      <c r="GE137" s="91"/>
-      <c r="GF137" s="91"/>
-      <c r="GG137" s="91"/>
-      <c r="GH137" s="91"/>
-      <c r="GI137" s="91"/>
-      <c r="GJ137" s="91"/>
-      <c r="GK137" s="91"/>
+      <c r="GC137" s="90"/>
+      <c r="GD137" s="90"/>
+      <c r="GE137" s="90"/>
+      <c r="GF137" s="90"/>
+      <c r="GG137" s="90"/>
+      <c r="GH137" s="90"/>
+      <c r="GI137" s="90"/>
+      <c r="GJ137" s="90"/>
+      <c r="GK137" s="90"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A138" s="43"/>
-      <c r="B138" s="101"/>
-      <c r="C138" s="102"/>
+      <c r="B138" s="102"/>
+      <c r="C138" s="103"/>
       <c r="D138" s="59"/>
       <c r="E138" s="59"/>
       <c r="F138" s="59"/>
@@ -27903,20 +27908,20 @@
       <c r="FZ138" s="68"/>
       <c r="GA138" s="69"/>
       <c r="GB138" s="69"/>
-      <c r="GC138" s="91"/>
-      <c r="GD138" s="91"/>
-      <c r="GE138" s="91"/>
-      <c r="GF138" s="91"/>
-      <c r="GG138" s="91"/>
-      <c r="GH138" s="91"/>
-      <c r="GI138" s="91"/>
-      <c r="GJ138" s="91"/>
-      <c r="GK138" s="91"/>
+      <c r="GC138" s="90"/>
+      <c r="GD138" s="90"/>
+      <c r="GE138" s="90"/>
+      <c r="GF138" s="90"/>
+      <c r="GG138" s="90"/>
+      <c r="GH138" s="90"/>
+      <c r="GI138" s="90"/>
+      <c r="GJ138" s="90"/>
+      <c r="GK138" s="90"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A139" s="43"/>
-      <c r="B139" s="101"/>
-      <c r="C139" s="102"/>
+      <c r="B139" s="102"/>
+      <c r="C139" s="103"/>
       <c r="D139" s="59"/>
       <c r="E139" s="59"/>
       <c r="F139" s="59"/>
@@ -28098,20 +28103,20 @@
       <c r="FZ139" s="68"/>
       <c r="GA139" s="69"/>
       <c r="GB139" s="69"/>
-      <c r="GC139" s="91"/>
-      <c r="GD139" s="91"/>
-      <c r="GE139" s="91"/>
-      <c r="GF139" s="91"/>
-      <c r="GG139" s="91"/>
-      <c r="GH139" s="91"/>
-      <c r="GI139" s="91"/>
-      <c r="GJ139" s="91"/>
-      <c r="GK139" s="91"/>
+      <c r="GC139" s="90"/>
+      <c r="GD139" s="90"/>
+      <c r="GE139" s="90"/>
+      <c r="GF139" s="90"/>
+      <c r="GG139" s="90"/>
+      <c r="GH139" s="90"/>
+      <c r="GI139" s="90"/>
+      <c r="GJ139" s="90"/>
+      <c r="GK139" s="90"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A140" s="43"/>
-      <c r="B140" s="101"/>
-      <c r="C140" s="102"/>
+      <c r="B140" s="102"/>
+      <c r="C140" s="103"/>
       <c r="D140" s="59"/>
       <c r="E140" s="59"/>
       <c r="F140" s="59"/>
@@ -28293,20 +28298,20 @@
       <c r="FZ140" s="68"/>
       <c r="GA140" s="69"/>
       <c r="GB140" s="69"/>
-      <c r="GC140" s="91"/>
-      <c r="GD140" s="91"/>
-      <c r="GE140" s="91"/>
-      <c r="GF140" s="91"/>
-      <c r="GG140" s="91"/>
-      <c r="GH140" s="91"/>
-      <c r="GI140" s="91"/>
-      <c r="GJ140" s="91"/>
-      <c r="GK140" s="91"/>
+      <c r="GC140" s="90"/>
+      <c r="GD140" s="90"/>
+      <c r="GE140" s="90"/>
+      <c r="GF140" s="90"/>
+      <c r="GG140" s="90"/>
+      <c r="GH140" s="90"/>
+      <c r="GI140" s="90"/>
+      <c r="GJ140" s="90"/>
+      <c r="GK140" s="90"/>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A141" s="43"/>
-      <c r="B141" s="101"/>
-      <c r="C141" s="102"/>
+      <c r="B141" s="102"/>
+      <c r="C141" s="103"/>
       <c r="D141" s="59"/>
       <c r="E141" s="59"/>
       <c r="F141" s="59"/>
@@ -28488,20 +28493,20 @@
       <c r="FZ141" s="68"/>
       <c r="GA141" s="69"/>
       <c r="GB141" s="69"/>
-      <c r="GC141" s="91"/>
-      <c r="GD141" s="91"/>
-      <c r="GE141" s="91"/>
-      <c r="GF141" s="91"/>
-      <c r="GG141" s="91"/>
-      <c r="GH141" s="91"/>
-      <c r="GI141" s="91"/>
-      <c r="GJ141" s="91"/>
-      <c r="GK141" s="91"/>
+      <c r="GC141" s="90"/>
+      <c r="GD141" s="90"/>
+      <c r="GE141" s="90"/>
+      <c r="GF141" s="90"/>
+      <c r="GG141" s="90"/>
+      <c r="GH141" s="90"/>
+      <c r="GI141" s="90"/>
+      <c r="GJ141" s="90"/>
+      <c r="GK141" s="90"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A142" s="43"/>
-      <c r="B142" s="101"/>
-      <c r="C142" s="102"/>
+      <c r="B142" s="102"/>
+      <c r="C142" s="103"/>
       <c r="D142" s="59"/>
       <c r="E142" s="59"/>
       <c r="F142" s="59"/>
@@ -28683,20 +28688,20 @@
       <c r="FZ142" s="68"/>
       <c r="GA142" s="69"/>
       <c r="GB142" s="69"/>
-      <c r="GC142" s="91"/>
-      <c r="GD142" s="91"/>
-      <c r="GE142" s="91"/>
-      <c r="GF142" s="91"/>
-      <c r="GG142" s="91"/>
-      <c r="GH142" s="91"/>
-      <c r="GI142" s="91"/>
-      <c r="GJ142" s="91"/>
-      <c r="GK142" s="91"/>
+      <c r="GC142" s="90"/>
+      <c r="GD142" s="90"/>
+      <c r="GE142" s="90"/>
+      <c r="GF142" s="90"/>
+      <c r="GG142" s="90"/>
+      <c r="GH142" s="90"/>
+      <c r="GI142" s="90"/>
+      <c r="GJ142" s="90"/>
+      <c r="GK142" s="90"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A143" s="43"/>
-      <c r="B143" s="101"/>
-      <c r="C143" s="102"/>
+      <c r="B143" s="102"/>
+      <c r="C143" s="103"/>
       <c r="D143" s="59"/>
       <c r="E143" s="59"/>
       <c r="F143" s="59"/>
@@ -28878,20 +28883,20 @@
       <c r="FZ143" s="68"/>
       <c r="GA143" s="69"/>
       <c r="GB143" s="69"/>
-      <c r="GC143" s="91"/>
-      <c r="GD143" s="91"/>
-      <c r="GE143" s="91"/>
-      <c r="GF143" s="91"/>
-      <c r="GG143" s="91"/>
-      <c r="GH143" s="91"/>
-      <c r="GI143" s="91"/>
-      <c r="GJ143" s="91"/>
-      <c r="GK143" s="91"/>
+      <c r="GC143" s="90"/>
+      <c r="GD143" s="90"/>
+      <c r="GE143" s="90"/>
+      <c r="GF143" s="90"/>
+      <c r="GG143" s="90"/>
+      <c r="GH143" s="90"/>
+      <c r="GI143" s="90"/>
+      <c r="GJ143" s="90"/>
+      <c r="GK143" s="90"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A144" s="43"/>
-      <c r="B144" s="101"/>
-      <c r="C144" s="102"/>
+      <c r="B144" s="102"/>
+      <c r="C144" s="103"/>
       <c r="D144" s="59"/>
       <c r="E144" s="59"/>
       <c r="F144" s="59"/>
@@ -29073,20 +29078,20 @@
       <c r="FZ144" s="68"/>
       <c r="GA144" s="69"/>
       <c r="GB144" s="69"/>
-      <c r="GC144" s="91"/>
-      <c r="GD144" s="91"/>
-      <c r="GE144" s="91"/>
-      <c r="GF144" s="91"/>
-      <c r="GG144" s="91"/>
-      <c r="GH144" s="91"/>
-      <c r="GI144" s="91"/>
-      <c r="GJ144" s="91"/>
-      <c r="GK144" s="91"/>
+      <c r="GC144" s="90"/>
+      <c r="GD144" s="90"/>
+      <c r="GE144" s="90"/>
+      <c r="GF144" s="90"/>
+      <c r="GG144" s="90"/>
+      <c r="GH144" s="90"/>
+      <c r="GI144" s="90"/>
+      <c r="GJ144" s="90"/>
+      <c r="GK144" s="90"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A145" s="43"/>
-      <c r="B145" s="101"/>
-      <c r="C145" s="102"/>
+      <c r="B145" s="102"/>
+      <c r="C145" s="103"/>
       <c r="D145" s="59"/>
       <c r="E145" s="59"/>
       <c r="F145" s="59"/>
@@ -29268,20 +29273,20 @@
       <c r="FZ145" s="68"/>
       <c r="GA145" s="69"/>
       <c r="GB145" s="69"/>
-      <c r="GC145" s="91"/>
-      <c r="GD145" s="91"/>
-      <c r="GE145" s="91"/>
-      <c r="GF145" s="91"/>
-      <c r="GG145" s="91"/>
-      <c r="GH145" s="91"/>
-      <c r="GI145" s="91"/>
-      <c r="GJ145" s="91"/>
-      <c r="GK145" s="91"/>
+      <c r="GC145" s="90"/>
+      <c r="GD145" s="90"/>
+      <c r="GE145" s="90"/>
+      <c r="GF145" s="90"/>
+      <c r="GG145" s="90"/>
+      <c r="GH145" s="90"/>
+      <c r="GI145" s="90"/>
+      <c r="GJ145" s="90"/>
+      <c r="GK145" s="90"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A146" s="43"/>
-      <c r="B146" s="101"/>
-      <c r="C146" s="102"/>
+      <c r="B146" s="102"/>
+      <c r="C146" s="103"/>
       <c r="D146" s="59"/>
       <c r="E146" s="59"/>
       <c r="F146" s="59"/>
@@ -29463,18 +29468,18 @@
       <c r="FZ146" s="68"/>
       <c r="GA146" s="69"/>
       <c r="GB146" s="69"/>
-      <c r="GC146" s="91"/>
-      <c r="GD146" s="91"/>
-      <c r="GE146" s="91"/>
-      <c r="GF146" s="91"/>
-      <c r="GG146" s="91"/>
-      <c r="GH146" s="91"/>
-      <c r="GI146" s="91"/>
+      <c r="GC146" s="90"/>
+      <c r="GD146" s="90"/>
+      <c r="GE146" s="90"/>
+      <c r="GF146" s="90"/>
+      <c r="GG146" s="90"/>
+      <c r="GH146" s="90"/>
+      <c r="GI146" s="90"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A147" s="43"/>
-      <c r="B147" s="101"/>
-      <c r="C147" s="103"/>
+      <c r="B147" s="102"/>
+      <c r="C147" s="104"/>
       <c r="D147" s="59"/>
       <c r="E147" s="59"/>
       <c r="F147" s="59"/>
@@ -29656,18 +29661,18 @@
       <c r="FZ147" s="68"/>
       <c r="GA147" s="69"/>
       <c r="GB147" s="69"/>
-      <c r="GC147" s="91"/>
-      <c r="GD147" s="91"/>
-      <c r="GE147" s="91"/>
-      <c r="GF147" s="91"/>
-      <c r="GG147" s="91"/>
-      <c r="GH147" s="91"/>
-      <c r="GI147" s="91"/>
+      <c r="GC147" s="90"/>
+      <c r="GD147" s="90"/>
+      <c r="GE147" s="90"/>
+      <c r="GF147" s="90"/>
+      <c r="GG147" s="90"/>
+      <c r="GH147" s="90"/>
+      <c r="GI147" s="90"/>
     </row>
     <row r="148" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A148" s="43"/>
-      <c r="B148" s="101"/>
-      <c r="C148" s="103"/>
+      <c r="B148" s="102"/>
+      <c r="C148" s="104"/>
       <c r="D148" s="59"/>
       <c r="E148" s="59"/>
       <c r="F148" s="59"/>
@@ -29849,18 +29854,18 @@
       <c r="FZ148" s="68"/>
       <c r="GA148" s="69"/>
       <c r="GB148" s="69"/>
-      <c r="GC148" s="91"/>
-      <c r="GD148" s="91"/>
-      <c r="GE148" s="91"/>
-      <c r="GF148" s="91"/>
-      <c r="GG148" s="91"/>
-      <c r="GH148" s="91"/>
-      <c r="GI148" s="91"/>
+      <c r="GC148" s="90"/>
+      <c r="GD148" s="90"/>
+      <c r="GE148" s="90"/>
+      <c r="GF148" s="90"/>
+      <c r="GG148" s="90"/>
+      <c r="GH148" s="90"/>
+      <c r="GI148" s="90"/>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A149" s="43"/>
-      <c r="B149" s="101"/>
-      <c r="C149" s="103"/>
+      <c r="B149" s="102"/>
+      <c r="C149" s="104"/>
       <c r="D149" s="59"/>
       <c r="E149" s="59"/>
       <c r="F149" s="59"/>
@@ -30042,18 +30047,18 @@
       <c r="FZ149" s="68"/>
       <c r="GA149" s="69"/>
       <c r="GB149" s="69"/>
-      <c r="GC149" s="91"/>
-      <c r="GD149" s="91"/>
-      <c r="GE149" s="91"/>
-      <c r="GF149" s="91"/>
-      <c r="GG149" s="91"/>
-      <c r="GH149" s="91"/>
-      <c r="GI149" s="91"/>
+      <c r="GC149" s="90"/>
+      <c r="GD149" s="90"/>
+      <c r="GE149" s="90"/>
+      <c r="GF149" s="90"/>
+      <c r="GG149" s="90"/>
+      <c r="GH149" s="90"/>
+      <c r="GI149" s="90"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A150" s="43"/>
-      <c r="B150" s="101"/>
-      <c r="C150" s="103"/>
+      <c r="B150" s="102"/>
+      <c r="C150" s="104"/>
       <c r="D150" s="59"/>
       <c r="E150" s="59"/>
       <c r="F150" s="59"/>
@@ -30235,18 +30240,18 @@
       <c r="FZ150" s="68"/>
       <c r="GA150" s="69"/>
       <c r="GB150" s="69"/>
-      <c r="GC150" s="91"/>
-      <c r="GD150" s="91"/>
-      <c r="GE150" s="91"/>
-      <c r="GF150" s="91"/>
-      <c r="GG150" s="91"/>
-      <c r="GH150" s="91"/>
-      <c r="GI150" s="91"/>
+      <c r="GC150" s="90"/>
+      <c r="GD150" s="90"/>
+      <c r="GE150" s="90"/>
+      <c r="GF150" s="90"/>
+      <c r="GG150" s="90"/>
+      <c r="GH150" s="90"/>
+      <c r="GI150" s="90"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A151" s="43"/>
-      <c r="B151" s="101"/>
-      <c r="C151" s="103"/>
+      <c r="B151" s="102"/>
+      <c r="C151" s="104"/>
       <c r="D151" s="59"/>
       <c r="E151" s="59"/>
       <c r="F151" s="59"/>
@@ -30428,20 +30433,20 @@
       <c r="FZ151" s="68"/>
       <c r="GA151" s="69"/>
       <c r="GB151" s="69"/>
-      <c r="GC151" s="91"/>
-      <c r="GD151" s="91"/>
-      <c r="GE151" s="91"/>
-      <c r="GF151" s="91"/>
-      <c r="GG151" s="91"/>
-      <c r="GH151" s="91"/>
-      <c r="GI151" s="91"/>
-      <c r="GJ151" s="91"/>
-      <c r="GK151" s="91"/>
+      <c r="GC151" s="90"/>
+      <c r="GD151" s="90"/>
+      <c r="GE151" s="90"/>
+      <c r="GF151" s="90"/>
+      <c r="GG151" s="90"/>
+      <c r="GH151" s="90"/>
+      <c r="GI151" s="90"/>
+      <c r="GJ151" s="90"/>
+      <c r="GK151" s="90"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A152" s="43"/>
-      <c r="B152" s="101"/>
-      <c r="C152" s="103"/>
+      <c r="B152" s="102"/>
+      <c r="C152" s="104"/>
       <c r="D152" s="59"/>
       <c r="E152" s="59"/>
       <c r="F152" s="59"/>
@@ -30623,18 +30628,18 @@
       <c r="FZ152" s="68"/>
       <c r="GA152" s="69"/>
       <c r="GB152" s="69"/>
-      <c r="GC152" s="91"/>
-      <c r="GD152" s="91"/>
-      <c r="GE152" s="91"/>
-      <c r="GF152" s="91"/>
-      <c r="GG152" s="91"/>
-      <c r="GH152" s="91"/>
-      <c r="GI152" s="91"/>
+      <c r="GC152" s="90"/>
+      <c r="GD152" s="90"/>
+      <c r="GE152" s="90"/>
+      <c r="GF152" s="90"/>
+      <c r="GG152" s="90"/>
+      <c r="GH152" s="90"/>
+      <c r="GI152" s="90"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A153" s="43"/>
-      <c r="B153" s="101"/>
-      <c r="C153" s="104"/>
+      <c r="B153" s="102"/>
+      <c r="C153" s="105"/>
       <c r="D153" s="59"/>
       <c r="E153" s="59"/>
       <c r="F153" s="59"/>
@@ -30816,24 +30821,24 @@
       <c r="FZ153" s="68"/>
       <c r="GA153" s="69"/>
       <c r="GB153" s="69"/>
-      <c r="GC153" s="91"/>
-      <c r="GD153" s="91"/>
-      <c r="GE153" s="91"/>
-      <c r="GF153" s="91"/>
-      <c r="GG153" s="91"/>
-      <c r="GH153" s="91"/>
-      <c r="GI153" s="91"/>
+      <c r="GC153" s="90"/>
+      <c r="GD153" s="90"/>
+      <c r="GE153" s="90"/>
+      <c r="GF153" s="90"/>
+      <c r="GG153" s="90"/>
+      <c r="GH153" s="90"/>
+      <c r="GI153" s="90"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A154" s="43"/>
-      <c r="B154" s="101"/>
-      <c r="C154" s="105"/>
+      <c r="B154" s="102"/>
+      <c r="C154" s="106"/>
       <c r="D154" s="59"/>
       <c r="E154" s="59"/>
       <c r="F154" s="59"/>
       <c r="G154" s="59"/>
       <c r="H154" s="59"/>
-      <c r="I154" s="106"/>
+      <c r="I154" s="107"/>
       <c r="J154" s="61"/>
       <c r="K154" s="61"/>
       <c r="L154" s="59"/>
@@ -31009,28 +31014,28 @@
       <c r="FZ154" s="68"/>
       <c r="GA154" s="69"/>
       <c r="GB154" s="69"/>
-      <c r="GC154" s="91"/>
-      <c r="GD154" s="91"/>
-      <c r="GE154" s="91"/>
-      <c r="GF154" s="91"/>
-      <c r="GG154" s="91"/>
-      <c r="GH154" s="91"/>
-      <c r="GI154" s="91"/>
-      <c r="GJ154" s="91"/>
-      <c r="GK154" s="91"/>
+      <c r="GC154" s="90"/>
+      <c r="GD154" s="90"/>
+      <c r="GE154" s="90"/>
+      <c r="GF154" s="90"/>
+      <c r="GG154" s="90"/>
+      <c r="GH154" s="90"/>
+      <c r="GI154" s="90"/>
+      <c r="GJ154" s="90"/>
+      <c r="GK154" s="90"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A155" s="43"/>
-      <c r="B155" s="101"/>
-      <c r="C155" s="102"/>
+      <c r="B155" s="102"/>
+      <c r="C155" s="103"/>
       <c r="D155" s="59"/>
       <c r="E155" s="59"/>
       <c r="F155" s="59"/>
       <c r="G155" s="59"/>
       <c r="H155" s="59"/>
-      <c r="I155" s="106"/>
+      <c r="I155" s="107"/>
       <c r="J155" s="61"/>
-      <c r="K155" s="107"/>
+      <c r="K155" s="108"/>
       <c r="L155" s="59"/>
       <c r="M155" s="59"/>
       <c r="N155" s="62"/>
@@ -31064,7 +31069,7 @@
       <c r="AP155" s="62"/>
       <c r="AQ155" s="62"/>
       <c r="AR155" s="62"/>
-      <c r="AS155" s="91"/>
+      <c r="AS155" s="90"/>
       <c r="AT155" s="62"/>
       <c r="AU155" s="62"/>
       <c r="AV155" s="62"/>
@@ -31204,27 +31209,27 @@
       <c r="FZ155" s="68"/>
       <c r="GA155" s="69"/>
       <c r="GB155" s="69"/>
-      <c r="GC155" s="91"/>
-      <c r="GD155" s="91"/>
-      <c r="GE155" s="91"/>
-      <c r="GF155" s="91"/>
-      <c r="GG155" s="91"/>
-      <c r="GH155" s="91"/>
-      <c r="GI155" s="91"/>
-      <c r="GJ155" s="91"/>
-      <c r="GK155" s="91"/>
+      <c r="GC155" s="90"/>
+      <c r="GD155" s="90"/>
+      <c r="GE155" s="90"/>
+      <c r="GF155" s="90"/>
+      <c r="GG155" s="90"/>
+      <c r="GH155" s="90"/>
+      <c r="GI155" s="90"/>
+      <c r="GJ155" s="90"/>
+      <c r="GK155" s="90"/>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A156" s="43"/>
-      <c r="B156" s="101"/>
-      <c r="C156" s="102"/>
-      <c r="D156" s="108"/>
-      <c r="E156" s="109"/>
-      <c r="F156" s="109"/>
-      <c r="G156" s="109"/>
+      <c r="B156" s="102"/>
+      <c r="C156" s="103"/>
+      <c r="D156" s="109"/>
+      <c r="E156" s="110"/>
+      <c r="F156" s="110"/>
+      <c r="G156" s="110"/>
       <c r="H156" s="59"/>
-      <c r="I156" s="106"/>
-      <c r="J156" s="110"/>
+      <c r="I156" s="107"/>
+      <c r="J156" s="111"/>
       <c r="K156" s="61"/>
       <c r="L156" s="59"/>
       <c r="M156" s="59"/>
@@ -31269,18 +31274,18 @@
       <c r="AZ156" s="62"/>
       <c r="BA156" s="62"/>
       <c r="BB156" s="62"/>
-      <c r="BC156" s="111"/>
-      <c r="BD156" s="111"/>
-      <c r="BE156" s="111"/>
-      <c r="BF156" s="111"/>
-      <c r="BG156" s="111"/>
-      <c r="BH156" s="111"/>
-      <c r="BI156" s="111"/>
-      <c r="BJ156" s="111"/>
-      <c r="BK156" s="111"/>
-      <c r="BL156" s="111"/>
-      <c r="BM156" s="111"/>
-      <c r="BN156" s="111"/>
+      <c r="BC156" s="112"/>
+      <c r="BD156" s="112"/>
+      <c r="BE156" s="112"/>
+      <c r="BF156" s="112"/>
+      <c r="BG156" s="112"/>
+      <c r="BH156" s="112"/>
+      <c r="BI156" s="112"/>
+      <c r="BJ156" s="112"/>
+      <c r="BK156" s="112"/>
+      <c r="BL156" s="112"/>
+      <c r="BM156" s="112"/>
+      <c r="BN156" s="112"/>
       <c r="BO156" s="62"/>
       <c r="BP156" s="62"/>
       <c r="BQ156" s="64"/>
@@ -31399,30 +31404,30 @@
       <c r="FZ156" s="68"/>
       <c r="GA156" s="69"/>
       <c r="GB156" s="69"/>
-      <c r="GC156" s="91"/>
-      <c r="GD156" s="91"/>
-      <c r="GE156" s="91"/>
-      <c r="GF156" s="91"/>
-      <c r="GG156" s="91"/>
-      <c r="GH156" s="91"/>
-      <c r="GI156" s="91"/>
-      <c r="GJ156" s="91"/>
-      <c r="GK156" s="91"/>
+      <c r="GC156" s="90"/>
+      <c r="GD156" s="90"/>
+      <c r="GE156" s="90"/>
+      <c r="GF156" s="90"/>
+      <c r="GG156" s="90"/>
+      <c r="GH156" s="90"/>
+      <c r="GI156" s="90"/>
+      <c r="GJ156" s="90"/>
+      <c r="GK156" s="90"/>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A157" s="43"/>
-      <c r="B157" s="101"/>
-      <c r="C157" s="102"/>
-      <c r="D157" s="102"/>
-      <c r="E157" s="109"/>
-      <c r="F157" s="109"/>
-      <c r="G157" s="109"/>
+      <c r="B157" s="102"/>
+      <c r="C157" s="103"/>
+      <c r="D157" s="103"/>
+      <c r="E157" s="110"/>
+      <c r="F157" s="110"/>
+      <c r="G157" s="110"/>
       <c r="H157" s="59"/>
-      <c r="I157" s="106"/>
-      <c r="J157" s="110"/>
-      <c r="K157" s="112"/>
-      <c r="L157" s="109"/>
-      <c r="M157" s="109"/>
+      <c r="I157" s="107"/>
+      <c r="J157" s="111"/>
+      <c r="K157" s="113"/>
+      <c r="L157" s="110"/>
+      <c r="M157" s="110"/>
       <c r="N157" s="94"/>
       <c r="O157" s="94"/>
       <c r="P157" s="94"/>
@@ -31594,30 +31599,30 @@
       <c r="FZ157" s="68"/>
       <c r="GA157" s="69"/>
       <c r="GB157" s="69"/>
-      <c r="GC157" s="91"/>
-      <c r="GD157" s="91"/>
-      <c r="GE157" s="91"/>
-      <c r="GF157" s="91"/>
-      <c r="GG157" s="91"/>
-      <c r="GH157" s="91"/>
-      <c r="GI157" s="91"/>
-      <c r="GJ157" s="91"/>
-      <c r="GK157" s="91"/>
+      <c r="GC157" s="90"/>
+      <c r="GD157" s="90"/>
+      <c r="GE157" s="90"/>
+      <c r="GF157" s="90"/>
+      <c r="GG157" s="90"/>
+      <c r="GH157" s="90"/>
+      <c r="GI157" s="90"/>
+      <c r="GJ157" s="90"/>
+      <c r="GK157" s="90"/>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A158" s="43"/>
-      <c r="B158" s="101"/>
-      <c r="C158" s="102"/>
-      <c r="D158" s="102"/>
-      <c r="E158" s="109"/>
-      <c r="F158" s="109"/>
-      <c r="G158" s="109"/>
+      <c r="B158" s="102"/>
+      <c r="C158" s="103"/>
+      <c r="D158" s="103"/>
+      <c r="E158" s="110"/>
+      <c r="F158" s="110"/>
+      <c r="G158" s="110"/>
       <c r="H158" s="59"/>
-      <c r="I158" s="106"/>
-      <c r="J158" s="110"/>
-      <c r="K158" s="112"/>
-      <c r="L158" s="109"/>
-      <c r="M158" s="109"/>
+      <c r="I158" s="107"/>
+      <c r="J158" s="111"/>
+      <c r="K158" s="113"/>
+      <c r="L158" s="110"/>
+      <c r="M158" s="110"/>
       <c r="N158" s="94"/>
       <c r="O158" s="94"/>
       <c r="P158" s="94"/>
@@ -31673,7 +31678,7 @@
       <c r="BN158" s="65"/>
       <c r="BO158" s="65"/>
       <c r="BP158" s="65"/>
-      <c r="BQ158" s="80"/>
+      <c r="BQ158" s="79"/>
       <c r="BR158" s="65"/>
       <c r="BS158" s="94"/>
       <c r="BT158" s="94"/>
@@ -31789,30 +31794,30 @@
       <c r="FZ158" s="68"/>
       <c r="GA158" s="69"/>
       <c r="GB158" s="69"/>
-      <c r="GC158" s="91"/>
-      <c r="GD158" s="91"/>
-      <c r="GE158" s="91"/>
-      <c r="GF158" s="91"/>
-      <c r="GG158" s="91"/>
-      <c r="GH158" s="91"/>
-      <c r="GI158" s="91"/>
-      <c r="GJ158" s="91"/>
-      <c r="GK158" s="91"/>
+      <c r="GC158" s="90"/>
+      <c r="GD158" s="90"/>
+      <c r="GE158" s="90"/>
+      <c r="GF158" s="90"/>
+      <c r="GG158" s="90"/>
+      <c r="GH158" s="90"/>
+      <c r="GI158" s="90"/>
+      <c r="GJ158" s="90"/>
+      <c r="GK158" s="90"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A159" s="43"/>
-      <c r="B159" s="101"/>
-      <c r="C159" s="102"/>
-      <c r="D159" s="102"/>
-      <c r="E159" s="109"/>
-      <c r="F159" s="109"/>
-      <c r="G159" s="109"/>
+      <c r="B159" s="102"/>
+      <c r="C159" s="103"/>
+      <c r="D159" s="103"/>
+      <c r="E159" s="110"/>
+      <c r="F159" s="110"/>
+      <c r="G159" s="110"/>
       <c r="H159" s="59"/>
-      <c r="I159" s="106"/>
-      <c r="J159" s="110"/>
-      <c r="K159" s="112"/>
-      <c r="L159" s="109"/>
-      <c r="M159" s="109"/>
+      <c r="I159" s="107"/>
+      <c r="J159" s="111"/>
+      <c r="K159" s="113"/>
+      <c r="L159" s="110"/>
+      <c r="M159" s="110"/>
       <c r="N159" s="94"/>
       <c r="O159" s="94"/>
       <c r="P159" s="94"/>
@@ -31868,7 +31873,7 @@
       <c r="BN159" s="65"/>
       <c r="BO159" s="65"/>
       <c r="BP159" s="65"/>
-      <c r="BQ159" s="80"/>
+      <c r="BQ159" s="79"/>
       <c r="BR159" s="65"/>
       <c r="BS159" s="94"/>
       <c r="BT159" s="94"/>
@@ -31984,30 +31989,30 @@
       <c r="FZ159" s="68"/>
       <c r="GA159" s="69"/>
       <c r="GB159" s="69"/>
-      <c r="GC159" s="91"/>
-      <c r="GD159" s="91"/>
-      <c r="GE159" s="91"/>
-      <c r="GF159" s="91"/>
-      <c r="GG159" s="91"/>
-      <c r="GH159" s="91"/>
-      <c r="GI159" s="91"/>
-      <c r="GJ159" s="91"/>
-      <c r="GK159" s="91"/>
+      <c r="GC159" s="90"/>
+      <c r="GD159" s="90"/>
+      <c r="GE159" s="90"/>
+      <c r="GF159" s="90"/>
+      <c r="GG159" s="90"/>
+      <c r="GH159" s="90"/>
+      <c r="GI159" s="90"/>
+      <c r="GJ159" s="90"/>
+      <c r="GK159" s="90"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A160" s="43"/>
-      <c r="B160" s="113"/>
-      <c r="C160" s="102"/>
-      <c r="D160" s="102"/>
-      <c r="E160" s="109"/>
-      <c r="F160" s="109"/>
-      <c r="G160" s="109"/>
-      <c r="H160" s="114"/>
+      <c r="B160" s="114"/>
+      <c r="C160" s="103"/>
+      <c r="D160" s="103"/>
+      <c r="E160" s="110"/>
+      <c r="F160" s="110"/>
+      <c r="G160" s="110"/>
+      <c r="H160" s="115"/>
       <c r="I160" s="60"/>
-      <c r="J160" s="110"/>
-      <c r="K160" s="112"/>
-      <c r="L160" s="109"/>
-      <c r="M160" s="109"/>
+      <c r="J160" s="111"/>
+      <c r="K160" s="113"/>
+      <c r="L160" s="110"/>
+      <c r="M160" s="110"/>
       <c r="N160" s="94"/>
       <c r="O160" s="94"/>
       <c r="P160" s="94"/>
@@ -32064,7 +32069,7 @@
       <c r="BO160" s="94"/>
       <c r="BP160" s="94"/>
       <c r="BQ160" s="63"/>
-      <c r="BR160" s="115"/>
+      <c r="BR160" s="116"/>
       <c r="BS160" s="94"/>
       <c r="BT160" s="94"/>
       <c r="BU160" s="94"/>
@@ -32176,35 +32181,35 @@
       <c r="FW160" s="94"/>
       <c r="FX160" s="94"/>
       <c r="FY160" s="94"/>
-      <c r="FZ160" s="85"/>
+      <c r="FZ160" s="82"/>
       <c r="GA160" s="11"/>
-      <c r="GB160" s="86"/>
-      <c r="GC160" s="91"/>
-      <c r="GD160" s="91"/>
-      <c r="GE160" s="91"/>
-      <c r="GF160" s="91"/>
-      <c r="GG160" s="91"/>
-      <c r="GH160" s="91"/>
-      <c r="GI160" s="91"/>
-      <c r="GJ160" s="91"/>
-      <c r="GK160" s="91"/>
+      <c r="GB160" s="83"/>
+      <c r="GC160" s="90"/>
+      <c r="GD160" s="90"/>
+      <c r="GE160" s="90"/>
+      <c r="GF160" s="90"/>
+      <c r="GG160" s="90"/>
+      <c r="GH160" s="90"/>
+      <c r="GI160" s="90"/>
+      <c r="GJ160" s="90"/>
+      <c r="GK160" s="90"/>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A161" s="43"/>
-      <c r="B161" s="116" t="s">
+      <c r="B161" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="C161" s="117"/>
-      <c r="D161" s="105"/>
-      <c r="E161" s="109"/>
-      <c r="F161" s="109"/>
-      <c r="G161" s="109"/>
-      <c r="H161" s="109"/>
-      <c r="I161" s="118"/>
-      <c r="J161" s="109"/>
-      <c r="K161" s="112"/>
-      <c r="L161" s="109"/>
-      <c r="M161" s="109"/>
+      <c r="C161" s="118"/>
+      <c r="D161" s="106"/>
+      <c r="E161" s="110"/>
+      <c r="F161" s="110"/>
+      <c r="G161" s="110"/>
+      <c r="H161" s="110"/>
+      <c r="I161" s="119"/>
+      <c r="J161" s="110"/>
+      <c r="K161" s="113"/>
+      <c r="L161" s="110"/>
+      <c r="M161" s="110"/>
       <c r="N161" s="94"/>
       <c r="O161" s="94"/>
       <c r="P161" s="94"/>
@@ -32260,8 +32265,8 @@
       <c r="BN161" s="65"/>
       <c r="BO161" s="65"/>
       <c r="BP161" s="65"/>
-      <c r="BQ161" s="80"/>
-      <c r="BR161" s="115"/>
+      <c r="BQ161" s="79"/>
+      <c r="BR161" s="116"/>
       <c r="BS161" s="94"/>
       <c r="BT161" s="94"/>
       <c r="BU161" s="94"/>
@@ -32376,28 +32381,28 @@
       <c r="FZ161" s="68"/>
       <c r="GA161" s="69"/>
       <c r="GB161" s="59"/>
-      <c r="GC161" s="91"/>
-      <c r="GD161" s="91"/>
-      <c r="GE161" s="91"/>
-      <c r="GF161" s="91"/>
-      <c r="GG161" s="91"/>
-      <c r="GH161" s="91"/>
-      <c r="GI161" s="91"/>
+      <c r="GC161" s="90"/>
+      <c r="GD161" s="90"/>
+      <c r="GE161" s="90"/>
+      <c r="GF161" s="90"/>
+      <c r="GG161" s="90"/>
+      <c r="GH161" s="90"/>
+      <c r="GI161" s="90"/>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A162" s="43"/>
-      <c r="B162" s="116"/>
-      <c r="C162" s="117"/>
-      <c r="D162" s="119"/>
-      <c r="E162" s="109"/>
-      <c r="F162" s="109"/>
-      <c r="G162" s="109"/>
-      <c r="H162" s="109"/>
-      <c r="I162" s="118"/>
-      <c r="J162" s="109"/>
-      <c r="K162" s="112"/>
-      <c r="L162" s="109"/>
-      <c r="M162" s="109"/>
+      <c r="B162" s="117"/>
+      <c r="C162" s="118"/>
+      <c r="D162" s="120"/>
+      <c r="E162" s="110"/>
+      <c r="F162" s="110"/>
+      <c r="G162" s="110"/>
+      <c r="H162" s="110"/>
+      <c r="I162" s="119"/>
+      <c r="J162" s="110"/>
+      <c r="K162" s="113"/>
+      <c r="L162" s="110"/>
+      <c r="M162" s="110"/>
       <c r="N162" s="94"/>
       <c r="O162" s="94"/>
       <c r="P162" s="94"/>
@@ -32454,7 +32459,7 @@
       <c r="BO162" s="65"/>
       <c r="BP162" s="65"/>
       <c r="BQ162" s="63"/>
-      <c r="BR162" s="115"/>
+      <c r="BR162" s="116"/>
       <c r="BS162" s="94"/>
       <c r="BT162" s="94"/>
       <c r="BU162" s="94"/>
@@ -32569,30 +32574,30 @@
       <c r="FZ162" s="68"/>
       <c r="GA162" s="69"/>
       <c r="GB162" s="69"/>
-      <c r="GC162" s="91"/>
-      <c r="GD162" s="91"/>
-      <c r="GE162" s="91"/>
-      <c r="GF162" s="91"/>
-      <c r="GG162" s="91"/>
-      <c r="GH162" s="91"/>
-      <c r="GI162" s="91"/>
-      <c r="GJ162" s="91"/>
-      <c r="GK162" s="91"/>
+      <c r="GC162" s="90"/>
+      <c r="GD162" s="90"/>
+      <c r="GE162" s="90"/>
+      <c r="GF162" s="90"/>
+      <c r="GG162" s="90"/>
+      <c r="GH162" s="90"/>
+      <c r="GI162" s="90"/>
+      <c r="GJ162" s="90"/>
+      <c r="GK162" s="90"/>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A163" s="43"/>
-      <c r="B163" s="116"/>
-      <c r="C163" s="117"/>
-      <c r="D163" s="119"/>
-      <c r="E163" s="109"/>
-      <c r="F163" s="109"/>
-      <c r="G163" s="109"/>
-      <c r="H163" s="109"/>
-      <c r="I163" s="118"/>
-      <c r="J163" s="109"/>
-      <c r="K163" s="112"/>
-      <c r="L163" s="109"/>
-      <c r="M163" s="109"/>
+      <c r="B163" s="117"/>
+      <c r="C163" s="118"/>
+      <c r="D163" s="120"/>
+      <c r="E163" s="110"/>
+      <c r="F163" s="110"/>
+      <c r="G163" s="110"/>
+      <c r="H163" s="110"/>
+      <c r="I163" s="119"/>
+      <c r="J163" s="110"/>
+      <c r="K163" s="113"/>
+      <c r="L163" s="110"/>
+      <c r="M163" s="110"/>
       <c r="N163" s="94"/>
       <c r="O163" s="94"/>
       <c r="P163" s="94"/>
@@ -32649,7 +32654,7 @@
       <c r="BO163" s="65"/>
       <c r="BP163" s="65"/>
       <c r="BQ163" s="63"/>
-      <c r="BR163" s="115"/>
+      <c r="BR163" s="116"/>
       <c r="BS163" s="94"/>
       <c r="BT163" s="94"/>
       <c r="BU163" s="94"/>
@@ -32764,30 +32769,30 @@
       <c r="FZ163" s="68"/>
       <c r="GA163" s="69"/>
       <c r="GB163" s="69"/>
-      <c r="GC163" s="91"/>
-      <c r="GD163" s="91"/>
-      <c r="GE163" s="91"/>
-      <c r="GF163" s="91"/>
-      <c r="GG163" s="91"/>
-      <c r="GH163" s="91"/>
-      <c r="GI163" s="91"/>
-      <c r="GJ163" s="91"/>
-      <c r="GK163" s="91"/>
+      <c r="GC163" s="90"/>
+      <c r="GD163" s="90"/>
+      <c r="GE163" s="90"/>
+      <c r="GF163" s="90"/>
+      <c r="GG163" s="90"/>
+      <c r="GH163" s="90"/>
+      <c r="GI163" s="90"/>
+      <c r="GJ163" s="90"/>
+      <c r="GK163" s="90"/>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A164" s="43"/>
-      <c r="B164" s="116"/>
-      <c r="C164" s="117"/>
-      <c r="D164" s="119"/>
-      <c r="E164" s="109"/>
-      <c r="F164" s="109"/>
-      <c r="G164" s="109"/>
-      <c r="H164" s="109"/>
-      <c r="I164" s="118"/>
-      <c r="J164" s="109"/>
-      <c r="K164" s="112"/>
-      <c r="L164" s="109"/>
-      <c r="M164" s="109"/>
+      <c r="B164" s="117"/>
+      <c r="C164" s="118"/>
+      <c r="D164" s="120"/>
+      <c r="E164" s="110"/>
+      <c r="F164" s="110"/>
+      <c r="G164" s="110"/>
+      <c r="H164" s="110"/>
+      <c r="I164" s="119"/>
+      <c r="J164" s="110"/>
+      <c r="K164" s="113"/>
+      <c r="L164" s="110"/>
+      <c r="M164" s="110"/>
       <c r="N164" s="94"/>
       <c r="O164" s="94"/>
       <c r="P164" s="94"/>
@@ -32844,7 +32849,7 @@
       <c r="BO164" s="65"/>
       <c r="BP164" s="65"/>
       <c r="BQ164" s="63"/>
-      <c r="BR164" s="115"/>
+      <c r="BR164" s="116"/>
       <c r="BS164" s="94"/>
       <c r="BT164" s="94"/>
       <c r="BU164" s="94"/>
@@ -32959,21 +32964,21 @@
       <c r="FZ164" s="68"/>
       <c r="GA164" s="69"/>
       <c r="GB164" s="69"/>
-      <c r="GC164" s="91"/>
-      <c r="GD164" s="91"/>
-      <c r="GE164" s="91"/>
-      <c r="GF164" s="91"/>
-      <c r="GG164" s="91"/>
-      <c r="GH164" s="91"/>
-      <c r="GI164" s="91"/>
-      <c r="GJ164" s="91"/>
-      <c r="GK164" s="91"/>
+      <c r="GC164" s="90"/>
+      <c r="GD164" s="90"/>
+      <c r="GE164" s="90"/>
+      <c r="GF164" s="90"/>
+      <c r="GG164" s="90"/>
+      <c r="GH164" s="90"/>
+      <c r="GI164" s="90"/>
+      <c r="GJ164" s="90"/>
+      <c r="GK164" s="90"/>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A165" s="43"/>
-      <c r="B165" s="116"/>
-      <c r="C165" s="120"/>
-      <c r="D165" s="102"/>
+      <c r="B165" s="117"/>
+      <c r="C165" s="121"/>
+      <c r="D165" s="103"/>
       <c r="E165" s="59"/>
       <c r="F165" s="59"/>
       <c r="G165" s="59"/>
@@ -33038,8 +33043,8 @@
       <c r="BN165" s="65"/>
       <c r="BO165" s="65"/>
       <c r="BP165" s="65"/>
-      <c r="BQ165" s="80"/>
-      <c r="BR165" s="115"/>
+      <c r="BQ165" s="79"/>
+      <c r="BR165" s="116"/>
       <c r="BS165" s="94"/>
       <c r="BT165" s="94"/>
       <c r="BU165" s="94"/>
@@ -33154,18 +33159,18 @@
       <c r="FZ165" s="68"/>
       <c r="GA165" s="69"/>
       <c r="GB165" s="69"/>
-      <c r="GC165" s="91"/>
-      <c r="GD165" s="91"/>
-      <c r="GE165" s="91"/>
-      <c r="GF165" s="91"/>
-      <c r="GG165" s="91"/>
-      <c r="GH165" s="91"/>
-      <c r="GI165" s="91"/>
+      <c r="GC165" s="90"/>
+      <c r="GD165" s="90"/>
+      <c r="GE165" s="90"/>
+      <c r="GF165" s="90"/>
+      <c r="GG165" s="90"/>
+      <c r="GH165" s="90"/>
+      <c r="GI165" s="90"/>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A166" s="43"/>
-      <c r="B166" s="116"/>
-      <c r="C166" s="84"/>
+      <c r="B166" s="117"/>
+      <c r="C166" s="96"/>
       <c r="D166" s="59"/>
       <c r="E166" s="59"/>
       <c r="F166" s="59"/>
@@ -33175,7 +33180,7 @@
       <c r="J166" s="59"/>
       <c r="K166" s="61"/>
       <c r="L166" s="59"/>
-      <c r="M166" s="121"/>
+      <c r="M166" s="122"/>
       <c r="N166" s="94"/>
       <c r="O166" s="94"/>
       <c r="P166" s="94"/>
@@ -33232,7 +33237,7 @@
       <c r="BO166" s="62"/>
       <c r="BP166" s="62"/>
       <c r="BQ166" s="63"/>
-      <c r="BR166" s="122"/>
+      <c r="BR166" s="123"/>
       <c r="BS166" s="94"/>
       <c r="BT166" s="94"/>
       <c r="BU166" s="94"/>
@@ -33347,18 +33352,18 @@
       <c r="FZ166" s="68"/>
       <c r="GA166" s="69"/>
       <c r="GB166" s="69"/>
-      <c r="GC166" s="91"/>
-      <c r="GD166" s="91"/>
-      <c r="GE166" s="91"/>
-      <c r="GF166" s="91"/>
-      <c r="GG166" s="91"/>
-      <c r="GH166" s="91"/>
-      <c r="GI166" s="91"/>
+      <c r="GC166" s="90"/>
+      <c r="GD166" s="90"/>
+      <c r="GE166" s="90"/>
+      <c r="GF166" s="90"/>
+      <c r="GG166" s="90"/>
+      <c r="GH166" s="90"/>
+      <c r="GI166" s="90"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A167" s="43"/>
-      <c r="B167" s="116"/>
-      <c r="C167" s="84"/>
+      <c r="B167" s="117"/>
+      <c r="C167" s="96"/>
       <c r="D167" s="59"/>
       <c r="E167" s="59"/>
       <c r="F167" s="59"/>
@@ -33368,7 +33373,7 @@
       <c r="J167" s="59"/>
       <c r="K167" s="61"/>
       <c r="L167" s="59"/>
-      <c r="M167" s="121"/>
+      <c r="M167" s="122"/>
       <c r="N167" s="94"/>
       <c r="O167" s="94"/>
       <c r="P167" s="94"/>
@@ -33425,7 +33430,7 @@
       <c r="BO167" s="62"/>
       <c r="BP167" s="62"/>
       <c r="BQ167" s="63"/>
-      <c r="BR167" s="115"/>
+      <c r="BR167" s="116"/>
       <c r="BS167" s="94"/>
       <c r="BT167" s="94"/>
       <c r="BU167" s="94"/>
@@ -33540,18 +33545,18 @@
       <c r="FZ167" s="68"/>
       <c r="GA167" s="69"/>
       <c r="GB167" s="69"/>
-      <c r="GC167" s="91"/>
-      <c r="GD167" s="91"/>
-      <c r="GE167" s="91"/>
-      <c r="GF167" s="91"/>
-      <c r="GG167" s="91"/>
-      <c r="GH167" s="91"/>
-      <c r="GI167" s="91"/>
+      <c r="GC167" s="90"/>
+      <c r="GD167" s="90"/>
+      <c r="GE167" s="90"/>
+      <c r="GF167" s="90"/>
+      <c r="GG167" s="90"/>
+      <c r="GH167" s="90"/>
+      <c r="GI167" s="90"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A168" s="43"/>
-      <c r="B168" s="116"/>
-      <c r="C168" s="84"/>
+      <c r="B168" s="117"/>
+      <c r="C168" s="96"/>
       <c r="D168" s="59"/>
       <c r="E168" s="59"/>
       <c r="F168" s="59"/>
@@ -33561,7 +33566,7 @@
       <c r="J168" s="59"/>
       <c r="K168" s="61"/>
       <c r="L168" s="59"/>
-      <c r="M168" s="121"/>
+      <c r="M168" s="122"/>
       <c r="N168" s="94"/>
       <c r="O168" s="94"/>
       <c r="P168" s="94"/>
@@ -33618,7 +33623,7 @@
       <c r="BO168" s="62"/>
       <c r="BP168" s="62"/>
       <c r="BQ168" s="63"/>
-      <c r="BR168" s="123"/>
+      <c r="BR168" s="124"/>
       <c r="BS168" s="94"/>
       <c r="BT168" s="94"/>
       <c r="BU168" s="94"/>
@@ -33733,18 +33738,18 @@
       <c r="FZ168" s="68"/>
       <c r="GA168" s="69"/>
       <c r="GB168" s="69"/>
-      <c r="GC168" s="91"/>
-      <c r="GD168" s="91"/>
-      <c r="GE168" s="91"/>
-      <c r="GF168" s="91"/>
-      <c r="GG168" s="91"/>
-      <c r="GH168" s="91"/>
-      <c r="GI168" s="91"/>
+      <c r="GC168" s="90"/>
+      <c r="GD168" s="90"/>
+      <c r="GE168" s="90"/>
+      <c r="GF168" s="90"/>
+      <c r="GG168" s="90"/>
+      <c r="GH168" s="90"/>
+      <c r="GI168" s="90"/>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A169" s="43"/>
-      <c r="B169" s="116"/>
-      <c r="C169" s="84"/>
+      <c r="B169" s="117"/>
+      <c r="C169" s="96"/>
       <c r="D169" s="59"/>
       <c r="E169" s="59"/>
       <c r="F169" s="59"/>
@@ -33754,7 +33759,7 @@
       <c r="J169" s="59"/>
       <c r="K169" s="61"/>
       <c r="L169" s="59"/>
-      <c r="M169" s="121"/>
+      <c r="M169" s="122"/>
       <c r="N169" s="94"/>
       <c r="O169" s="94"/>
       <c r="P169" s="94"/>
@@ -33811,7 +33816,7 @@
       <c r="BO169" s="62"/>
       <c r="BP169" s="62"/>
       <c r="BQ169" s="63"/>
-      <c r="BR169" s="115"/>
+      <c r="BR169" s="116"/>
       <c r="BS169" s="94"/>
       <c r="BT169" s="94"/>
       <c r="BU169" s="94"/>
@@ -33926,18 +33931,18 @@
       <c r="FZ169" s="68"/>
       <c r="GA169" s="69"/>
       <c r="GB169" s="69"/>
-      <c r="GC169" s="91"/>
-      <c r="GD169" s="91"/>
-      <c r="GE169" s="91"/>
-      <c r="GF169" s="91"/>
-      <c r="GG169" s="91"/>
-      <c r="GH169" s="91"/>
-      <c r="GI169" s="91"/>
+      <c r="GC169" s="90"/>
+      <c r="GD169" s="90"/>
+      <c r="GE169" s="90"/>
+      <c r="GF169" s="90"/>
+      <c r="GG169" s="90"/>
+      <c r="GH169" s="90"/>
+      <c r="GI169" s="90"/>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A170" s="43"/>
-      <c r="B170" s="116"/>
-      <c r="C170" s="84"/>
+      <c r="B170" s="117"/>
+      <c r="C170" s="96"/>
       <c r="D170" s="59"/>
       <c r="E170" s="59"/>
       <c r="F170" s="59"/>
@@ -33947,7 +33952,7 @@
       <c r="J170" s="59"/>
       <c r="K170" s="61"/>
       <c r="L170" s="59"/>
-      <c r="M170" s="121"/>
+      <c r="M170" s="122"/>
       <c r="N170" s="94"/>
       <c r="O170" s="94"/>
       <c r="P170" s="94"/>
@@ -34004,7 +34009,7 @@
       <c r="BO170" s="62"/>
       <c r="BP170" s="62"/>
       <c r="BQ170" s="63"/>
-      <c r="BR170" s="115"/>
+      <c r="BR170" s="116"/>
       <c r="BS170" s="94"/>
       <c r="BT170" s="94"/>
       <c r="BU170" s="94"/>
@@ -34119,18 +34124,18 @@
       <c r="FZ170" s="68"/>
       <c r="GA170" s="69"/>
       <c r="GB170" s="69"/>
-      <c r="GC170" s="91"/>
-      <c r="GD170" s="91"/>
-      <c r="GE170" s="91"/>
-      <c r="GF170" s="91"/>
-      <c r="GG170" s="91"/>
-      <c r="GH170" s="91"/>
-      <c r="GI170" s="91"/>
+      <c r="GC170" s="90"/>
+      <c r="GD170" s="90"/>
+      <c r="GE170" s="90"/>
+      <c r="GF170" s="90"/>
+      <c r="GG170" s="90"/>
+      <c r="GH170" s="90"/>
+      <c r="GI170" s="90"/>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A171" s="43"/>
-      <c r="B171" s="116"/>
-      <c r="C171" s="84"/>
+      <c r="B171" s="117"/>
+      <c r="C171" s="96"/>
       <c r="D171" s="59"/>
       <c r="E171" s="59"/>
       <c r="F171" s="59"/>
@@ -34140,7 +34145,7 @@
       <c r="J171" s="59"/>
       <c r="K171" s="61"/>
       <c r="L171" s="59"/>
-      <c r="M171" s="121"/>
+      <c r="M171" s="122"/>
       <c r="N171" s="94"/>
       <c r="O171" s="94"/>
       <c r="P171" s="94"/>
@@ -34197,7 +34202,7 @@
       <c r="BO171" s="62"/>
       <c r="BP171" s="62"/>
       <c r="BQ171" s="63"/>
-      <c r="BR171" s="115"/>
+      <c r="BR171" s="116"/>
       <c r="BS171" s="94"/>
       <c r="BT171" s="94"/>
       <c r="BU171" s="94"/>
@@ -34312,18 +34317,18 @@
       <c r="FZ171" s="68"/>
       <c r="GA171" s="69"/>
       <c r="GB171" s="69"/>
-      <c r="GC171" s="91"/>
-      <c r="GD171" s="91"/>
-      <c r="GE171" s="91"/>
-      <c r="GF171" s="91"/>
-      <c r="GG171" s="91"/>
-      <c r="GH171" s="91"/>
-      <c r="GI171" s="91"/>
+      <c r="GC171" s="90"/>
+      <c r="GD171" s="90"/>
+      <c r="GE171" s="90"/>
+      <c r="GF171" s="90"/>
+      <c r="GG171" s="90"/>
+      <c r="GH171" s="90"/>
+      <c r="GI171" s="90"/>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A172" s="43"/>
-      <c r="B172" s="116"/>
-      <c r="C172" s="84"/>
+      <c r="B172" s="117"/>
+      <c r="C172" s="96"/>
       <c r="D172" s="59"/>
       <c r="E172" s="59"/>
       <c r="F172" s="59"/>
@@ -34333,7 +34338,7 @@
       <c r="J172" s="59"/>
       <c r="K172" s="61"/>
       <c r="L172" s="59"/>
-      <c r="M172" s="121"/>
+      <c r="M172" s="122"/>
       <c r="N172" s="94"/>
       <c r="O172" s="94"/>
       <c r="P172" s="94"/>
@@ -34390,7 +34395,7 @@
       <c r="BO172" s="62"/>
       <c r="BP172" s="62"/>
       <c r="BQ172" s="63"/>
-      <c r="BR172" s="115"/>
+      <c r="BR172" s="116"/>
       <c r="BS172" s="94"/>
       <c r="BT172" s="94"/>
       <c r="BU172" s="94"/>
@@ -34505,18 +34510,18 @@
       <c r="FZ172" s="68"/>
       <c r="GA172" s="69"/>
       <c r="GB172" s="69"/>
-      <c r="GC172" s="91"/>
-      <c r="GD172" s="91"/>
-      <c r="GE172" s="91"/>
-      <c r="GF172" s="91"/>
-      <c r="GG172" s="91"/>
-      <c r="GH172" s="91"/>
-      <c r="GI172" s="91"/>
+      <c r="GC172" s="90"/>
+      <c r="GD172" s="90"/>
+      <c r="GE172" s="90"/>
+      <c r="GF172" s="90"/>
+      <c r="GG172" s="90"/>
+      <c r="GH172" s="90"/>
+      <c r="GI172" s="90"/>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A173" s="43"/>
-      <c r="B173" s="116"/>
-      <c r="C173" s="84"/>
+      <c r="B173" s="117"/>
+      <c r="C173" s="96"/>
       <c r="D173" s="59"/>
       <c r="E173" s="59"/>
       <c r="F173" s="59"/>
@@ -34526,7 +34531,7 @@
       <c r="J173" s="59"/>
       <c r="K173" s="61"/>
       <c r="L173" s="59"/>
-      <c r="M173" s="121"/>
+      <c r="M173" s="122"/>
       <c r="N173" s="94"/>
       <c r="O173" s="94"/>
       <c r="P173" s="94"/>
@@ -34583,7 +34588,7 @@
       <c r="BO173" s="62"/>
       <c r="BP173" s="62"/>
       <c r="BQ173" s="63"/>
-      <c r="BR173" s="115"/>
+      <c r="BR173" s="116"/>
       <c r="BS173" s="94"/>
       <c r="BT173" s="94"/>
       <c r="BU173" s="94"/>
@@ -34698,18 +34703,18 @@
       <c r="FZ173" s="68"/>
       <c r="GA173" s="69"/>
       <c r="GB173" s="69"/>
-      <c r="GC173" s="91"/>
-      <c r="GD173" s="91"/>
-      <c r="GE173" s="91"/>
-      <c r="GF173" s="91"/>
-      <c r="GG173" s="91"/>
-      <c r="GH173" s="91"/>
-      <c r="GI173" s="91"/>
+      <c r="GC173" s="90"/>
+      <c r="GD173" s="90"/>
+      <c r="GE173" s="90"/>
+      <c r="GF173" s="90"/>
+      <c r="GG173" s="90"/>
+      <c r="GH173" s="90"/>
+      <c r="GI173" s="90"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A174" s="43"/>
-      <c r="B174" s="116"/>
-      <c r="C174" s="84"/>
+      <c r="B174" s="117"/>
+      <c r="C174" s="96"/>
       <c r="D174" s="59"/>
       <c r="E174" s="59"/>
       <c r="F174" s="59"/>
@@ -34719,7 +34724,7 @@
       <c r="J174" s="59"/>
       <c r="K174" s="61"/>
       <c r="L174" s="59"/>
-      <c r="M174" s="121"/>
+      <c r="M174" s="122"/>
       <c r="N174" s="94"/>
       <c r="O174" s="94"/>
       <c r="P174" s="94"/>
@@ -34776,7 +34781,7 @@
       <c r="BO174" s="62"/>
       <c r="BP174" s="62"/>
       <c r="BQ174" s="63"/>
-      <c r="BR174" s="115"/>
+      <c r="BR174" s="116"/>
       <c r="BS174" s="94"/>
       <c r="BT174" s="94"/>
       <c r="BU174" s="94"/>
@@ -34891,18 +34896,18 @@
       <c r="FZ174" s="68"/>
       <c r="GA174" s="69"/>
       <c r="GB174" s="69"/>
-      <c r="GC174" s="91"/>
-      <c r="GD174" s="91"/>
-      <c r="GE174" s="91"/>
-      <c r="GF174" s="91"/>
-      <c r="GG174" s="91"/>
-      <c r="GH174" s="91"/>
-      <c r="GI174" s="91"/>
+      <c r="GC174" s="90"/>
+      <c r="GD174" s="90"/>
+      <c r="GE174" s="90"/>
+      <c r="GF174" s="90"/>
+      <c r="GG174" s="90"/>
+      <c r="GH174" s="90"/>
+      <c r="GI174" s="90"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A175" s="43"/>
-      <c r="B175" s="116"/>
-      <c r="C175" s="84"/>
+      <c r="B175" s="117"/>
+      <c r="C175" s="96"/>
       <c r="D175" s="59"/>
       <c r="E175" s="59"/>
       <c r="F175" s="59"/>
@@ -34912,7 +34917,7 @@
       <c r="J175" s="59"/>
       <c r="K175" s="61"/>
       <c r="L175" s="59"/>
-      <c r="M175" s="121"/>
+      <c r="M175" s="122"/>
       <c r="N175" s="94"/>
       <c r="O175" s="94"/>
       <c r="P175" s="94"/>
@@ -34969,7 +34974,7 @@
       <c r="BO175" s="62"/>
       <c r="BP175" s="62"/>
       <c r="BQ175" s="63"/>
-      <c r="BR175" s="115"/>
+      <c r="BR175" s="116"/>
       <c r="BS175" s="94"/>
       <c r="BT175" s="94"/>
       <c r="BU175" s="94"/>
@@ -35084,17 +35089,17 @@
       <c r="FZ175" s="68"/>
       <c r="GA175" s="69"/>
       <c r="GB175" s="69"/>
-      <c r="GC175" s="91"/>
-      <c r="GD175" s="91"/>
-      <c r="GE175" s="91"/>
-      <c r="GF175" s="91"/>
-      <c r="GG175" s="91"/>
-      <c r="GH175" s="91"/>
-      <c r="GI175" s="91"/>
+      <c r="GC175" s="90"/>
+      <c r="GD175" s="90"/>
+      <c r="GE175" s="90"/>
+      <c r="GF175" s="90"/>
+      <c r="GG175" s="90"/>
+      <c r="GH175" s="90"/>
+      <c r="GI175" s="90"/>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A176" s="43"/>
-      <c r="B176" s="116"/>
+      <c r="B176" s="117"/>
       <c r="C176" s="58"/>
       <c r="D176" s="59"/>
       <c r="E176" s="59"/>
@@ -35105,7 +35110,7 @@
       <c r="J176" s="59"/>
       <c r="K176" s="61"/>
       <c r="L176" s="59"/>
-      <c r="M176" s="109"/>
+      <c r="M176" s="110"/>
       <c r="N176" s="94"/>
       <c r="O176" s="94"/>
       <c r="P176" s="94"/>
@@ -35161,8 +35166,8 @@
       <c r="BN176" s="65"/>
       <c r="BO176" s="65"/>
       <c r="BP176" s="65"/>
-      <c r="BQ176" s="80"/>
-      <c r="BR176" s="115"/>
+      <c r="BQ176" s="79"/>
+      <c r="BR176" s="116"/>
       <c r="BS176" s="94"/>
       <c r="BT176" s="94"/>
       <c r="BU176" s="94"/>
@@ -35277,28 +35282,28 @@
       <c r="FZ176" s="68"/>
       <c r="GA176" s="69"/>
       <c r="GB176" s="69"/>
-      <c r="GC176" s="91"/>
-      <c r="GD176" s="91"/>
-      <c r="GE176" s="91"/>
-      <c r="GF176" s="91"/>
-      <c r="GG176" s="91"/>
-      <c r="GH176" s="91"/>
-      <c r="GI176" s="91"/>
+      <c r="GC176" s="90"/>
+      <c r="GD176" s="90"/>
+      <c r="GE176" s="90"/>
+      <c r="GF176" s="90"/>
+      <c r="GG176" s="90"/>
+      <c r="GH176" s="90"/>
+      <c r="GI176" s="90"/>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A177" s="43"/>
-      <c r="B177" s="116"/>
+      <c r="B177" s="117"/>
       <c r="C177" s="58"/>
-      <c r="D177" s="124"/>
-      <c r="E177" s="124"/>
+      <c r="D177" s="125"/>
+      <c r="E177" s="125"/>
       <c r="F177" s="59"/>
-      <c r="G177" s="124"/>
-      <c r="H177" s="124"/>
-      <c r="I177" s="78"/>
+      <c r="G177" s="125"/>
+      <c r="H177" s="125"/>
+      <c r="I177" s="77"/>
       <c r="J177" s="59"/>
       <c r="K177" s="61"/>
       <c r="L177" s="59"/>
-      <c r="M177" s="109"/>
+      <c r="M177" s="110"/>
       <c r="N177" s="94"/>
       <c r="O177" s="94"/>
       <c r="P177" s="94"/>
@@ -35355,7 +35360,7 @@
       <c r="BO177" s="62"/>
       <c r="BP177" s="62"/>
       <c r="BQ177" s="65"/>
-      <c r="BR177" s="115"/>
+      <c r="BR177" s="116"/>
       <c r="BS177" s="94"/>
       <c r="BT177" s="94"/>
       <c r="BU177" s="94"/>
@@ -35470,28 +35475,28 @@
       <c r="FZ177" s="68"/>
       <c r="GA177" s="69"/>
       <c r="GB177" s="69"/>
-      <c r="GC177" s="91"/>
-      <c r="GD177" s="91"/>
-      <c r="GE177" s="91"/>
-      <c r="GF177" s="91"/>
-      <c r="GG177" s="91"/>
-      <c r="GH177" s="91"/>
-      <c r="GI177" s="91"/>
+      <c r="GC177" s="90"/>
+      <c r="GD177" s="90"/>
+      <c r="GE177" s="90"/>
+      <c r="GF177" s="90"/>
+      <c r="GG177" s="90"/>
+      <c r="GH177" s="90"/>
+      <c r="GI177" s="90"/>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A178" s="43"/>
-      <c r="B178" s="116"/>
+      <c r="B178" s="117"/>
       <c r="C178" s="58"/>
       <c r="D178" s="59"/>
       <c r="E178" s="59"/>
       <c r="F178" s="59"/>
       <c r="G178" s="59"/>
-      <c r="H178" s="124"/>
-      <c r="I178" s="78"/>
+      <c r="H178" s="125"/>
+      <c r="I178" s="77"/>
       <c r="J178" s="59"/>
       <c r="K178" s="61"/>
       <c r="L178" s="59"/>
-      <c r="M178" s="109"/>
+      <c r="M178" s="110"/>
       <c r="N178" s="94"/>
       <c r="O178" s="94"/>
       <c r="P178" s="94"/>
@@ -35548,7 +35553,7 @@
       <c r="BO178" s="62"/>
       <c r="BP178" s="62"/>
       <c r="BQ178" s="65"/>
-      <c r="BR178" s="115"/>
+      <c r="BR178" s="116"/>
       <c r="BS178" s="94"/>
       <c r="BT178" s="94"/>
       <c r="BU178" s="94"/>
@@ -35663,28 +35668,28 @@
       <c r="FZ178" s="68"/>
       <c r="GA178" s="69"/>
       <c r="GB178" s="69"/>
-      <c r="GC178" s="91"/>
-      <c r="GD178" s="91"/>
-      <c r="GE178" s="91"/>
-      <c r="GF178" s="91"/>
-      <c r="GG178" s="91"/>
-      <c r="GH178" s="91"/>
-      <c r="GI178" s="91"/>
+      <c r="GC178" s="90"/>
+      <c r="GD178" s="90"/>
+      <c r="GE178" s="90"/>
+      <c r="GF178" s="90"/>
+      <c r="GG178" s="90"/>
+      <c r="GH178" s="90"/>
+      <c r="GI178" s="90"/>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A179" s="43"/>
-      <c r="B179" s="116"/>
+      <c r="B179" s="117"/>
       <c r="C179" s="58"/>
-      <c r="D179" s="124"/>
+      <c r="D179" s="125"/>
       <c r="E179" s="59"/>
       <c r="F179" s="59"/>
       <c r="G179" s="59"/>
-      <c r="H179" s="124"/>
-      <c r="I179" s="78"/>
+      <c r="H179" s="125"/>
+      <c r="I179" s="77"/>
       <c r="J179" s="59"/>
       <c r="K179" s="61"/>
       <c r="L179" s="59"/>
-      <c r="M179" s="109"/>
+      <c r="M179" s="110"/>
       <c r="N179" s="94"/>
       <c r="O179" s="94"/>
       <c r="P179" s="94"/>
@@ -35740,8 +35745,8 @@
       <c r="BN179" s="62"/>
       <c r="BO179" s="62"/>
       <c r="BP179" s="62"/>
-      <c r="BQ179" s="80"/>
-      <c r="BR179" s="115"/>
+      <c r="BQ179" s="79"/>
+      <c r="BR179" s="116"/>
       <c r="BS179" s="94"/>
       <c r="BT179" s="94"/>
       <c r="BU179" s="94"/>
@@ -35856,28 +35861,28 @@
       <c r="FZ179" s="68"/>
       <c r="GA179" s="69"/>
       <c r="GB179" s="69"/>
-      <c r="GC179" s="91"/>
-      <c r="GD179" s="91"/>
-      <c r="GE179" s="91"/>
-      <c r="GF179" s="91"/>
-      <c r="GG179" s="91"/>
-      <c r="GH179" s="91"/>
-      <c r="GI179" s="91"/>
+      <c r="GC179" s="90"/>
+      <c r="GD179" s="90"/>
+      <c r="GE179" s="90"/>
+      <c r="GF179" s="90"/>
+      <c r="GG179" s="90"/>
+      <c r="GH179" s="90"/>
+      <c r="GI179" s="90"/>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A180" s="43"/>
-      <c r="B180" s="116"/>
+      <c r="B180" s="117"/>
       <c r="C180" s="58"/>
-      <c r="D180" s="124"/>
+      <c r="D180" s="125"/>
       <c r="E180" s="59"/>
       <c r="F180" s="59"/>
       <c r="G180" s="59"/>
-      <c r="H180" s="124"/>
-      <c r="I180" s="88"/>
-      <c r="J180" s="88"/>
+      <c r="H180" s="125"/>
+      <c r="I180" s="85"/>
+      <c r="J180" s="85"/>
       <c r="K180" s="61"/>
       <c r="L180" s="59"/>
-      <c r="M180" s="109"/>
+      <c r="M180" s="110"/>
       <c r="N180" s="94"/>
       <c r="O180" s="94"/>
       <c r="P180" s="94"/>
@@ -35933,8 +35938,8 @@
       <c r="BN180" s="62"/>
       <c r="BO180" s="62"/>
       <c r="BP180" s="62"/>
-      <c r="BQ180" s="80"/>
-      <c r="BR180" s="123"/>
+      <c r="BQ180" s="79"/>
+      <c r="BR180" s="124"/>
       <c r="BS180" s="94"/>
       <c r="BT180" s="94"/>
       <c r="BU180" s="94"/>
@@ -35956,12 +35961,12 @@
       <c r="CK180" s="94"/>
       <c r="CL180" s="94"/>
       <c r="CM180" s="94"/>
-      <c r="CN180" s="125"/>
-      <c r="CO180" s="126"/>
-      <c r="CP180" s="127"/>
-      <c r="CQ180" s="126"/>
-      <c r="CR180" s="127"/>
-      <c r="CS180" s="127"/>
+      <c r="CN180" s="126"/>
+      <c r="CO180" s="127"/>
+      <c r="CP180" s="128"/>
+      <c r="CQ180" s="127"/>
+      <c r="CR180" s="128"/>
+      <c r="CS180" s="128"/>
       <c r="CT180" s="67"/>
       <c r="CU180" s="94"/>
       <c r="CV180" s="94"/>
@@ -36049,28 +36054,28 @@
       <c r="FZ180" s="68"/>
       <c r="GA180" s="69"/>
       <c r="GB180" s="69"/>
-      <c r="GC180" s="91"/>
-      <c r="GD180" s="91"/>
-      <c r="GE180" s="91"/>
-      <c r="GF180" s="91"/>
-      <c r="GG180" s="91"/>
-      <c r="GH180" s="91"/>
-      <c r="GI180" s="91"/>
+      <c r="GC180" s="90"/>
+      <c r="GD180" s="90"/>
+      <c r="GE180" s="90"/>
+      <c r="GF180" s="90"/>
+      <c r="GG180" s="90"/>
+      <c r="GH180" s="90"/>
+      <c r="GI180" s="90"/>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A181" s="43"/>
-      <c r="B181" s="116"/>
+      <c r="B181" s="117"/>
       <c r="C181" s="58"/>
-      <c r="D181" s="124"/>
+      <c r="D181" s="125"/>
       <c r="E181" s="59"/>
       <c r="F181" s="59"/>
       <c r="G181" s="59"/>
-      <c r="H181" s="124"/>
-      <c r="I181" s="78"/>
+      <c r="H181" s="125"/>
+      <c r="I181" s="77"/>
       <c r="J181" s="59"/>
       <c r="K181" s="61"/>
       <c r="L181" s="59"/>
-      <c r="M181" s="109"/>
+      <c r="M181" s="110"/>
       <c r="N181" s="94"/>
       <c r="O181" s="94"/>
       <c r="P181" s="94"/>
@@ -36126,8 +36131,8 @@
       <c r="BN181" s="62"/>
       <c r="BO181" s="62"/>
       <c r="BP181" s="62"/>
-      <c r="BQ181" s="80"/>
-      <c r="BR181" s="123"/>
+      <c r="BQ181" s="79"/>
+      <c r="BR181" s="124"/>
       <c r="BS181" s="94"/>
       <c r="BT181" s="94"/>
       <c r="BU181" s="94"/>
@@ -36242,28 +36247,28 @@
       <c r="FZ181" s="68"/>
       <c r="GA181" s="69"/>
       <c r="GB181" s="69"/>
-      <c r="GC181" s="91"/>
-      <c r="GD181" s="91"/>
-      <c r="GE181" s="91"/>
-      <c r="GF181" s="91"/>
-      <c r="GG181" s="91"/>
-      <c r="GH181" s="91"/>
-      <c r="GI181" s="91"/>
+      <c r="GC181" s="90"/>
+      <c r="GD181" s="90"/>
+      <c r="GE181" s="90"/>
+      <c r="GF181" s="90"/>
+      <c r="GG181" s="90"/>
+      <c r="GH181" s="90"/>
+      <c r="GI181" s="90"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A182" s="43"/>
-      <c r="B182" s="116"/>
+      <c r="B182" s="117"/>
       <c r="C182" s="58"/>
-      <c r="D182" s="124"/>
+      <c r="D182" s="125"/>
       <c r="E182" s="59"/>
       <c r="F182" s="59"/>
       <c r="G182" s="59"/>
-      <c r="H182" s="124"/>
-      <c r="I182" s="78"/>
+      <c r="H182" s="125"/>
+      <c r="I182" s="77"/>
       <c r="J182" s="59"/>
       <c r="K182" s="61"/>
       <c r="L182" s="59"/>
-      <c r="M182" s="109"/>
+      <c r="M182" s="110"/>
       <c r="N182" s="94"/>
       <c r="O182" s="94"/>
       <c r="P182" s="94"/>
@@ -36319,8 +36324,8 @@
       <c r="BN182" s="62"/>
       <c r="BO182" s="62"/>
       <c r="BP182" s="62"/>
-      <c r="BQ182" s="80"/>
-      <c r="BR182" s="115"/>
+      <c r="BQ182" s="79"/>
+      <c r="BR182" s="116"/>
       <c r="BS182" s="94"/>
       <c r="BT182" s="94"/>
       <c r="BU182" s="94"/>
@@ -36435,17 +36440,17 @@
       <c r="FZ182" s="68"/>
       <c r="GA182" s="69"/>
       <c r="GB182" s="69"/>
-      <c r="GC182" s="91"/>
-      <c r="GD182" s="91"/>
-      <c r="GE182" s="91"/>
-      <c r="GF182" s="91"/>
-      <c r="GG182" s="91"/>
-      <c r="GH182" s="91"/>
-      <c r="GI182" s="91"/>
+      <c r="GC182" s="90"/>
+      <c r="GD182" s="90"/>
+      <c r="GE182" s="90"/>
+      <c r="GF182" s="90"/>
+      <c r="GG182" s="90"/>
+      <c r="GH182" s="90"/>
+      <c r="GI182" s="90"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A183" s="43"/>
-      <c r="B183" s="116"/>
+      <c r="B183" s="117"/>
       <c r="C183" s="58"/>
       <c r="D183" s="74"/>
       <c r="E183" s="74"/>
@@ -36512,7 +36517,7 @@
       <c r="BN183" s="65"/>
       <c r="BO183" s="65"/>
       <c r="BP183" s="65"/>
-      <c r="BQ183" s="80"/>
+      <c r="BQ183" s="79"/>
       <c r="BR183" s="65"/>
       <c r="BS183" s="62"/>
       <c r="BT183" s="62"/>
@@ -36628,18 +36633,18 @@
       <c r="FZ183" s="68"/>
       <c r="GA183" s="69"/>
       <c r="GB183" s="69"/>
-      <c r="GC183" s="91"/>
-      <c r="GD183" s="91"/>
-      <c r="GE183" s="91"/>
-      <c r="GF183" s="91"/>
-      <c r="GG183" s="91"/>
-      <c r="GH183" s="91"/>
-      <c r="GI183" s="91"/>
+      <c r="GC183" s="90"/>
+      <c r="GD183" s="90"/>
+      <c r="GE183" s="90"/>
+      <c r="GF183" s="90"/>
+      <c r="GG183" s="90"/>
+      <c r="GH183" s="90"/>
+      <c r="GI183" s="90"/>
     </row>
     <row r="184" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A184" s="43"/>
-      <c r="B184" s="116"/>
-      <c r="C184" s="84"/>
+      <c r="B184" s="117"/>
+      <c r="C184" s="96"/>
       <c r="D184" s="59"/>
       <c r="E184" s="59"/>
       <c r="F184" s="59"/>
@@ -36821,18 +36826,18 @@
       <c r="FZ184" s="68"/>
       <c r="GA184" s="69"/>
       <c r="GB184" s="69"/>
-      <c r="GC184" s="91"/>
-      <c r="GD184" s="91"/>
-      <c r="GE184" s="91"/>
-      <c r="GF184" s="91"/>
-      <c r="GG184" s="91"/>
-      <c r="GH184" s="91"/>
-      <c r="GI184" s="91"/>
+      <c r="GC184" s="90"/>
+      <c r="GD184" s="90"/>
+      <c r="GE184" s="90"/>
+      <c r="GF184" s="90"/>
+      <c r="GG184" s="90"/>
+      <c r="GH184" s="90"/>
+      <c r="GI184" s="90"/>
     </row>
     <row r="185" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A185" s="43"/>
-      <c r="B185" s="116"/>
-      <c r="C185" s="84"/>
+      <c r="B185" s="117"/>
+      <c r="C185" s="96"/>
       <c r="D185" s="59"/>
       <c r="E185" s="59"/>
       <c r="F185" s="59"/>
@@ -37014,18 +37019,18 @@
       <c r="FZ185" s="68"/>
       <c r="GA185" s="69"/>
       <c r="GB185" s="69"/>
-      <c r="GC185" s="91"/>
-      <c r="GD185" s="91"/>
-      <c r="GE185" s="91"/>
-      <c r="GF185" s="91"/>
-      <c r="GG185" s="91"/>
-      <c r="GH185" s="91"/>
-      <c r="GI185" s="91"/>
+      <c r="GC185" s="90"/>
+      <c r="GD185" s="90"/>
+      <c r="GE185" s="90"/>
+      <c r="GF185" s="90"/>
+      <c r="GG185" s="90"/>
+      <c r="GH185" s="90"/>
+      <c r="GI185" s="90"/>
     </row>
     <row r="186" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A186" s="43"/>
-      <c r="B186" s="116"/>
-      <c r="C186" s="84"/>
+      <c r="B186" s="117"/>
+      <c r="C186" s="96"/>
       <c r="D186" s="59"/>
       <c r="E186" s="59"/>
       <c r="F186" s="59"/>
@@ -37207,18 +37212,18 @@
       <c r="FZ186" s="68"/>
       <c r="GA186" s="69"/>
       <c r="GB186" s="69"/>
-      <c r="GC186" s="91"/>
-      <c r="GD186" s="91"/>
-      <c r="GE186" s="91"/>
-      <c r="GF186" s="91"/>
-      <c r="GG186" s="91"/>
-      <c r="GH186" s="91"/>
-      <c r="GI186" s="91"/>
+      <c r="GC186" s="90"/>
+      <c r="GD186" s="90"/>
+      <c r="GE186" s="90"/>
+      <c r="GF186" s="90"/>
+      <c r="GG186" s="90"/>
+      <c r="GH186" s="90"/>
+      <c r="GI186" s="90"/>
     </row>
     <row r="187" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A187" s="43"/>
-      <c r="B187" s="116"/>
-      <c r="C187" s="84"/>
+      <c r="B187" s="117"/>
+      <c r="C187" s="96"/>
       <c r="D187" s="59"/>
       <c r="E187" s="59"/>
       <c r="F187" s="59"/>
@@ -37400,18 +37405,18 @@
       <c r="FZ187" s="68"/>
       <c r="GA187" s="69"/>
       <c r="GB187" s="69"/>
-      <c r="GC187" s="91"/>
-      <c r="GD187" s="91"/>
-      <c r="GE187" s="91"/>
-      <c r="GF187" s="91"/>
-      <c r="GG187" s="91"/>
-      <c r="GH187" s="91"/>
-      <c r="GI187" s="91"/>
+      <c r="GC187" s="90"/>
+      <c r="GD187" s="90"/>
+      <c r="GE187" s="90"/>
+      <c r="GF187" s="90"/>
+      <c r="GG187" s="90"/>
+      <c r="GH187" s="90"/>
+      <c r="GI187" s="90"/>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A188" s="43"/>
-      <c r="B188" s="116"/>
-      <c r="C188" s="84"/>
+      <c r="B188" s="117"/>
+      <c r="C188" s="96"/>
       <c r="D188" s="59"/>
       <c r="E188" s="59"/>
       <c r="F188" s="59"/>
@@ -37593,18 +37598,18 @@
       <c r="FZ188" s="68"/>
       <c r="GA188" s="69"/>
       <c r="GB188" s="69"/>
-      <c r="GC188" s="91"/>
-      <c r="GD188" s="91"/>
-      <c r="GE188" s="91"/>
-      <c r="GF188" s="91"/>
-      <c r="GG188" s="91"/>
-      <c r="GH188" s="91"/>
-      <c r="GI188" s="91"/>
+      <c r="GC188" s="90"/>
+      <c r="GD188" s="90"/>
+      <c r="GE188" s="90"/>
+      <c r="GF188" s="90"/>
+      <c r="GG188" s="90"/>
+      <c r="GH188" s="90"/>
+      <c r="GI188" s="90"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A189" s="43"/>
-      <c r="B189" s="116"/>
-      <c r="C189" s="84"/>
+      <c r="B189" s="117"/>
+      <c r="C189" s="96"/>
       <c r="D189" s="59"/>
       <c r="E189" s="59"/>
       <c r="F189" s="59"/>
@@ -37786,18 +37791,18 @@
       <c r="FZ189" s="68"/>
       <c r="GA189" s="69"/>
       <c r="GB189" s="69"/>
-      <c r="GC189" s="91"/>
-      <c r="GD189" s="91"/>
-      <c r="GE189" s="91"/>
-      <c r="GF189" s="91"/>
-      <c r="GG189" s="91"/>
-      <c r="GH189" s="91"/>
-      <c r="GI189" s="91"/>
+      <c r="GC189" s="90"/>
+      <c r="GD189" s="90"/>
+      <c r="GE189" s="90"/>
+      <c r="GF189" s="90"/>
+      <c r="GG189" s="90"/>
+      <c r="GH189" s="90"/>
+      <c r="GI189" s="90"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A190" s="43"/>
-      <c r="B190" s="116"/>
-      <c r="C190" s="84"/>
+      <c r="B190" s="117"/>
+      <c r="C190" s="96"/>
       <c r="D190" s="59"/>
       <c r="E190" s="59"/>
       <c r="F190" s="59"/>
@@ -37979,18 +37984,18 @@
       <c r="FZ190" s="68"/>
       <c r="GA190" s="69"/>
       <c r="GB190" s="69"/>
-      <c r="GC190" s="91"/>
-      <c r="GD190" s="91"/>
-      <c r="GE190" s="91"/>
-      <c r="GF190" s="91"/>
-      <c r="GG190" s="91"/>
-      <c r="GH190" s="91"/>
-      <c r="GI190" s="91"/>
+      <c r="GC190" s="90"/>
+      <c r="GD190" s="90"/>
+      <c r="GE190" s="90"/>
+      <c r="GF190" s="90"/>
+      <c r="GG190" s="90"/>
+      <c r="GH190" s="90"/>
+      <c r="GI190" s="90"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A191" s="43"/>
-      <c r="B191" s="116"/>
-      <c r="C191" s="84"/>
+      <c r="B191" s="117"/>
+      <c r="C191" s="96"/>
       <c r="D191" s="59"/>
       <c r="E191" s="59"/>
       <c r="F191" s="59"/>
@@ -38000,7 +38005,7 @@
       <c r="J191" s="59"/>
       <c r="K191" s="61"/>
       <c r="L191" s="59"/>
-      <c r="M191" s="88"/>
+      <c r="M191" s="85"/>
       <c r="N191" s="94"/>
       <c r="O191" s="62"/>
       <c r="P191" s="62"/>
@@ -38172,18 +38177,18 @@
       <c r="FZ191" s="68"/>
       <c r="GA191" s="69"/>
       <c r="GB191" s="69"/>
-      <c r="GC191" s="91"/>
-      <c r="GD191" s="91"/>
-      <c r="GE191" s="91"/>
-      <c r="GF191" s="91"/>
-      <c r="GG191" s="91"/>
-      <c r="GH191" s="91"/>
-      <c r="GI191" s="91"/>
+      <c r="GC191" s="90"/>
+      <c r="GD191" s="90"/>
+      <c r="GE191" s="90"/>
+      <c r="GF191" s="90"/>
+      <c r="GG191" s="90"/>
+      <c r="GH191" s="90"/>
+      <c r="GI191" s="90"/>
     </row>
     <row r="192" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A192" s="43"/>
-      <c r="B192" s="116"/>
-      <c r="C192" s="84"/>
+      <c r="B192" s="117"/>
+      <c r="C192" s="96"/>
       <c r="D192" s="59"/>
       <c r="E192" s="59"/>
       <c r="F192" s="59"/>
@@ -38193,7 +38198,7 @@
       <c r="J192" s="59"/>
       <c r="K192" s="61"/>
       <c r="L192" s="59"/>
-      <c r="M192" s="88"/>
+      <c r="M192" s="85"/>
       <c r="N192" s="94"/>
       <c r="O192" s="62"/>
       <c r="P192" s="62"/>
@@ -38365,18 +38370,18 @@
       <c r="FZ192" s="68"/>
       <c r="GA192" s="69"/>
       <c r="GB192" s="69"/>
-      <c r="GC192" s="91"/>
-      <c r="GD192" s="91"/>
-      <c r="GE192" s="91"/>
-      <c r="GF192" s="91"/>
-      <c r="GG192" s="91"/>
-      <c r="GH192" s="91"/>
-      <c r="GI192" s="91"/>
+      <c r="GC192" s="90"/>
+      <c r="GD192" s="90"/>
+      <c r="GE192" s="90"/>
+      <c r="GF192" s="90"/>
+      <c r="GG192" s="90"/>
+      <c r="GH192" s="90"/>
+      <c r="GI192" s="90"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A193" s="43"/>
-      <c r="B193" s="116"/>
-      <c r="C193" s="84"/>
+      <c r="B193" s="117"/>
+      <c r="C193" s="96"/>
       <c r="D193" s="59"/>
       <c r="E193" s="59"/>
       <c r="F193" s="59"/>
@@ -38558,17 +38563,17 @@
       <c r="FZ193" s="68"/>
       <c r="GA193" s="69"/>
       <c r="GB193" s="69"/>
-      <c r="GC193" s="91"/>
-      <c r="GD193" s="91"/>
-      <c r="GE193" s="91"/>
-      <c r="GF193" s="91"/>
-      <c r="GG193" s="91"/>
-      <c r="GH193" s="91"/>
-      <c r="GI193" s="91"/>
+      <c r="GC193" s="90"/>
+      <c r="GD193" s="90"/>
+      <c r="GE193" s="90"/>
+      <c r="GF193" s="90"/>
+      <c r="GG193" s="90"/>
+      <c r="GH193" s="90"/>
+      <c r="GI193" s="90"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A194" s="43"/>
-      <c r="B194" s="116"/>
+      <c r="B194" s="117"/>
       <c r="C194" s="58"/>
       <c r="D194" s="59"/>
       <c r="E194" s="59"/>
@@ -38635,7 +38640,7 @@
       <c r="BN194" s="65"/>
       <c r="BO194" s="65"/>
       <c r="BP194" s="65"/>
-      <c r="BQ194" s="80"/>
+      <c r="BQ194" s="79"/>
       <c r="BR194" s="65"/>
       <c r="BS194" s="62"/>
       <c r="BT194" s="62"/>
@@ -38751,18 +38756,18 @@
       <c r="FZ194" s="68"/>
       <c r="GA194" s="69"/>
       <c r="GB194" s="69"/>
-      <c r="GC194" s="91"/>
-      <c r="GD194" s="91"/>
-      <c r="GE194" s="91"/>
-      <c r="GF194" s="91"/>
-      <c r="GG194" s="91"/>
-      <c r="GH194" s="91"/>
-      <c r="GI194" s="91"/>
+      <c r="GC194" s="90"/>
+      <c r="GD194" s="90"/>
+      <c r="GE194" s="90"/>
+      <c r="GF194" s="90"/>
+      <c r="GG194" s="90"/>
+      <c r="GH194" s="90"/>
+      <c r="GI194" s="90"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A195" s="43"/>
-      <c r="B195" s="116"/>
-      <c r="C195" s="128"/>
+      <c r="B195" s="117"/>
+      <c r="C195" s="129"/>
       <c r="D195" s="59"/>
       <c r="E195" s="59"/>
       <c r="F195" s="59"/>
@@ -38941,21 +38946,21 @@
       <c r="FW195" s="62"/>
       <c r="FX195" s="62"/>
       <c r="FY195" s="62"/>
-      <c r="FZ195" s="85"/>
-      <c r="GA195" s="86"/>
-      <c r="GB195" s="86"/>
-      <c r="GC195" s="91"/>
-      <c r="GD195" s="91"/>
-      <c r="GE195" s="91"/>
-      <c r="GF195" s="91"/>
-      <c r="GG195" s="91"/>
-      <c r="GH195" s="91"/>
-      <c r="GI195" s="91"/>
+      <c r="FZ195" s="82"/>
+      <c r="GA195" s="83"/>
+      <c r="GB195" s="83"/>
+      <c r="GC195" s="90"/>
+      <c r="GD195" s="90"/>
+      <c r="GE195" s="90"/>
+      <c r="GF195" s="90"/>
+      <c r="GG195" s="90"/>
+      <c r="GH195" s="90"/>
+      <c r="GI195" s="90"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A196" s="43"/>
-      <c r="B196" s="116"/>
-      <c r="C196" s="128"/>
+      <c r="B196" s="117"/>
+      <c r="C196" s="129"/>
       <c r="D196" s="59"/>
       <c r="E196" s="59"/>
       <c r="F196" s="59"/>
@@ -39134,21 +39139,21 @@
       <c r="FW196" s="62"/>
       <c r="FX196" s="62"/>
       <c r="FY196" s="62"/>
-      <c r="FZ196" s="85"/>
-      <c r="GA196" s="86"/>
-      <c r="GB196" s="86"/>
-      <c r="GC196" s="91"/>
-      <c r="GD196" s="91"/>
-      <c r="GE196" s="91"/>
-      <c r="GF196" s="91"/>
-      <c r="GG196" s="91"/>
-      <c r="GH196" s="91"/>
-      <c r="GI196" s="91"/>
+      <c r="FZ196" s="82"/>
+      <c r="GA196" s="83"/>
+      <c r="GB196" s="83"/>
+      <c r="GC196" s="90"/>
+      <c r="GD196" s="90"/>
+      <c r="GE196" s="90"/>
+      <c r="GF196" s="90"/>
+      <c r="GG196" s="90"/>
+      <c r="GH196" s="90"/>
+      <c r="GI196" s="90"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A197" s="43"/>
-      <c r="B197" s="116"/>
-      <c r="C197" s="128"/>
+      <c r="B197" s="117"/>
+      <c r="C197" s="129"/>
       <c r="D197" s="59"/>
       <c r="E197" s="59"/>
       <c r="F197" s="59"/>
@@ -39327,21 +39332,21 @@
       <c r="FW197" s="62"/>
       <c r="FX197" s="62"/>
       <c r="FY197" s="62"/>
-      <c r="FZ197" s="85"/>
-      <c r="GA197" s="86"/>
-      <c r="GB197" s="86"/>
-      <c r="GC197" s="91"/>
-      <c r="GD197" s="91"/>
-      <c r="GE197" s="91"/>
-      <c r="GF197" s="91"/>
-      <c r="GG197" s="91"/>
-      <c r="GH197" s="91"/>
-      <c r="GI197" s="91"/>
+      <c r="FZ197" s="82"/>
+      <c r="GA197" s="83"/>
+      <c r="GB197" s="83"/>
+      <c r="GC197" s="90"/>
+      <c r="GD197" s="90"/>
+      <c r="GE197" s="90"/>
+      <c r="GF197" s="90"/>
+      <c r="GG197" s="90"/>
+      <c r="GH197" s="90"/>
+      <c r="GI197" s="90"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A198" s="43"/>
-      <c r="B198" s="116"/>
-      <c r="C198" s="128"/>
+      <c r="B198" s="117"/>
+      <c r="C198" s="129"/>
       <c r="D198" s="59"/>
       <c r="E198" s="59"/>
       <c r="F198" s="59"/>
@@ -39520,21 +39525,21 @@
       <c r="FW198" s="62"/>
       <c r="FX198" s="62"/>
       <c r="FY198" s="62"/>
-      <c r="FZ198" s="85"/>
-      <c r="GA198" s="86"/>
-      <c r="GB198" s="86"/>
-      <c r="GC198" s="91"/>
-      <c r="GD198" s="91"/>
-      <c r="GE198" s="91"/>
-      <c r="GF198" s="91"/>
-      <c r="GG198" s="91"/>
-      <c r="GH198" s="91"/>
-      <c r="GI198" s="91"/>
+      <c r="FZ198" s="82"/>
+      <c r="GA198" s="83"/>
+      <c r="GB198" s="83"/>
+      <c r="GC198" s="90"/>
+      <c r="GD198" s="90"/>
+      <c r="GE198" s="90"/>
+      <c r="GF198" s="90"/>
+      <c r="GG198" s="90"/>
+      <c r="GH198" s="90"/>
+      <c r="GI198" s="90"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A199" s="43"/>
-      <c r="B199" s="116"/>
-      <c r="C199" s="128"/>
+      <c r="B199" s="117"/>
+      <c r="C199" s="129"/>
       <c r="D199" s="59"/>
       <c r="E199" s="59"/>
       <c r="F199" s="59"/>
@@ -39713,21 +39718,21 @@
       <c r="FW199" s="62"/>
       <c r="FX199" s="62"/>
       <c r="FY199" s="62"/>
-      <c r="FZ199" s="85"/>
-      <c r="GA199" s="86"/>
-      <c r="GB199" s="86"/>
-      <c r="GC199" s="91"/>
-      <c r="GD199" s="91"/>
-      <c r="GE199" s="91"/>
-      <c r="GF199" s="91"/>
-      <c r="GG199" s="91"/>
-      <c r="GH199" s="91"/>
-      <c r="GI199" s="91"/>
+      <c r="FZ199" s="82"/>
+      <c r="GA199" s="83"/>
+      <c r="GB199" s="83"/>
+      <c r="GC199" s="90"/>
+      <c r="GD199" s="90"/>
+      <c r="GE199" s="90"/>
+      <c r="GF199" s="90"/>
+      <c r="GG199" s="90"/>
+      <c r="GH199" s="90"/>
+      <c r="GI199" s="90"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A200" s="43"/>
-      <c r="B200" s="116"/>
-      <c r="C200" s="128"/>
+      <c r="B200" s="117"/>
+      <c r="C200" s="129"/>
       <c r="D200" s="59"/>
       <c r="E200" s="59"/>
       <c r="F200" s="59"/>
@@ -39906,21 +39911,21 @@
       <c r="FW200" s="62"/>
       <c r="FX200" s="62"/>
       <c r="FY200" s="62"/>
-      <c r="FZ200" s="85"/>
-      <c r="GA200" s="86"/>
-      <c r="GB200" s="86"/>
-      <c r="GC200" s="91"/>
-      <c r="GD200" s="91"/>
-      <c r="GE200" s="91"/>
-      <c r="GF200" s="91"/>
-      <c r="GG200" s="91"/>
-      <c r="GH200" s="91"/>
-      <c r="GI200" s="91"/>
+      <c r="FZ200" s="82"/>
+      <c r="GA200" s="83"/>
+      <c r="GB200" s="83"/>
+      <c r="GC200" s="90"/>
+      <c r="GD200" s="90"/>
+      <c r="GE200" s="90"/>
+      <c r="GF200" s="90"/>
+      <c r="GG200" s="90"/>
+      <c r="GH200" s="90"/>
+      <c r="GI200" s="90"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A201" s="43"/>
-      <c r="B201" s="116"/>
-      <c r="C201" s="128"/>
+      <c r="B201" s="117"/>
+      <c r="C201" s="129"/>
       <c r="D201" s="59"/>
       <c r="E201" s="59"/>
       <c r="F201" s="59"/>
@@ -40099,21 +40104,21 @@
       <c r="FW201" s="62"/>
       <c r="FX201" s="62"/>
       <c r="FY201" s="62"/>
-      <c r="FZ201" s="85"/>
-      <c r="GA201" s="86"/>
-      <c r="GB201" s="86"/>
-      <c r="GC201" s="91"/>
-      <c r="GD201" s="91"/>
-      <c r="GE201" s="91"/>
-      <c r="GF201" s="91"/>
-      <c r="GG201" s="91"/>
-      <c r="GH201" s="91"/>
-      <c r="GI201" s="91"/>
+      <c r="FZ201" s="82"/>
+      <c r="GA201" s="83"/>
+      <c r="GB201" s="83"/>
+      <c r="GC201" s="90"/>
+      <c r="GD201" s="90"/>
+      <c r="GE201" s="90"/>
+      <c r="GF201" s="90"/>
+      <c r="GG201" s="90"/>
+      <c r="GH201" s="90"/>
+      <c r="GI201" s="90"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A202" s="43"/>
-      <c r="B202" s="116"/>
-      <c r="C202" s="128"/>
+      <c r="B202" s="117"/>
+      <c r="C202" s="129"/>
       <c r="D202" s="59"/>
       <c r="E202" s="59"/>
       <c r="F202" s="59"/>
@@ -40292,21 +40297,21 @@
       <c r="FW202" s="62"/>
       <c r="FX202" s="62"/>
       <c r="FY202" s="62"/>
-      <c r="FZ202" s="85"/>
-      <c r="GA202" s="86"/>
-      <c r="GB202" s="86"/>
-      <c r="GC202" s="91"/>
-      <c r="GD202" s="91"/>
-      <c r="GE202" s="91"/>
-      <c r="GF202" s="91"/>
-      <c r="GG202" s="91"/>
-      <c r="GH202" s="91"/>
-      <c r="GI202" s="91"/>
+      <c r="FZ202" s="82"/>
+      <c r="GA202" s="83"/>
+      <c r="GB202" s="83"/>
+      <c r="GC202" s="90"/>
+      <c r="GD202" s="90"/>
+      <c r="GE202" s="90"/>
+      <c r="GF202" s="90"/>
+      <c r="GG202" s="90"/>
+      <c r="GH202" s="90"/>
+      <c r="GI202" s="90"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A203" s="43"/>
-      <c r="B203" s="116"/>
-      <c r="C203" s="128"/>
+      <c r="B203" s="117"/>
+      <c r="C203" s="129"/>
       <c r="D203" s="59"/>
       <c r="E203" s="59"/>
       <c r="F203" s="59"/>
@@ -40485,20 +40490,20 @@
       <c r="FW203" s="62"/>
       <c r="FX203" s="62"/>
       <c r="FY203" s="62"/>
-      <c r="FZ203" s="85"/>
-      <c r="GA203" s="86"/>
-      <c r="GB203" s="86"/>
-      <c r="GC203" s="91"/>
-      <c r="GD203" s="91"/>
-      <c r="GE203" s="91"/>
-      <c r="GF203" s="91"/>
-      <c r="GG203" s="91"/>
-      <c r="GH203" s="91"/>
-      <c r="GI203" s="91"/>
+      <c r="FZ203" s="82"/>
+      <c r="GA203" s="83"/>
+      <c r="GB203" s="83"/>
+      <c r="GC203" s="90"/>
+      <c r="GD203" s="90"/>
+      <c r="GE203" s="90"/>
+      <c r="GF203" s="90"/>
+      <c r="GG203" s="90"/>
+      <c r="GH203" s="90"/>
+      <c r="GI203" s="90"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A204" s="43"/>
-      <c r="B204" s="116"/>
+      <c r="B204" s="117"/>
       <c r="C204" s="58"/>
       <c r="D204" s="59"/>
       <c r="E204" s="59"/>
@@ -40565,7 +40570,7 @@
       <c r="BN204" s="65"/>
       <c r="BO204" s="65"/>
       <c r="BP204" s="65"/>
-      <c r="BQ204" s="80"/>
+      <c r="BQ204" s="79"/>
       <c r="BR204" s="65"/>
       <c r="BS204" s="62"/>
       <c r="BT204" s="62"/>
@@ -40681,18 +40686,18 @@
       <c r="FZ204" s="68"/>
       <c r="GA204" s="69"/>
       <c r="GB204" s="59"/>
-      <c r="GC204" s="91"/>
-      <c r="GD204" s="91"/>
-      <c r="GE204" s="91"/>
-      <c r="GF204" s="91"/>
-      <c r="GG204" s="91"/>
-      <c r="GH204" s="91"/>
-      <c r="GI204" s="91"/>
+      <c r="GC204" s="90"/>
+      <c r="GD204" s="90"/>
+      <c r="GE204" s="90"/>
+      <c r="GF204" s="90"/>
+      <c r="GG204" s="90"/>
+      <c r="GH204" s="90"/>
+      <c r="GI204" s="90"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A205" s="43"/>
-      <c r="B205" s="116"/>
-      <c r="C205" s="84"/>
+      <c r="B205" s="117"/>
+      <c r="C205" s="96"/>
       <c r="D205" s="59"/>
       <c r="E205" s="59"/>
       <c r="F205" s="59"/>
@@ -40874,18 +40879,18 @@
       <c r="FZ205" s="68"/>
       <c r="GA205" s="69"/>
       <c r="GB205" s="69"/>
-      <c r="GC205" s="91"/>
-      <c r="GD205" s="91"/>
-      <c r="GE205" s="91"/>
-      <c r="GF205" s="91"/>
-      <c r="GG205" s="91"/>
-      <c r="GH205" s="91"/>
-      <c r="GI205" s="91"/>
+      <c r="GC205" s="90"/>
+      <c r="GD205" s="90"/>
+      <c r="GE205" s="90"/>
+      <c r="GF205" s="90"/>
+      <c r="GG205" s="90"/>
+      <c r="GH205" s="90"/>
+      <c r="GI205" s="90"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A206" s="43"/>
-      <c r="B206" s="116"/>
-      <c r="C206" s="84"/>
+      <c r="B206" s="117"/>
+      <c r="C206" s="96"/>
       <c r="D206" s="59"/>
       <c r="E206" s="59"/>
       <c r="F206" s="59"/>
@@ -41067,18 +41072,18 @@
       <c r="FZ206" s="68"/>
       <c r="GA206" s="69"/>
       <c r="GB206" s="69"/>
-      <c r="GC206" s="91"/>
-      <c r="GD206" s="91"/>
-      <c r="GE206" s="91"/>
-      <c r="GF206" s="91"/>
-      <c r="GG206" s="91"/>
-      <c r="GH206" s="91"/>
-      <c r="GI206" s="91"/>
+      <c r="GC206" s="90"/>
+      <c r="GD206" s="90"/>
+      <c r="GE206" s="90"/>
+      <c r="GF206" s="90"/>
+      <c r="GG206" s="90"/>
+      <c r="GH206" s="90"/>
+      <c r="GI206" s="90"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A207" s="43"/>
-      <c r="B207" s="116"/>
-      <c r="C207" s="84"/>
+      <c r="B207" s="117"/>
+      <c r="C207" s="96"/>
       <c r="D207" s="59"/>
       <c r="E207" s="59"/>
       <c r="F207" s="59"/>
@@ -41260,18 +41265,18 @@
       <c r="FZ207" s="68"/>
       <c r="GA207" s="69"/>
       <c r="GB207" s="69"/>
-      <c r="GC207" s="91"/>
-      <c r="GD207" s="91"/>
-      <c r="GE207" s="91"/>
-      <c r="GF207" s="91"/>
-      <c r="GG207" s="91"/>
-      <c r="GH207" s="91"/>
-      <c r="GI207" s="91"/>
+      <c r="GC207" s="90"/>
+      <c r="GD207" s="90"/>
+      <c r="GE207" s="90"/>
+      <c r="GF207" s="90"/>
+      <c r="GG207" s="90"/>
+      <c r="GH207" s="90"/>
+      <c r="GI207" s="90"/>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A208" s="43"/>
-      <c r="B208" s="116"/>
-      <c r="C208" s="84"/>
+      <c r="B208" s="117"/>
+      <c r="C208" s="96"/>
       <c r="D208" s="59"/>
       <c r="E208" s="59"/>
       <c r="F208" s="59"/>
@@ -41453,18 +41458,18 @@
       <c r="FZ208" s="68"/>
       <c r="GA208" s="69"/>
       <c r="GB208" s="69"/>
-      <c r="GC208" s="91"/>
-      <c r="GD208" s="91"/>
-      <c r="GE208" s="91"/>
-      <c r="GF208" s="91"/>
-      <c r="GG208" s="91"/>
-      <c r="GH208" s="91"/>
-      <c r="GI208" s="91"/>
+      <c r="GC208" s="90"/>
+      <c r="GD208" s="90"/>
+      <c r="GE208" s="90"/>
+      <c r="GF208" s="90"/>
+      <c r="GG208" s="90"/>
+      <c r="GH208" s="90"/>
+      <c r="GI208" s="90"/>
     </row>
     <row r="209" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A209" s="43"/>
-      <c r="B209" s="116"/>
-      <c r="C209" s="84"/>
+      <c r="B209" s="117"/>
+      <c r="C209" s="96"/>
       <c r="D209" s="59"/>
       <c r="E209" s="59"/>
       <c r="F209" s="59"/>
@@ -41646,18 +41651,18 @@
       <c r="FZ209" s="68"/>
       <c r="GA209" s="69"/>
       <c r="GB209" s="69"/>
-      <c r="GC209" s="91"/>
-      <c r="GD209" s="91"/>
-      <c r="GE209" s="91"/>
-      <c r="GF209" s="91"/>
-      <c r="GG209" s="91"/>
-      <c r="GH209" s="91"/>
-      <c r="GI209" s="91"/>
+      <c r="GC209" s="90"/>
+      <c r="GD209" s="90"/>
+      <c r="GE209" s="90"/>
+      <c r="GF209" s="90"/>
+      <c r="GG209" s="90"/>
+      <c r="GH209" s="90"/>
+      <c r="GI209" s="90"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A210" s="43"/>
-      <c r="B210" s="116"/>
-      <c r="C210" s="84"/>
+      <c r="B210" s="117"/>
+      <c r="C210" s="96"/>
       <c r="D210" s="59"/>
       <c r="E210" s="59"/>
       <c r="F210" s="59"/>
@@ -41839,18 +41844,18 @@
       <c r="FZ210" s="68"/>
       <c r="GA210" s="69"/>
       <c r="GB210" s="69"/>
-      <c r="GC210" s="91"/>
-      <c r="GD210" s="91"/>
-      <c r="GE210" s="91"/>
-      <c r="GF210" s="91"/>
-      <c r="GG210" s="91"/>
-      <c r="GH210" s="91"/>
-      <c r="GI210" s="91"/>
+      <c r="GC210" s="90"/>
+      <c r="GD210" s="90"/>
+      <c r="GE210" s="90"/>
+      <c r="GF210" s="90"/>
+      <c r="GG210" s="90"/>
+      <c r="GH210" s="90"/>
+      <c r="GI210" s="90"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A211" s="43"/>
-      <c r="B211" s="116"/>
-      <c r="C211" s="84"/>
+      <c r="B211" s="117"/>
+      <c r="C211" s="96"/>
       <c r="D211" s="59"/>
       <c r="E211" s="59"/>
       <c r="F211" s="59"/>
@@ -42032,18 +42037,18 @@
       <c r="FZ211" s="68"/>
       <c r="GA211" s="69"/>
       <c r="GB211" s="69"/>
-      <c r="GC211" s="91"/>
-      <c r="GD211" s="91"/>
-      <c r="GE211" s="91"/>
-      <c r="GF211" s="91"/>
-      <c r="GG211" s="91"/>
-      <c r="GH211" s="91"/>
-      <c r="GI211" s="91"/>
+      <c r="GC211" s="90"/>
+      <c r="GD211" s="90"/>
+      <c r="GE211" s="90"/>
+      <c r="GF211" s="90"/>
+      <c r="GG211" s="90"/>
+      <c r="GH211" s="90"/>
+      <c r="GI211" s="90"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A212" s="43"/>
-      <c r="B212" s="116"/>
-      <c r="C212" s="84"/>
+      <c r="B212" s="117"/>
+      <c r="C212" s="96"/>
       <c r="D212" s="59"/>
       <c r="E212" s="59"/>
       <c r="F212" s="59"/>
@@ -42225,17 +42230,17 @@
       <c r="FZ212" s="68"/>
       <c r="GA212" s="69"/>
       <c r="GB212" s="69"/>
-      <c r="GC212" s="91"/>
-      <c r="GD212" s="91"/>
-      <c r="GE212" s="91"/>
-      <c r="GF212" s="91"/>
-      <c r="GG212" s="91"/>
-      <c r="GH212" s="91"/>
-      <c r="GI212" s="91"/>
+      <c r="GC212" s="90"/>
+      <c r="GD212" s="90"/>
+      <c r="GE212" s="90"/>
+      <c r="GF212" s="90"/>
+      <c r="GG212" s="90"/>
+      <c r="GH212" s="90"/>
+      <c r="GI212" s="90"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A213" s="43"/>
-      <c r="B213" s="116"/>
+      <c r="B213" s="117"/>
       <c r="C213" s="58"/>
       <c r="D213" s="59"/>
       <c r="E213" s="59"/>
@@ -42302,7 +42307,7 @@
       <c r="BN213" s="65"/>
       <c r="BO213" s="65"/>
       <c r="BP213" s="65"/>
-      <c r="BQ213" s="80"/>
+      <c r="BQ213" s="79"/>
       <c r="BR213" s="65"/>
       <c r="BS213" s="62"/>
       <c r="BT213" s="62"/>
@@ -42418,18 +42423,18 @@
       <c r="FZ213" s="68"/>
       <c r="GA213" s="69"/>
       <c r="GB213" s="69"/>
-      <c r="GC213" s="91"/>
-      <c r="GD213" s="91"/>
-      <c r="GE213" s="91"/>
-      <c r="GF213" s="91"/>
-      <c r="GG213" s="91"/>
-      <c r="GH213" s="91"/>
-      <c r="GI213" s="91"/>
+      <c r="GC213" s="90"/>
+      <c r="GD213" s="90"/>
+      <c r="GE213" s="90"/>
+      <c r="GF213" s="90"/>
+      <c r="GG213" s="90"/>
+      <c r="GH213" s="90"/>
+      <c r="GI213" s="90"/>
     </row>
     <row r="214" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A214" s="43"/>
-      <c r="B214" s="116"/>
-      <c r="C214" s="84"/>
+      <c r="B214" s="117"/>
+      <c r="C214" s="96"/>
       <c r="D214" s="59"/>
       <c r="E214" s="59"/>
       <c r="F214" s="59"/>
@@ -42611,18 +42616,18 @@
       <c r="FZ214" s="68"/>
       <c r="GA214" s="69"/>
       <c r="GB214" s="69"/>
-      <c r="GC214" s="91"/>
-      <c r="GD214" s="91"/>
-      <c r="GE214" s="91"/>
-      <c r="GF214" s="91"/>
-      <c r="GG214" s="91"/>
-      <c r="GH214" s="91"/>
-      <c r="GI214" s="91"/>
+      <c r="GC214" s="90"/>
+      <c r="GD214" s="90"/>
+      <c r="GE214" s="90"/>
+      <c r="GF214" s="90"/>
+      <c r="GG214" s="90"/>
+      <c r="GH214" s="90"/>
+      <c r="GI214" s="90"/>
     </row>
     <row r="215" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A215" s="43"/>
-      <c r="B215" s="116"/>
-      <c r="C215" s="84"/>
+      <c r="B215" s="117"/>
+      <c r="C215" s="96"/>
       <c r="D215" s="59"/>
       <c r="E215" s="59"/>
       <c r="F215" s="59"/>
@@ -42804,18 +42809,18 @@
       <c r="FZ215" s="68"/>
       <c r="GA215" s="69"/>
       <c r="GB215" s="69"/>
-      <c r="GC215" s="91"/>
-      <c r="GD215" s="91"/>
-      <c r="GE215" s="91"/>
-      <c r="GF215" s="91"/>
-      <c r="GG215" s="91"/>
-      <c r="GH215" s="91"/>
-      <c r="GI215" s="91"/>
+      <c r="GC215" s="90"/>
+      <c r="GD215" s="90"/>
+      <c r="GE215" s="90"/>
+      <c r="GF215" s="90"/>
+      <c r="GG215" s="90"/>
+      <c r="GH215" s="90"/>
+      <c r="GI215" s="90"/>
     </row>
     <row r="216" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A216" s="43"/>
-      <c r="B216" s="116"/>
-      <c r="C216" s="84"/>
+      <c r="B216" s="117"/>
+      <c r="C216" s="96"/>
       <c r="D216" s="59"/>
       <c r="E216" s="59"/>
       <c r="F216" s="59"/>
@@ -42997,18 +43002,18 @@
       <c r="FZ216" s="68"/>
       <c r="GA216" s="69"/>
       <c r="GB216" s="69"/>
-      <c r="GC216" s="91"/>
-      <c r="GD216" s="91"/>
-      <c r="GE216" s="91"/>
-      <c r="GF216" s="91"/>
-      <c r="GG216" s="91"/>
-      <c r="GH216" s="91"/>
-      <c r="GI216" s="91"/>
+      <c r="GC216" s="90"/>
+      <c r="GD216" s="90"/>
+      <c r="GE216" s="90"/>
+      <c r="GF216" s="90"/>
+      <c r="GG216" s="90"/>
+      <c r="GH216" s="90"/>
+      <c r="GI216" s="90"/>
     </row>
     <row r="217" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A217" s="43"/>
-      <c r="B217" s="116"/>
-      <c r="C217" s="84"/>
+      <c r="B217" s="117"/>
+      <c r="C217" s="96"/>
       <c r="D217" s="59"/>
       <c r="E217" s="59"/>
       <c r="F217" s="59"/>
@@ -43190,18 +43195,18 @@
       <c r="FZ217" s="68"/>
       <c r="GA217" s="69"/>
       <c r="GB217" s="69"/>
-      <c r="GC217" s="91"/>
-      <c r="GD217" s="91"/>
-      <c r="GE217" s="91"/>
-      <c r="GF217" s="91"/>
-      <c r="GG217" s="91"/>
-      <c r="GH217" s="91"/>
-      <c r="GI217" s="91"/>
+      <c r="GC217" s="90"/>
+      <c r="GD217" s="90"/>
+      <c r="GE217" s="90"/>
+      <c r="GF217" s="90"/>
+      <c r="GG217" s="90"/>
+      <c r="GH217" s="90"/>
+      <c r="GI217" s="90"/>
     </row>
     <row r="218" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A218" s="43"/>
-      <c r="B218" s="116"/>
-      <c r="C218" s="84"/>
+      <c r="B218" s="117"/>
+      <c r="C218" s="96"/>
       <c r="D218" s="59"/>
       <c r="E218" s="59"/>
       <c r="F218" s="59"/>
@@ -43383,18 +43388,18 @@
       <c r="FZ218" s="68"/>
       <c r="GA218" s="69"/>
       <c r="GB218" s="69"/>
-      <c r="GC218" s="91"/>
-      <c r="GD218" s="91"/>
-      <c r="GE218" s="91"/>
-      <c r="GF218" s="91"/>
-      <c r="GG218" s="91"/>
-      <c r="GH218" s="91"/>
-      <c r="GI218" s="91"/>
+      <c r="GC218" s="90"/>
+      <c r="GD218" s="90"/>
+      <c r="GE218" s="90"/>
+      <c r="GF218" s="90"/>
+      <c r="GG218" s="90"/>
+      <c r="GH218" s="90"/>
+      <c r="GI218" s="90"/>
     </row>
     <row r="219" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A219" s="43"/>
-      <c r="B219" s="116"/>
-      <c r="C219" s="84"/>
+      <c r="B219" s="117"/>
+      <c r="C219" s="96"/>
       <c r="D219" s="59"/>
       <c r="E219" s="59"/>
       <c r="F219" s="59"/>
@@ -43576,20 +43581,20 @@
       <c r="FZ219" s="68"/>
       <c r="GA219" s="69"/>
       <c r="GB219" s="69"/>
-      <c r="GC219" s="91"/>
-      <c r="GD219" s="91"/>
-      <c r="GE219" s="91"/>
-      <c r="GF219" s="91"/>
-      <c r="GG219" s="91"/>
-      <c r="GH219" s="91"/>
-      <c r="GI219" s="91"/>
+      <c r="GC219" s="90"/>
+      <c r="GD219" s="90"/>
+      <c r="GE219" s="90"/>
+      <c r="GF219" s="90"/>
+      <c r="GG219" s="90"/>
+      <c r="GH219" s="90"/>
+      <c r="GI219" s="90"/>
     </row>
     <row r="220" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A220" s="43"/>
-      <c r="B220" s="116"/>
-      <c r="C220" s="84"/>
+      <c r="B220" s="117"/>
+      <c r="C220" s="96"/>
       <c r="D220" s="59"/>
-      <c r="E220" s="124"/>
+      <c r="E220" s="125"/>
       <c r="F220" s="59"/>
       <c r="G220" s="59"/>
       <c r="H220" s="59"/>
@@ -43769,18 +43774,18 @@
       <c r="FZ220" s="68"/>
       <c r="GA220" s="69"/>
       <c r="GB220" s="69"/>
-      <c r="GC220" s="91"/>
-      <c r="GD220" s="91"/>
-      <c r="GE220" s="91"/>
-      <c r="GF220" s="91"/>
-      <c r="GG220" s="91"/>
-      <c r="GH220" s="91"/>
-      <c r="GI220" s="91"/>
+      <c r="GC220" s="90"/>
+      <c r="GD220" s="90"/>
+      <c r="GE220" s="90"/>
+      <c r="GF220" s="90"/>
+      <c r="GG220" s="90"/>
+      <c r="GH220" s="90"/>
+      <c r="GI220" s="90"/>
     </row>
     <row r="221" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A221" s="43"/>
-      <c r="B221" s="116"/>
-      <c r="C221" s="84"/>
+      <c r="B221" s="117"/>
+      <c r="C221" s="96"/>
       <c r="D221" s="59"/>
       <c r="E221" s="59"/>
       <c r="F221" s="59"/>
@@ -43962,18 +43967,18 @@
       <c r="FZ221" s="68"/>
       <c r="GA221" s="69"/>
       <c r="GB221" s="69"/>
-      <c r="GC221" s="91"/>
-      <c r="GD221" s="91"/>
-      <c r="GE221" s="91"/>
-      <c r="GF221" s="91"/>
-      <c r="GG221" s="91"/>
-      <c r="GH221" s="91"/>
-      <c r="GI221" s="91"/>
+      <c r="GC221" s="90"/>
+      <c r="GD221" s="90"/>
+      <c r="GE221" s="90"/>
+      <c r="GF221" s="90"/>
+      <c r="GG221" s="90"/>
+      <c r="GH221" s="90"/>
+      <c r="GI221" s="90"/>
     </row>
     <row r="222" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A222" s="43"/>
-      <c r="B222" s="116"/>
-      <c r="C222" s="84"/>
+      <c r="B222" s="117"/>
+      <c r="C222" s="96"/>
       <c r="D222" s="59"/>
       <c r="E222" s="59"/>
       <c r="F222" s="59"/>
@@ -44155,18 +44160,18 @@
       <c r="FZ222" s="68"/>
       <c r="GA222" s="69"/>
       <c r="GB222" s="69"/>
-      <c r="GC222" s="91"/>
-      <c r="GD222" s="91"/>
-      <c r="GE222" s="91"/>
-      <c r="GF222" s="91"/>
-      <c r="GG222" s="91"/>
-      <c r="GH222" s="91"/>
-      <c r="GI222" s="91"/>
+      <c r="GC222" s="90"/>
+      <c r="GD222" s="90"/>
+      <c r="GE222" s="90"/>
+      <c r="GF222" s="90"/>
+      <c r="GG222" s="90"/>
+      <c r="GH222" s="90"/>
+      <c r="GI222" s="90"/>
     </row>
     <row r="223" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A223" s="43"/>
-      <c r="B223" s="116"/>
-      <c r="C223" s="84"/>
+      <c r="B223" s="117"/>
+      <c r="C223" s="96"/>
       <c r="D223" s="59"/>
       <c r="E223" s="59"/>
       <c r="F223" s="59"/>
@@ -44348,17 +44353,17 @@
       <c r="FZ223" s="68"/>
       <c r="GA223" s="69"/>
       <c r="GB223" s="69"/>
-      <c r="GC223" s="91"/>
-      <c r="GD223" s="91"/>
-      <c r="GE223" s="91"/>
-      <c r="GF223" s="91"/>
-      <c r="GG223" s="91"/>
-      <c r="GH223" s="91"/>
-      <c r="GI223" s="91"/>
+      <c r="GC223" s="90"/>
+      <c r="GD223" s="90"/>
+      <c r="GE223" s="90"/>
+      <c r="GF223" s="90"/>
+      <c r="GG223" s="90"/>
+      <c r="GH223" s="90"/>
+      <c r="GI223" s="90"/>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A224" s="43"/>
-      <c r="B224" s="116"/>
+      <c r="B224" s="117"/>
       <c r="C224" s="58"/>
       <c r="D224" s="59"/>
       <c r="E224" s="59"/>
@@ -44425,7 +44430,7 @@
       <c r="BN224" s="65"/>
       <c r="BO224" s="65"/>
       <c r="BP224" s="65"/>
-      <c r="BQ224" s="80"/>
+      <c r="BQ224" s="79"/>
       <c r="BR224" s="65"/>
       <c r="BS224" s="62"/>
       <c r="BT224" s="62"/>
@@ -44541,18 +44546,18 @@
       <c r="FZ224" s="68"/>
       <c r="GA224" s="69"/>
       <c r="GB224" s="69"/>
-      <c r="GC224" s="91"/>
-      <c r="GD224" s="91"/>
-      <c r="GE224" s="91"/>
-      <c r="GF224" s="91"/>
-      <c r="GG224" s="91"/>
-      <c r="GH224" s="91"/>
-      <c r="GI224" s="91"/>
+      <c r="GC224" s="90"/>
+      <c r="GD224" s="90"/>
+      <c r="GE224" s="90"/>
+      <c r="GF224" s="90"/>
+      <c r="GG224" s="90"/>
+      <c r="GH224" s="90"/>
+      <c r="GI224" s="90"/>
     </row>
     <row r="225" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A225" s="43"/>
-      <c r="B225" s="116"/>
-      <c r="C225" s="128"/>
+      <c r="B225" s="117"/>
+      <c r="C225" s="129"/>
       <c r="D225" s="59"/>
       <c r="E225" s="59"/>
       <c r="F225" s="59"/>
@@ -44739,8 +44744,8 @@
     </row>
     <row r="226" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A226" s="43"/>
-      <c r="B226" s="116"/>
-      <c r="C226" s="128"/>
+      <c r="B226" s="117"/>
+      <c r="C226" s="129"/>
       <c r="D226" s="59"/>
       <c r="E226" s="59"/>
       <c r="F226" s="59"/>
@@ -44927,13 +44932,13 @@
     </row>
     <row r="227" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A227" s="43"/>
-      <c r="B227" s="116"/>
-      <c r="C227" s="128"/>
-      <c r="D227" s="109"/>
-      <c r="E227" s="109"/>
-      <c r="F227" s="109"/>
-      <c r="G227" s="109"/>
-      <c r="H227" s="109"/>
+      <c r="B227" s="117"/>
+      <c r="C227" s="129"/>
+      <c r="D227" s="110"/>
+      <c r="E227" s="110"/>
+      <c r="F227" s="110"/>
+      <c r="G227" s="110"/>
+      <c r="H227" s="110"/>
       <c r="I227" s="59"/>
       <c r="J227" s="59"/>
       <c r="K227" s="61"/>
@@ -45115,8 +45120,8 @@
     </row>
     <row r="228" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A228" s="43"/>
-      <c r="B228" s="116"/>
-      <c r="C228" s="128"/>
+      <c r="B228" s="117"/>
+      <c r="C228" s="129"/>
       <c r="D228" s="59"/>
       <c r="E228" s="59"/>
       <c r="F228" s="59"/>
@@ -45303,8 +45308,8 @@
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A229" s="43"/>
-      <c r="B229" s="116"/>
-      <c r="C229" s="128"/>
+      <c r="B229" s="117"/>
+      <c r="C229" s="129"/>
       <c r="D229" s="59"/>
       <c r="E229" s="59"/>
       <c r="F229" s="59"/>
@@ -45491,8 +45496,8 @@
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A230" s="43"/>
-      <c r="B230" s="116"/>
-      <c r="C230" s="128"/>
+      <c r="B230" s="117"/>
+      <c r="C230" s="129"/>
       <c r="D230" s="59"/>
       <c r="E230" s="59"/>
       <c r="F230" s="59"/>
@@ -45679,8 +45684,8 @@
     </row>
     <row r="231" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A231" s="43"/>
-      <c r="B231" s="116"/>
-      <c r="C231" s="128"/>
+      <c r="B231" s="117"/>
+      <c r="C231" s="129"/>
       <c r="D231" s="59"/>
       <c r="E231" s="59"/>
       <c r="F231" s="59"/>
@@ -45867,8 +45872,8 @@
     </row>
     <row r="232" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A232" s="43"/>
-      <c r="B232" s="116"/>
-      <c r="C232" s="128"/>
+      <c r="B232" s="117"/>
+      <c r="C232" s="129"/>
       <c r="D232" s="59"/>
       <c r="E232" s="59"/>
       <c r="F232" s="59"/>
@@ -46055,8 +46060,8 @@
     </row>
     <row r="233" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A233" s="43"/>
-      <c r="B233" s="116"/>
-      <c r="C233" s="128"/>
+      <c r="B233" s="117"/>
+      <c r="C233" s="129"/>
       <c r="D233" s="59"/>
       <c r="E233" s="59"/>
       <c r="F233" s="59"/>
@@ -46243,8 +46248,8 @@
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A234" s="43"/>
-      <c r="B234" s="116"/>
-      <c r="C234" s="128"/>
+      <c r="B234" s="117"/>
+      <c r="C234" s="129"/>
       <c r="D234" s="59"/>
       <c r="E234" s="59"/>
       <c r="F234" s="59"/>
@@ -46426,20 +46431,20 @@
       <c r="FZ234" s="68"/>
       <c r="GA234" s="69"/>
       <c r="GB234" s="69"/>
-      <c r="GC234" s="91"/>
-      <c r="GD234" s="91"/>
-      <c r="GE234" s="91"/>
-      <c r="GF234" s="91"/>
-      <c r="GG234" s="91"/>
-      <c r="GH234" s="91"/>
-      <c r="GI234" s="91"/>
-      <c r="GJ234" s="91"/>
-      <c r="GK234" s="91"/>
+      <c r="GC234" s="90"/>
+      <c r="GD234" s="90"/>
+      <c r="GE234" s="90"/>
+      <c r="GF234" s="90"/>
+      <c r="GG234" s="90"/>
+      <c r="GH234" s="90"/>
+      <c r="GI234" s="90"/>
+      <c r="GJ234" s="90"/>
+      <c r="GK234" s="90"/>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A235" s="43"/>
-      <c r="B235" s="116"/>
-      <c r="C235" s="128"/>
+      <c r="B235" s="117"/>
+      <c r="C235" s="129"/>
       <c r="D235" s="59"/>
       <c r="E235" s="59"/>
       <c r="F235" s="59"/>
@@ -46621,19 +46626,19 @@
       <c r="FZ235" s="68"/>
       <c r="GA235" s="69"/>
       <c r="GB235" s="69"/>
-      <c r="GC235" s="91"/>
-      <c r="GD235" s="91"/>
-      <c r="GE235" s="91"/>
-      <c r="GF235" s="91"/>
-      <c r="GG235" s="91"/>
-      <c r="GH235" s="91"/>
-      <c r="GI235" s="91"/>
-      <c r="GJ235" s="91"/>
-      <c r="GK235" s="91"/>
+      <c r="GC235" s="90"/>
+      <c r="GD235" s="90"/>
+      <c r="GE235" s="90"/>
+      <c r="GF235" s="90"/>
+      <c r="GG235" s="90"/>
+      <c r="GH235" s="90"/>
+      <c r="GI235" s="90"/>
+      <c r="GJ235" s="90"/>
+      <c r="GK235" s="90"/>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A236" s="43"/>
-      <c r="B236" s="116"/>
+      <c r="B236" s="117"/>
       <c r="C236" s="58"/>
       <c r="D236" s="59"/>
       <c r="E236" s="59"/>
@@ -46700,7 +46705,7 @@
       <c r="BN236" s="65"/>
       <c r="BO236" s="65"/>
       <c r="BP236" s="65"/>
-      <c r="BQ236" s="80"/>
+      <c r="BQ236" s="79"/>
       <c r="BR236" s="65"/>
       <c r="BS236" s="62"/>
       <c r="BT236" s="62"/>
@@ -46821,7 +46826,7 @@
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A237" s="43"/>
-      <c r="B237" s="116"/>
+      <c r="B237" s="117"/>
       <c r="C237" s="58"/>
       <c r="D237" s="59"/>
       <c r="E237" s="59"/>
@@ -47001,15 +47006,15 @@
       <c r="FW237" s="62"/>
       <c r="FX237" s="62"/>
       <c r="FY237" s="58"/>
-      <c r="FZ237" s="85"/>
-      <c r="GA237" s="86"/>
-      <c r="GB237" s="86"/>
+      <c r="FZ237" s="82"/>
+      <c r="GA237" s="83"/>
+      <c r="GB237" s="83"/>
       <c r="GC237" s="70"/>
       <c r="GD237" s="70"/>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A238" s="43"/>
-      <c r="B238" s="116"/>
+      <c r="B238" s="117"/>
       <c r="C238" s="58"/>
       <c r="D238" s="59"/>
       <c r="E238" s="59"/>
@@ -47189,15 +47194,15 @@
       <c r="FW238" s="62"/>
       <c r="FX238" s="62"/>
       <c r="FY238" s="58"/>
-      <c r="FZ238" s="85"/>
-      <c r="GA238" s="86"/>
-      <c r="GB238" s="86"/>
+      <c r="FZ238" s="82"/>
+      <c r="GA238" s="83"/>
+      <c r="GB238" s="83"/>
       <c r="GC238" s="70"/>
       <c r="GD238" s="70"/>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A239" s="43"/>
-      <c r="B239" s="116"/>
+      <c r="B239" s="117"/>
       <c r="C239" s="58"/>
       <c r="D239" s="59"/>
       <c r="E239" s="59"/>
@@ -47377,15 +47382,15 @@
       <c r="FW239" s="62"/>
       <c r="FX239" s="62"/>
       <c r="FY239" s="58"/>
-      <c r="FZ239" s="85"/>
-      <c r="GA239" s="86"/>
-      <c r="GB239" s="86"/>
+      <c r="FZ239" s="82"/>
+      <c r="GA239" s="83"/>
+      <c r="GB239" s="83"/>
       <c r="GC239" s="70"/>
       <c r="GD239" s="70"/>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A240" s="43"/>
-      <c r="B240" s="116"/>
+      <c r="B240" s="117"/>
       <c r="C240" s="58"/>
       <c r="D240" s="59"/>
       <c r="E240" s="59"/>
@@ -47565,15 +47570,15 @@
       <c r="FW240" s="62"/>
       <c r="FX240" s="62"/>
       <c r="FY240" s="58"/>
-      <c r="FZ240" s="85"/>
-      <c r="GA240" s="86"/>
-      <c r="GB240" s="86"/>
+      <c r="FZ240" s="82"/>
+      <c r="GA240" s="83"/>
+      <c r="GB240" s="83"/>
       <c r="GC240" s="70"/>
       <c r="GD240" s="70"/>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A241" s="43"/>
-      <c r="B241" s="116"/>
+      <c r="B241" s="117"/>
       <c r="C241" s="58"/>
       <c r="D241" s="59"/>
       <c r="E241" s="59"/>
@@ -47753,15 +47758,15 @@
       <c r="FW241" s="62"/>
       <c r="FX241" s="62"/>
       <c r="FY241" s="58"/>
-      <c r="FZ241" s="85"/>
-      <c r="GA241" s="86"/>
-      <c r="GB241" s="86"/>
+      <c r="FZ241" s="82"/>
+      <c r="GA241" s="83"/>
+      <c r="GB241" s="83"/>
       <c r="GC241" s="70"/>
       <c r="GD241" s="70"/>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A242" s="43"/>
-      <c r="B242" s="116"/>
+      <c r="B242" s="117"/>
       <c r="C242" s="58"/>
       <c r="D242" s="59"/>
       <c r="E242" s="59"/>
@@ -47941,15 +47946,15 @@
       <c r="FW242" s="62"/>
       <c r="FX242" s="62"/>
       <c r="FY242" s="58"/>
-      <c r="FZ242" s="85"/>
-      <c r="GA242" s="86"/>
-      <c r="GB242" s="86"/>
+      <c r="FZ242" s="82"/>
+      <c r="GA242" s="83"/>
+      <c r="GB242" s="83"/>
       <c r="GC242" s="70"/>
       <c r="GD242" s="70"/>
     </row>
     <row r="243" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A243" s="43"/>
-      <c r="B243" s="116"/>
+      <c r="B243" s="117"/>
       <c r="C243" s="58"/>
       <c r="D243" s="59"/>
       <c r="E243" s="59"/>
@@ -48129,15 +48134,15 @@
       <c r="FW243" s="62"/>
       <c r="FX243" s="62"/>
       <c r="FY243" s="58"/>
-      <c r="FZ243" s="85"/>
-      <c r="GA243" s="86"/>
-      <c r="GB243" s="86"/>
+      <c r="FZ243" s="82"/>
+      <c r="GA243" s="83"/>
+      <c r="GB243" s="83"/>
       <c r="GC243" s="70"/>
       <c r="GD243" s="70"/>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A244" s="43"/>
-      <c r="B244" s="116"/>
+      <c r="B244" s="117"/>
       <c r="C244" s="58"/>
       <c r="D244" s="59"/>
       <c r="E244" s="59"/>
@@ -48317,17 +48322,17 @@
       <c r="FW244" s="62"/>
       <c r="FX244" s="62"/>
       <c r="FY244" s="58"/>
-      <c r="FZ244" s="85"/>
-      <c r="GA244" s="86"/>
-      <c r="GB244" s="86"/>
+      <c r="FZ244" s="82"/>
+      <c r="GA244" s="83"/>
+      <c r="GB244" s="83"/>
       <c r="GC244" s="70"/>
       <c r="GD244" s="70"/>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A245" s="43"/>
-      <c r="B245" s="116"/>
+      <c r="B245" s="117"/>
       <c r="C245" s="58"/>
-      <c r="D245" s="124"/>
+      <c r="D245" s="125"/>
       <c r="E245" s="59"/>
       <c r="F245" s="59"/>
       <c r="G245" s="59"/>
@@ -48505,15 +48510,15 @@
       <c r="FW245" s="62"/>
       <c r="FX245" s="62"/>
       <c r="FY245" s="58"/>
-      <c r="FZ245" s="85"/>
-      <c r="GA245" s="86"/>
-      <c r="GB245" s="86"/>
+      <c r="FZ245" s="82"/>
+      <c r="GA245" s="83"/>
+      <c r="GB245" s="83"/>
       <c r="GC245" s="70"/>
       <c r="GD245" s="70"/>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A246" s="43"/>
-      <c r="B246" s="116"/>
+      <c r="B246" s="117"/>
       <c r="C246" s="58"/>
       <c r="D246" s="59"/>
       <c r="E246" s="59"/>
@@ -48693,15 +48698,15 @@
       <c r="FW246" s="62"/>
       <c r="FX246" s="62"/>
       <c r="FY246" s="58"/>
-      <c r="FZ246" s="85"/>
-      <c r="GA246" s="86"/>
-      <c r="GB246" s="86"/>
+      <c r="FZ246" s="82"/>
+      <c r="GA246" s="83"/>
+      <c r="GB246" s="83"/>
       <c r="GC246" s="70"/>
       <c r="GD246" s="70"/>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A247" s="43"/>
-      <c r="B247" s="116"/>
+      <c r="B247" s="117"/>
       <c r="C247" s="58"/>
       <c r="D247" s="59"/>
       <c r="E247" s="59"/>
@@ -48881,15 +48886,15 @@
       <c r="FW247" s="62"/>
       <c r="FX247" s="62"/>
       <c r="FY247" s="58"/>
-      <c r="FZ247" s="85"/>
-      <c r="GA247" s="86"/>
-      <c r="GB247" s="86"/>
+      <c r="FZ247" s="82"/>
+      <c r="GA247" s="83"/>
+      <c r="GB247" s="83"/>
       <c r="GC247" s="70"/>
       <c r="GD247" s="70"/>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A248" s="43"/>
-      <c r="B248" s="116"/>
+      <c r="B248" s="117"/>
       <c r="C248" s="58"/>
       <c r="D248" s="59"/>
       <c r="E248" s="59"/>
@@ -49069,17 +49074,17 @@
       <c r="FW248" s="62"/>
       <c r="FX248" s="62"/>
       <c r="FY248" s="58"/>
-      <c r="FZ248" s="85"/>
-      <c r="GA248" s="86"/>
-      <c r="GB248" s="86"/>
+      <c r="FZ248" s="82"/>
+      <c r="GA248" s="83"/>
+      <c r="GB248" s="83"/>
       <c r="GC248" s="70"/>
       <c r="GD248" s="70"/>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A249" s="43"/>
-      <c r="B249" s="116"/>
+      <c r="B249" s="117"/>
       <c r="C249" s="58"/>
-      <c r="D249" s="129"/>
+      <c r="D249" s="130"/>
       <c r="E249" s="59"/>
       <c r="F249" s="59"/>
       <c r="G249" s="59"/>
@@ -49087,7 +49092,7 @@
       <c r="I249" s="60"/>
       <c r="J249" s="59"/>
       <c r="K249" s="61"/>
-      <c r="L249" s="78"/>
+      <c r="L249" s="77"/>
       <c r="M249" s="62"/>
       <c r="N249" s="94"/>
       <c r="O249" s="94"/>
@@ -49144,7 +49149,7 @@
       <c r="BN249" s="65"/>
       <c r="BO249" s="65"/>
       <c r="BP249" s="65"/>
-      <c r="BQ249" s="80"/>
+      <c r="BQ249" s="79"/>
       <c r="BR249" s="65"/>
       <c r="BS249" s="62"/>
       <c r="BT249" s="62"/>
@@ -49153,7 +49158,7 @@
       <c r="BW249" s="62"/>
       <c r="BX249" s="62"/>
       <c r="BY249" s="62"/>
-      <c r="BZ249" s="130"/>
+      <c r="BZ249" s="131"/>
       <c r="CA249" s="62"/>
       <c r="CB249" s="62"/>
       <c r="CC249" s="62"/>
@@ -49265,8 +49270,8 @@
     </row>
     <row r="250" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A250" s="43"/>
-      <c r="B250" s="116"/>
-      <c r="C250" s="71"/>
+      <c r="B250" s="117"/>
+      <c r="C250" s="89"/>
       <c r="D250" s="75"/>
       <c r="E250" s="59"/>
       <c r="F250" s="59"/>
@@ -49275,7 +49280,7 @@
       <c r="I250" s="59"/>
       <c r="J250" s="59"/>
       <c r="K250" s="61"/>
-      <c r="L250" s="124"/>
+      <c r="L250" s="125"/>
       <c r="M250" s="59"/>
       <c r="N250" s="94"/>
       <c r="O250" s="62"/>
@@ -49453,8 +49458,8 @@
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A251" s="43"/>
-      <c r="B251" s="116"/>
-      <c r="C251" s="71"/>
+      <c r="B251" s="117"/>
+      <c r="C251" s="89"/>
       <c r="D251" s="59"/>
       <c r="E251" s="59"/>
       <c r="F251" s="59"/>
@@ -49641,8 +49646,8 @@
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A252" s="43"/>
-      <c r="B252" s="116"/>
-      <c r="C252" s="71"/>
+      <c r="B252" s="117"/>
+      <c r="C252" s="89"/>
       <c r="D252" s="59"/>
       <c r="E252" s="59"/>
       <c r="F252" s="59"/>
@@ -49829,8 +49834,8 @@
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A253" s="43"/>
-      <c r="B253" s="116"/>
-      <c r="C253" s="71"/>
+      <c r="B253" s="117"/>
+      <c r="C253" s="89"/>
       <c r="D253" s="59"/>
       <c r="E253" s="59"/>
       <c r="F253" s="59"/>
@@ -50017,8 +50022,8 @@
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A254" s="43"/>
-      <c r="B254" s="116"/>
-      <c r="C254" s="71"/>
+      <c r="B254" s="117"/>
+      <c r="C254" s="89"/>
       <c r="D254" s="59"/>
       <c r="E254" s="59"/>
       <c r="F254" s="59"/>
@@ -50205,13 +50210,13 @@
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A255" s="43"/>
-      <c r="B255" s="116"/>
-      <c r="C255" s="71"/>
-      <c r="D255" s="129"/>
-      <c r="E255" s="129"/>
-      <c r="F255" s="129"/>
-      <c r="G255" s="129"/>
-      <c r="H255" s="129"/>
+      <c r="B255" s="117"/>
+      <c r="C255" s="89"/>
+      <c r="D255" s="130"/>
+      <c r="E255" s="130"/>
+      <c r="F255" s="130"/>
+      <c r="G255" s="130"/>
+      <c r="H255" s="130"/>
       <c r="I255" s="59"/>
       <c r="J255" s="59"/>
       <c r="K255" s="61"/>
@@ -50393,13 +50398,13 @@
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A256" s="43"/>
-      <c r="B256" s="116"/>
-      <c r="C256" s="71"/>
-      <c r="D256" s="129"/>
-      <c r="E256" s="129"/>
-      <c r="F256" s="129"/>
-      <c r="G256" s="129"/>
-      <c r="H256" s="129"/>
+      <c r="B256" s="117"/>
+      <c r="C256" s="89"/>
+      <c r="D256" s="130"/>
+      <c r="E256" s="130"/>
+      <c r="F256" s="130"/>
+      <c r="G256" s="130"/>
+      <c r="H256" s="130"/>
       <c r="I256" s="59"/>
       <c r="J256" s="59"/>
       <c r="K256" s="61"/>
@@ -50581,13 +50586,13 @@
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A257" s="43"/>
-      <c r="B257" s="116"/>
-      <c r="C257" s="71"/>
-      <c r="D257" s="82"/>
-      <c r="E257" s="82"/>
-      <c r="F257" s="82"/>
-      <c r="G257" s="82"/>
-      <c r="H257" s="78"/>
+      <c r="B257" s="117"/>
+      <c r="C257" s="89"/>
+      <c r="D257" s="80"/>
+      <c r="E257" s="80"/>
+      <c r="F257" s="80"/>
+      <c r="G257" s="80"/>
+      <c r="H257" s="77"/>
       <c r="I257" s="59"/>
       <c r="J257" s="59"/>
       <c r="K257" s="61"/>
@@ -50769,13 +50774,13 @@
     </row>
     <row r="258" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A258" s="43"/>
-      <c r="B258" s="116"/>
-      <c r="C258" s="71"/>
-      <c r="D258" s="129"/>
-      <c r="E258" s="129"/>
-      <c r="F258" s="129"/>
-      <c r="G258" s="129"/>
-      <c r="H258" s="129"/>
+      <c r="B258" s="117"/>
+      <c r="C258" s="89"/>
+      <c r="D258" s="130"/>
+      <c r="E258" s="130"/>
+      <c r="F258" s="130"/>
+      <c r="G258" s="130"/>
+      <c r="H258" s="130"/>
       <c r="I258" s="59"/>
       <c r="J258" s="59"/>
       <c r="K258" s="61"/>
@@ -50957,13 +50962,13 @@
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A259" s="43"/>
-      <c r="B259" s="116"/>
-      <c r="C259" s="71"/>
-      <c r="D259" s="129"/>
-      <c r="E259" s="129"/>
-      <c r="F259" s="129"/>
-      <c r="G259" s="129"/>
-      <c r="H259" s="129"/>
+      <c r="B259" s="117"/>
+      <c r="C259" s="89"/>
+      <c r="D259" s="130"/>
+      <c r="E259" s="130"/>
+      <c r="F259" s="130"/>
+      <c r="G259" s="130"/>
+      <c r="H259" s="130"/>
       <c r="I259" s="59"/>
       <c r="J259" s="59"/>
       <c r="K259" s="61"/>
@@ -51145,14 +51150,14 @@
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A260" s="43"/>
-      <c r="B260" s="116"/>
+      <c r="B260" s="117"/>
       <c r="C260" s="58"/>
       <c r="D260" s="59"/>
       <c r="E260" s="59"/>
       <c r="F260" s="59"/>
       <c r="G260" s="59"/>
       <c r="H260" s="59"/>
-      <c r="I260" s="109"/>
+      <c r="I260" s="110"/>
       <c r="J260" s="59"/>
       <c r="K260" s="61"/>
       <c r="L260" s="59"/>
@@ -51212,7 +51217,7 @@
       <c r="BN260" s="65"/>
       <c r="BO260" s="65"/>
       <c r="BP260" s="65"/>
-      <c r="BQ260" s="80"/>
+      <c r="BQ260" s="79"/>
       <c r="BR260" s="65"/>
       <c r="BS260" s="62"/>
       <c r="BT260" s="62"/>
@@ -51333,8 +51338,8 @@
     </row>
     <row r="261" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A261" s="43"/>
-      <c r="B261" s="116"/>
-      <c r="C261" s="71"/>
+      <c r="B261" s="117"/>
+      <c r="C261" s="89"/>
       <c r="D261" s="59"/>
       <c r="E261" s="59"/>
       <c r="F261" s="59"/>
@@ -51521,8 +51526,8 @@
     </row>
     <row r="262" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A262" s="43"/>
-      <c r="B262" s="116"/>
-      <c r="C262" s="71"/>
+      <c r="B262" s="117"/>
+      <c r="C262" s="89"/>
       <c r="D262" s="59"/>
       <c r="E262" s="59"/>
       <c r="F262" s="59"/>
@@ -51709,8 +51714,8 @@
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A263" s="43"/>
-      <c r="B263" s="116"/>
-      <c r="C263" s="71"/>
+      <c r="B263" s="117"/>
+      <c r="C263" s="89"/>
       <c r="D263" s="59"/>
       <c r="E263" s="59"/>
       <c r="F263" s="59"/>
@@ -51897,8 +51902,8 @@
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A264" s="43"/>
-      <c r="B264" s="116"/>
-      <c r="C264" s="71"/>
+      <c r="B264" s="117"/>
+      <c r="C264" s="89"/>
       <c r="D264" s="59"/>
       <c r="E264" s="59"/>
       <c r="F264" s="59"/>
@@ -52085,8 +52090,8 @@
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A265" s="43"/>
-      <c r="B265" s="116"/>
-      <c r="C265" s="71"/>
+      <c r="B265" s="117"/>
+      <c r="C265" s="89"/>
       <c r="D265" s="59"/>
       <c r="E265" s="59"/>
       <c r="F265" s="59"/>
@@ -52273,7 +52278,7 @@
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A266" s="43"/>
-      <c r="B266" s="116"/>
+      <c r="B266" s="117"/>
       <c r="C266" s="58"/>
       <c r="D266" s="59"/>
       <c r="E266" s="59"/>
@@ -52340,7 +52345,7 @@
       <c r="BN266" s="65"/>
       <c r="BO266" s="65"/>
       <c r="BP266" s="65"/>
-      <c r="BQ266" s="80"/>
+      <c r="BQ266" s="79"/>
       <c r="BR266" s="65"/>
       <c r="BS266" s="62"/>
       <c r="BT266" s="62"/>
@@ -52461,8 +52466,8 @@
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A267" s="43"/>
-      <c r="B267" s="116"/>
-      <c r="C267" s="71"/>
+      <c r="B267" s="117"/>
+      <c r="C267" s="89"/>
       <c r="D267" s="59"/>
       <c r="E267" s="59"/>
       <c r="F267" s="59"/>
@@ -52649,8 +52654,8 @@
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A268" s="43"/>
-      <c r="B268" s="116"/>
-      <c r="C268" s="71"/>
+      <c r="B268" s="117"/>
+      <c r="C268" s="89"/>
       <c r="D268" s="59"/>
       <c r="E268" s="59"/>
       <c r="F268" s="59"/>
@@ -52837,8 +52842,8 @@
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A269" s="43"/>
-      <c r="B269" s="116"/>
-      <c r="C269" s="71"/>
+      <c r="B269" s="117"/>
+      <c r="C269" s="89"/>
       <c r="D269" s="59"/>
       <c r="E269" s="59"/>
       <c r="F269" s="59"/>
@@ -53025,8 +53030,8 @@
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A270" s="43"/>
-      <c r="B270" s="116"/>
-      <c r="C270" s="71"/>
+      <c r="B270" s="117"/>
+      <c r="C270" s="89"/>
       <c r="D270" s="59"/>
       <c r="E270" s="59"/>
       <c r="F270" s="59"/>
@@ -53213,8 +53218,8 @@
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A271" s="43"/>
-      <c r="B271" s="116"/>
-      <c r="C271" s="71"/>
+      <c r="B271" s="117"/>
+      <c r="C271" s="89"/>
       <c r="D271" s="59"/>
       <c r="E271" s="59"/>
       <c r="F271" s="59"/>
@@ -53401,8 +53406,8 @@
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="2" collapsed="false">
       <c r="A272" s="43"/>
-      <c r="B272" s="116"/>
-      <c r="C272" s="71"/>
+      <c r="B272" s="117"/>
+      <c r="C272" s="89"/>
       <c r="D272" s="59"/>
       <c r="E272" s="59"/>
       <c r="F272" s="59"/>
@@ -53589,18 +53594,18 @@
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A273" s="43"/>
-      <c r="B273" s="116"/>
-      <c r="C273" s="131"/>
-      <c r="D273" s="132"/>
-      <c r="E273" s="132"/>
-      <c r="F273" s="132"/>
-      <c r="G273" s="132"/>
+      <c r="B273" s="117"/>
+      <c r="C273" s="132"/>
+      <c r="D273" s="133"/>
+      <c r="E273" s="133"/>
+      <c r="F273" s="133"/>
+      <c r="G273" s="133"/>
       <c r="H273" s="59"/>
-      <c r="I273" s="133"/>
-      <c r="J273" s="133"/>
-      <c r="K273" s="133"/>
-      <c r="L273" s="134"/>
-      <c r="M273" s="132"/>
+      <c r="I273" s="134"/>
+      <c r="J273" s="134"/>
+      <c r="K273" s="134"/>
+      <c r="L273" s="135"/>
+      <c r="M273" s="133"/>
       <c r="N273" s="94"/>
       <c r="O273" s="94"/>
       <c r="P273" s="94"/>
@@ -53629,7 +53634,7 @@
       <c r="AM273" s="94"/>
       <c r="AN273" s="94"/>
       <c r="AO273" s="63"/>
-      <c r="AP273" s="135"/>
+      <c r="AP273" s="136"/>
       <c r="AQ273" s="65"/>
       <c r="AR273" s="65"/>
       <c r="AS273" s="65"/>
@@ -53656,146 +53661,146 @@
       <c r="BN273" s="65"/>
       <c r="BO273" s="65"/>
       <c r="BP273" s="65"/>
-      <c r="BQ273" s="80"/>
+      <c r="BQ273" s="79"/>
       <c r="BR273" s="65"/>
-      <c r="BS273" s="88"/>
-      <c r="BT273" s="88"/>
-      <c r="BU273" s="88"/>
-      <c r="BV273" s="88"/>
-      <c r="BW273" s="88"/>
-      <c r="BX273" s="88"/>
-      <c r="BY273" s="88"/>
-      <c r="BZ273" s="88"/>
-      <c r="CA273" s="88"/>
-      <c r="CB273" s="88"/>
-      <c r="CC273" s="88"/>
-      <c r="CD273" s="88"/>
-      <c r="CE273" s="88"/>
-      <c r="CF273" s="88"/>
-      <c r="CG273" s="88"/>
-      <c r="CH273" s="88"/>
-      <c r="CI273" s="88"/>
-      <c r="CJ273" s="88"/>
-      <c r="CK273" s="88"/>
-      <c r="CL273" s="88"/>
-      <c r="CM273" s="88"/>
-      <c r="CN273" s="88"/>
-      <c r="CO273" s="88"/>
-      <c r="CP273" s="88"/>
-      <c r="CQ273" s="88"/>
-      <c r="CR273" s="88"/>
-      <c r="CS273" s="88"/>
+      <c r="BS273" s="85"/>
+      <c r="BT273" s="85"/>
+      <c r="BU273" s="85"/>
+      <c r="BV273" s="85"/>
+      <c r="BW273" s="85"/>
+      <c r="BX273" s="85"/>
+      <c r="BY273" s="85"/>
+      <c r="BZ273" s="85"/>
+      <c r="CA273" s="85"/>
+      <c r="CB273" s="85"/>
+      <c r="CC273" s="85"/>
+      <c r="CD273" s="85"/>
+      <c r="CE273" s="85"/>
+      <c r="CF273" s="85"/>
+      <c r="CG273" s="85"/>
+      <c r="CH273" s="85"/>
+      <c r="CI273" s="85"/>
+      <c r="CJ273" s="85"/>
+      <c r="CK273" s="85"/>
+      <c r="CL273" s="85"/>
+      <c r="CM273" s="85"/>
+      <c r="CN273" s="85"/>
+      <c r="CO273" s="85"/>
+      <c r="CP273" s="85"/>
+      <c r="CQ273" s="85"/>
+      <c r="CR273" s="85"/>
+      <c r="CS273" s="85"/>
       <c r="CT273" s="67"/>
-      <c r="CU273" s="88"/>
-      <c r="CV273" s="88"/>
-      <c r="CW273" s="88"/>
-      <c r="CX273" s="88"/>
-      <c r="CY273" s="88"/>
-      <c r="CZ273" s="88"/>
-      <c r="DA273" s="88"/>
-      <c r="DB273" s="88"/>
-      <c r="DC273" s="88"/>
-      <c r="DD273" s="88"/>
-      <c r="DE273" s="88"/>
-      <c r="DF273" s="88"/>
-      <c r="DG273" s="88"/>
-      <c r="DH273" s="88"/>
-      <c r="DI273" s="88"/>
-      <c r="DJ273" s="88"/>
-      <c r="DK273" s="88"/>
-      <c r="DL273" s="88"/>
-      <c r="DM273" s="88"/>
-      <c r="DN273" s="88"/>
-      <c r="DO273" s="88"/>
-      <c r="DP273" s="88"/>
-      <c r="DQ273" s="88"/>
-      <c r="DR273" s="88"/>
-      <c r="DS273" s="88"/>
-      <c r="DT273" s="88"/>
-      <c r="DU273" s="88"/>
+      <c r="CU273" s="85"/>
+      <c r="CV273" s="85"/>
+      <c r="CW273" s="85"/>
+      <c r="CX273" s="85"/>
+      <c r="CY273" s="85"/>
+      <c r="CZ273" s="85"/>
+      <c r="DA273" s="85"/>
+      <c r="DB273" s="85"/>
+      <c r="DC273" s="85"/>
+      <c r="DD273" s="85"/>
+      <c r="DE273" s="85"/>
+      <c r="DF273" s="85"/>
+      <c r="DG273" s="85"/>
+      <c r="DH273" s="85"/>
+      <c r="DI273" s="85"/>
+      <c r="DJ273" s="85"/>
+      <c r="DK273" s="85"/>
+      <c r="DL273" s="85"/>
+      <c r="DM273" s="85"/>
+      <c r="DN273" s="85"/>
+      <c r="DO273" s="85"/>
+      <c r="DP273" s="85"/>
+      <c r="DQ273" s="85"/>
+      <c r="DR273" s="85"/>
+      <c r="DS273" s="85"/>
+      <c r="DT273" s="85"/>
+      <c r="DU273" s="85"/>
       <c r="DV273" s="67"/>
-      <c r="DW273" s="88"/>
-      <c r="DX273" s="88"/>
-      <c r="DY273" s="88"/>
-      <c r="DZ273" s="88"/>
-      <c r="EA273" s="88"/>
-      <c r="EB273" s="88"/>
-      <c r="EC273" s="88"/>
-      <c r="ED273" s="88"/>
-      <c r="EE273" s="88"/>
-      <c r="EF273" s="88"/>
-      <c r="EG273" s="88"/>
-      <c r="EH273" s="88"/>
-      <c r="EI273" s="88"/>
-      <c r="EJ273" s="88"/>
-      <c r="EK273" s="88"/>
-      <c r="EL273" s="88"/>
-      <c r="EM273" s="88"/>
-      <c r="EN273" s="88"/>
-      <c r="EO273" s="88"/>
-      <c r="EP273" s="88"/>
-      <c r="EQ273" s="88"/>
-      <c r="ER273" s="88"/>
-      <c r="ES273" s="88"/>
-      <c r="ET273" s="88"/>
-      <c r="EU273" s="88"/>
-      <c r="EV273" s="88"/>
-      <c r="EW273" s="88"/>
+      <c r="DW273" s="85"/>
+      <c r="DX273" s="85"/>
+      <c r="DY273" s="85"/>
+      <c r="DZ273" s="85"/>
+      <c r="EA273" s="85"/>
+      <c r="EB273" s="85"/>
+      <c r="EC273" s="85"/>
+      <c r="ED273" s="85"/>
+      <c r="EE273" s="85"/>
+      <c r="EF273" s="85"/>
+      <c r="EG273" s="85"/>
+      <c r="EH273" s="85"/>
+      <c r="EI273" s="85"/>
+      <c r="EJ273" s="85"/>
+      <c r="EK273" s="85"/>
+      <c r="EL273" s="85"/>
+      <c r="EM273" s="85"/>
+      <c r="EN273" s="85"/>
+      <c r="EO273" s="85"/>
+      <c r="EP273" s="85"/>
+      <c r="EQ273" s="85"/>
+      <c r="ER273" s="85"/>
+      <c r="ES273" s="85"/>
+      <c r="ET273" s="85"/>
+      <c r="EU273" s="85"/>
+      <c r="EV273" s="85"/>
+      <c r="EW273" s="85"/>
       <c r="EX273" s="65"/>
-      <c r="EY273" s="88"/>
-      <c r="EZ273" s="88"/>
-      <c r="FA273" s="88"/>
-      <c r="FB273" s="88"/>
-      <c r="FC273" s="88"/>
-      <c r="FD273" s="88"/>
-      <c r="FE273" s="88"/>
-      <c r="FF273" s="88"/>
-      <c r="FG273" s="88"/>
-      <c r="FH273" s="88"/>
-      <c r="FI273" s="88"/>
-      <c r="FJ273" s="88"/>
-      <c r="FK273" s="88"/>
-      <c r="FL273" s="88"/>
-      <c r="FM273" s="88"/>
-      <c r="FN273" s="88"/>
-      <c r="FO273" s="88"/>
-      <c r="FP273" s="88"/>
-      <c r="FQ273" s="88"/>
-      <c r="FR273" s="88"/>
-      <c r="FS273" s="88"/>
-      <c r="FT273" s="88"/>
-      <c r="FU273" s="88"/>
-      <c r="FV273" s="88"/>
-      <c r="FW273" s="88"/>
-      <c r="FX273" s="88"/>
-      <c r="FY273" s="88"/>
+      <c r="EY273" s="85"/>
+      <c r="EZ273" s="85"/>
+      <c r="FA273" s="85"/>
+      <c r="FB273" s="85"/>
+      <c r="FC273" s="85"/>
+      <c r="FD273" s="85"/>
+      <c r="FE273" s="85"/>
+      <c r="FF273" s="85"/>
+      <c r="FG273" s="85"/>
+      <c r="FH273" s="85"/>
+      <c r="FI273" s="85"/>
+      <c r="FJ273" s="85"/>
+      <c r="FK273" s="85"/>
+      <c r="FL273" s="85"/>
+      <c r="FM273" s="85"/>
+      <c r="FN273" s="85"/>
+      <c r="FO273" s="85"/>
+      <c r="FP273" s="85"/>
+      <c r="FQ273" s="85"/>
+      <c r="FR273" s="85"/>
+      <c r="FS273" s="85"/>
+      <c r="FT273" s="85"/>
+      <c r="FU273" s="85"/>
+      <c r="FV273" s="85"/>
+      <c r="FW273" s="85"/>
+      <c r="FX273" s="85"/>
+      <c r="FY273" s="85"/>
       <c r="FZ273" s="68"/>
       <c r="GA273" s="69"/>
       <c r="GB273" s="69"/>
-      <c r="GC273" s="91"/>
-      <c r="GD273" s="91"/>
-      <c r="GE273" s="91"/>
-      <c r="GF273" s="91"/>
-      <c r="GG273" s="91"/>
-      <c r="GH273" s="91"/>
-      <c r="GI273" s="91"/>
-      <c r="GJ273" s="91"/>
-      <c r="GK273" s="91"/>
+      <c r="GC273" s="90"/>
+      <c r="GD273" s="90"/>
+      <c r="GE273" s="90"/>
+      <c r="GF273" s="90"/>
+      <c r="GG273" s="90"/>
+      <c r="GH273" s="90"/>
+      <c r="GI273" s="90"/>
+      <c r="GJ273" s="90"/>
+      <c r="GK273" s="90"/>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A274" s="43"/>
-      <c r="B274" s="116"/>
-      <c r="C274" s="131"/>
-      <c r="D274" s="132"/>
-      <c r="E274" s="132"/>
-      <c r="F274" s="132"/>
-      <c r="G274" s="132"/>
+      <c r="B274" s="117"/>
+      <c r="C274" s="132"/>
+      <c r="D274" s="133"/>
+      <c r="E274" s="133"/>
+      <c r="F274" s="133"/>
+      <c r="G274" s="133"/>
       <c r="H274" s="59"/>
-      <c r="I274" s="133"/>
-      <c r="J274" s="133"/>
-      <c r="K274" s="133"/>
-      <c r="L274" s="134"/>
-      <c r="M274" s="132"/>
+      <c r="I274" s="134"/>
+      <c r="J274" s="134"/>
+      <c r="K274" s="134"/>
+      <c r="L274" s="135"/>
+      <c r="M274" s="133"/>
       <c r="N274" s="63"/>
       <c r="O274" s="64"/>
       <c r="P274" s="63"/>
@@ -53824,7 +53829,7 @@
       <c r="AM274" s="63"/>
       <c r="AN274" s="63"/>
       <c r="AO274" s="63"/>
-      <c r="AP274" s="135"/>
+      <c r="AP274" s="136"/>
       <c r="AQ274" s="65"/>
       <c r="AR274" s="65"/>
       <c r="AS274" s="65"/>
@@ -53851,119 +53856,119 @@
       <c r="BN274" s="65"/>
       <c r="BO274" s="65"/>
       <c r="BP274" s="65"/>
-      <c r="BQ274" s="80"/>
+      <c r="BQ274" s="79"/>
       <c r="BR274" s="67"/>
-      <c r="BS274" s="88"/>
-      <c r="BT274" s="88"/>
-      <c r="BU274" s="88"/>
-      <c r="BV274" s="88"/>
-      <c r="BW274" s="88"/>
-      <c r="BX274" s="88"/>
-      <c r="BY274" s="88"/>
-      <c r="BZ274" s="88"/>
-      <c r="CA274" s="88"/>
-      <c r="CB274" s="88"/>
-      <c r="CC274" s="88"/>
-      <c r="CD274" s="88"/>
-      <c r="CE274" s="88"/>
-      <c r="CF274" s="88"/>
-      <c r="CG274" s="88"/>
-      <c r="CH274" s="88"/>
-      <c r="CI274" s="88"/>
-      <c r="CJ274" s="88"/>
-      <c r="CK274" s="88"/>
-      <c r="CL274" s="88"/>
-      <c r="CM274" s="88"/>
-      <c r="CN274" s="88"/>
-      <c r="CO274" s="88"/>
-      <c r="CP274" s="88"/>
-      <c r="CQ274" s="88"/>
-      <c r="CR274" s="88"/>
-      <c r="CS274" s="88"/>
+      <c r="BS274" s="85"/>
+      <c r="BT274" s="85"/>
+      <c r="BU274" s="85"/>
+      <c r="BV274" s="85"/>
+      <c r="BW274" s="85"/>
+      <c r="BX274" s="85"/>
+      <c r="BY274" s="85"/>
+      <c r="BZ274" s="85"/>
+      <c r="CA274" s="85"/>
+      <c r="CB274" s="85"/>
+      <c r="CC274" s="85"/>
+      <c r="CD274" s="85"/>
+      <c r="CE274" s="85"/>
+      <c r="CF274" s="85"/>
+      <c r="CG274" s="85"/>
+      <c r="CH274" s="85"/>
+      <c r="CI274" s="85"/>
+      <c r="CJ274" s="85"/>
+      <c r="CK274" s="85"/>
+      <c r="CL274" s="85"/>
+      <c r="CM274" s="85"/>
+      <c r="CN274" s="85"/>
+      <c r="CO274" s="85"/>
+      <c r="CP274" s="85"/>
+      <c r="CQ274" s="85"/>
+      <c r="CR274" s="85"/>
+      <c r="CS274" s="85"/>
       <c r="CT274" s="67"/>
-      <c r="CU274" s="88"/>
-      <c r="CV274" s="88"/>
-      <c r="CW274" s="88"/>
-      <c r="CX274" s="88"/>
-      <c r="CY274" s="88"/>
-      <c r="CZ274" s="88"/>
-      <c r="DA274" s="88"/>
-      <c r="DB274" s="88"/>
-      <c r="DC274" s="88"/>
-      <c r="DD274" s="88"/>
-      <c r="DE274" s="88"/>
-      <c r="DF274" s="88"/>
-      <c r="DG274" s="88"/>
-      <c r="DH274" s="88"/>
-      <c r="DI274" s="88"/>
-      <c r="DJ274" s="88"/>
-      <c r="DK274" s="88"/>
-      <c r="DL274" s="88"/>
-      <c r="DM274" s="88"/>
-      <c r="DN274" s="88"/>
-      <c r="DO274" s="88"/>
-      <c r="DP274" s="88"/>
-      <c r="DQ274" s="88"/>
-      <c r="DR274" s="88"/>
-      <c r="DS274" s="88"/>
-      <c r="DT274" s="88"/>
-      <c r="DU274" s="88"/>
+      <c r="CU274" s="85"/>
+      <c r="CV274" s="85"/>
+      <c r="CW274" s="85"/>
+      <c r="CX274" s="85"/>
+      <c r="CY274" s="85"/>
+      <c r="CZ274" s="85"/>
+      <c r="DA274" s="85"/>
+      <c r="DB274" s="85"/>
+      <c r="DC274" s="85"/>
+      <c r="DD274" s="85"/>
+      <c r="DE274" s="85"/>
+      <c r="DF274" s="85"/>
+      <c r="DG274" s="85"/>
+      <c r="DH274" s="85"/>
+      <c r="DI274" s="85"/>
+      <c r="DJ274" s="85"/>
+      <c r="DK274" s="85"/>
+      <c r="DL274" s="85"/>
+      <c r="DM274" s="85"/>
+      <c r="DN274" s="85"/>
+      <c r="DO274" s="85"/>
+      <c r="DP274" s="85"/>
+      <c r="DQ274" s="85"/>
+      <c r="DR274" s="85"/>
+      <c r="DS274" s="85"/>
+      <c r="DT274" s="85"/>
+      <c r="DU274" s="85"/>
       <c r="DV274" s="67"/>
-      <c r="DW274" s="88"/>
-      <c r="DX274" s="88"/>
-      <c r="DY274" s="88"/>
-      <c r="DZ274" s="88"/>
-      <c r="EA274" s="88"/>
-      <c r="EB274" s="88"/>
-      <c r="EC274" s="88"/>
-      <c r="ED274" s="88"/>
-      <c r="EE274" s="88"/>
-      <c r="EF274" s="88"/>
-      <c r="EG274" s="88"/>
-      <c r="EH274" s="88"/>
-      <c r="EI274" s="88"/>
-      <c r="EJ274" s="88"/>
-      <c r="EK274" s="88"/>
-      <c r="EL274" s="88"/>
-      <c r="EM274" s="88"/>
-      <c r="EN274" s="88"/>
-      <c r="EO274" s="88"/>
-      <c r="EP274" s="88"/>
-      <c r="EQ274" s="88"/>
-      <c r="ER274" s="88"/>
-      <c r="ES274" s="88"/>
-      <c r="ET274" s="88"/>
-      <c r="EU274" s="88"/>
-      <c r="EV274" s="88"/>
-      <c r="EW274" s="88"/>
+      <c r="DW274" s="85"/>
+      <c r="DX274" s="85"/>
+      <c r="DY274" s="85"/>
+      <c r="DZ274" s="85"/>
+      <c r="EA274" s="85"/>
+      <c r="EB274" s="85"/>
+      <c r="EC274" s="85"/>
+      <c r="ED274" s="85"/>
+      <c r="EE274" s="85"/>
+      <c r="EF274" s="85"/>
+      <c r="EG274" s="85"/>
+      <c r="EH274" s="85"/>
+      <c r="EI274" s="85"/>
+      <c r="EJ274" s="85"/>
+      <c r="EK274" s="85"/>
+      <c r="EL274" s="85"/>
+      <c r="EM274" s="85"/>
+      <c r="EN274" s="85"/>
+      <c r="EO274" s="85"/>
+      <c r="EP274" s="85"/>
+      <c r="EQ274" s="85"/>
+      <c r="ER274" s="85"/>
+      <c r="ES274" s="85"/>
+      <c r="ET274" s="85"/>
+      <c r="EU274" s="85"/>
+      <c r="EV274" s="85"/>
+      <c r="EW274" s="85"/>
       <c r="EX274" s="65"/>
-      <c r="EY274" s="88"/>
-      <c r="EZ274" s="88"/>
-      <c r="FA274" s="88"/>
-      <c r="FB274" s="88"/>
-      <c r="FC274" s="88"/>
-      <c r="FD274" s="88"/>
-      <c r="FE274" s="88"/>
-      <c r="FF274" s="88"/>
-      <c r="FG274" s="88"/>
-      <c r="FH274" s="88"/>
-      <c r="FI274" s="88"/>
-      <c r="FJ274" s="88"/>
-      <c r="FK274" s="88"/>
-      <c r="FL274" s="88"/>
-      <c r="FM274" s="88"/>
-      <c r="FN274" s="88"/>
-      <c r="FO274" s="88"/>
-      <c r="FP274" s="88"/>
-      <c r="FQ274" s="88"/>
-      <c r="FR274" s="88"/>
-      <c r="FS274" s="88"/>
-      <c r="FT274" s="88"/>
-      <c r="FU274" s="88"/>
-      <c r="FV274" s="88"/>
-      <c r="FW274" s="88"/>
-      <c r="FX274" s="88"/>
-      <c r="FY274" s="88"/>
+      <c r="EY274" s="85"/>
+      <c r="EZ274" s="85"/>
+      <c r="FA274" s="85"/>
+      <c r="FB274" s="85"/>
+      <c r="FC274" s="85"/>
+      <c r="FD274" s="85"/>
+      <c r="FE274" s="85"/>
+      <c r="FF274" s="85"/>
+      <c r="FG274" s="85"/>
+      <c r="FH274" s="85"/>
+      <c r="FI274" s="85"/>
+      <c r="FJ274" s="85"/>
+      <c r="FK274" s="85"/>
+      <c r="FL274" s="85"/>
+      <c r="FM274" s="85"/>
+      <c r="FN274" s="85"/>
+      <c r="FO274" s="85"/>
+      <c r="FP274" s="85"/>
+      <c r="FQ274" s="85"/>
+      <c r="FR274" s="85"/>
+      <c r="FS274" s="85"/>
+      <c r="FT274" s="85"/>
+      <c r="FU274" s="85"/>
+      <c r="FV274" s="85"/>
+      <c r="FW274" s="85"/>
+      <c r="FX274" s="85"/>
+      <c r="FY274" s="85"/>
       <c r="FZ274" s="68"/>
       <c r="GA274" s="69"/>
       <c r="GB274" s="69"/>
@@ -53972,18 +53977,18 @@
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A275" s="43"/>
-      <c r="B275" s="116"/>
-      <c r="C275" s="133"/>
-      <c r="D275" s="133"/>
-      <c r="E275" s="132"/>
-      <c r="F275" s="132"/>
-      <c r="G275" s="132"/>
-      <c r="H275" s="132"/>
-      <c r="I275" s="133"/>
-      <c r="J275" s="133"/>
-      <c r="K275" s="133"/>
-      <c r="L275" s="134"/>
-      <c r="M275" s="132"/>
+      <c r="B275" s="117"/>
+      <c r="C275" s="134"/>
+      <c r="D275" s="134"/>
+      <c r="E275" s="133"/>
+      <c r="F275" s="133"/>
+      <c r="G275" s="133"/>
+      <c r="H275" s="133"/>
+      <c r="I275" s="134"/>
+      <c r="J275" s="134"/>
+      <c r="K275" s="134"/>
+      <c r="L275" s="135"/>
+      <c r="M275" s="133"/>
       <c r="N275" s="63"/>
       <c r="O275" s="63"/>
       <c r="P275" s="63"/>
@@ -54096,65 +54101,65 @@
       <c r="DS275" s="63"/>
       <c r="DT275" s="63"/>
       <c r="DU275" s="63"/>
-      <c r="DV275" s="88"/>
-      <c r="DW275" s="88"/>
-      <c r="DX275" s="88"/>
-      <c r="DY275" s="88"/>
-      <c r="DZ275" s="88"/>
-      <c r="EA275" s="88"/>
-      <c r="EB275" s="88"/>
-      <c r="EC275" s="88"/>
-      <c r="ED275" s="88"/>
-      <c r="EE275" s="88"/>
-      <c r="EF275" s="88"/>
-      <c r="EG275" s="88"/>
-      <c r="EH275" s="88"/>
-      <c r="EI275" s="88"/>
-      <c r="EJ275" s="88"/>
-      <c r="EK275" s="88"/>
-      <c r="EL275" s="88"/>
-      <c r="EM275" s="88"/>
-      <c r="EN275" s="88"/>
-      <c r="EO275" s="88"/>
-      <c r="EP275" s="88"/>
-      <c r="EQ275" s="88"/>
-      <c r="ER275" s="88"/>
-      <c r="ES275" s="88"/>
-      <c r="ET275" s="88"/>
-      <c r="EU275" s="88"/>
-      <c r="EV275" s="88"/>
-      <c r="EW275" s="88"/>
-      <c r="EX275" s="88"/>
-      <c r="EY275" s="88"/>
-      <c r="EZ275" s="88"/>
-      <c r="FA275" s="88"/>
-      <c r="FB275" s="88"/>
-      <c r="FC275" s="88"/>
-      <c r="FD275" s="88"/>
-      <c r="FE275" s="88"/>
-      <c r="FF275" s="88"/>
-      <c r="FG275" s="88"/>
-      <c r="FH275" s="88"/>
-      <c r="FI275" s="88"/>
-      <c r="FJ275" s="88"/>
-      <c r="FK275" s="88"/>
-      <c r="FL275" s="88"/>
-      <c r="FM275" s="88"/>
-      <c r="FN275" s="88"/>
-      <c r="FO275" s="88"/>
-      <c r="FP275" s="88"/>
-      <c r="FQ275" s="88"/>
-      <c r="FR275" s="88"/>
-      <c r="FS275" s="88"/>
-      <c r="FT275" s="88"/>
-      <c r="FU275" s="88"/>
-      <c r="FV275" s="88"/>
-      <c r="FW275" s="88"/>
-      <c r="FX275" s="88"/>
-      <c r="FY275" s="88"/>
+      <c r="DV275" s="85"/>
+      <c r="DW275" s="85"/>
+      <c r="DX275" s="85"/>
+      <c r="DY275" s="85"/>
+      <c r="DZ275" s="85"/>
+      <c r="EA275" s="85"/>
+      <c r="EB275" s="85"/>
+      <c r="EC275" s="85"/>
+      <c r="ED275" s="85"/>
+      <c r="EE275" s="85"/>
+      <c r="EF275" s="85"/>
+      <c r="EG275" s="85"/>
+      <c r="EH275" s="85"/>
+      <c r="EI275" s="85"/>
+      <c r="EJ275" s="85"/>
+      <c r="EK275" s="85"/>
+      <c r="EL275" s="85"/>
+      <c r="EM275" s="85"/>
+      <c r="EN275" s="85"/>
+      <c r="EO275" s="85"/>
+      <c r="EP275" s="85"/>
+      <c r="EQ275" s="85"/>
+      <c r="ER275" s="85"/>
+      <c r="ES275" s="85"/>
+      <c r="ET275" s="85"/>
+      <c r="EU275" s="85"/>
+      <c r="EV275" s="85"/>
+      <c r="EW275" s="85"/>
+      <c r="EX275" s="85"/>
+      <c r="EY275" s="85"/>
+      <c r="EZ275" s="85"/>
+      <c r="FA275" s="85"/>
+      <c r="FB275" s="85"/>
+      <c r="FC275" s="85"/>
+      <c r="FD275" s="85"/>
+      <c r="FE275" s="85"/>
+      <c r="FF275" s="85"/>
+      <c r="FG275" s="85"/>
+      <c r="FH275" s="85"/>
+      <c r="FI275" s="85"/>
+      <c r="FJ275" s="85"/>
+      <c r="FK275" s="85"/>
+      <c r="FL275" s="85"/>
+      <c r="FM275" s="85"/>
+      <c r="FN275" s="85"/>
+      <c r="FO275" s="85"/>
+      <c r="FP275" s="85"/>
+      <c r="FQ275" s="85"/>
+      <c r="FR275" s="85"/>
+      <c r="FS275" s="85"/>
+      <c r="FT275" s="85"/>
+      <c r="FU275" s="85"/>
+      <c r="FV275" s="85"/>
+      <c r="FW275" s="85"/>
+      <c r="FX275" s="85"/>
+      <c r="FY275" s="85"/>
       <c r="FZ275" s="69"/>
-      <c r="GA275" s="88"/>
-      <c r="GB275" s="88"/>
+      <c r="GA275" s="85"/>
+      <c r="GB275" s="85"/>
       <c r="GC275" s="70"/>
       <c r="GD275" s="70"/>
     </row>
@@ -54167,7 +54172,7 @@
       <c r="H276" s="70"/>
       <c r="I276" s="70"/>
       <c r="J276" s="70"/>
-      <c r="K276" s="107"/>
+      <c r="K276" s="108"/>
       <c r="L276" s="70"/>
       <c r="M276" s="70"/>
       <c r="N276" s="70"/>
@@ -54353,7 +54358,7 @@
       <c r="H277" s="70"/>
       <c r="I277" s="70"/>
       <c r="J277" s="70"/>
-      <c r="K277" s="107"/>
+      <c r="K277" s="108"/>
       <c r="L277" s="70"/>
       <c r="M277" s="70"/>
       <c r="N277" s="70"/>
@@ -54539,7 +54544,7 @@
       <c r="H278" s="70"/>
       <c r="I278" s="70"/>
       <c r="J278" s="70"/>
-      <c r="K278" s="107"/>
+      <c r="K278" s="108"/>
       <c r="L278" s="70"/>
       <c r="M278" s="70"/>
       <c r="N278" s="70"/>
@@ -54601,31 +54606,31 @@
       <c r="BR278" s="70"/>
       <c r="BS278" s="70"/>
       <c r="BT278" s="70"/>
-      <c r="BU278" s="136"/>
-      <c r="BV278" s="136"/>
-      <c r="BW278" s="136"/>
-      <c r="BX278" s="136"/>
-      <c r="BY278" s="136"/>
-      <c r="BZ278" s="136"/>
-      <c r="CA278" s="136"/>
-      <c r="CB278" s="136"/>
-      <c r="CC278" s="136"/>
-      <c r="CD278" s="136"/>
-      <c r="CE278" s="136"/>
-      <c r="CF278" s="136"/>
-      <c r="CG278" s="136"/>
-      <c r="CH278" s="136"/>
-      <c r="CI278" s="136"/>
-      <c r="CJ278" s="136"/>
-      <c r="CK278" s="136"/>
-      <c r="CL278" s="136"/>
-      <c r="CM278" s="136"/>
-      <c r="CN278" s="136"/>
-      <c r="CO278" s="136"/>
-      <c r="CP278" s="136"/>
-      <c r="CQ278" s="136"/>
-      <c r="CR278" s="136"/>
-      <c r="CS278" s="136"/>
+      <c r="BU278" s="137"/>
+      <c r="BV278" s="137"/>
+      <c r="BW278" s="137"/>
+      <c r="BX278" s="137"/>
+      <c r="BY278" s="137"/>
+      <c r="BZ278" s="137"/>
+      <c r="CA278" s="137"/>
+      <c r="CB278" s="137"/>
+      <c r="CC278" s="137"/>
+      <c r="CD278" s="137"/>
+      <c r="CE278" s="137"/>
+      <c r="CF278" s="137"/>
+      <c r="CG278" s="137"/>
+      <c r="CH278" s="137"/>
+      <c r="CI278" s="137"/>
+      <c r="CJ278" s="137"/>
+      <c r="CK278" s="137"/>
+      <c r="CL278" s="137"/>
+      <c r="CM278" s="137"/>
+      <c r="CN278" s="137"/>
+      <c r="CO278" s="137"/>
+      <c r="CP278" s="137"/>
+      <c r="CQ278" s="137"/>
+      <c r="CR278" s="137"/>
+      <c r="CS278" s="137"/>
       <c r="CT278" s="70"/>
       <c r="CU278" s="70"/>
       <c r="CV278" s="70"/>

--- a/app/report/Base_Doc.xlsx
+++ b/app/report/Base_Doc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
   <si>
     <t xml:space="preserve">Продукт Менеджер</t>
   </si>
@@ -165,9 +165,6 @@
   <si>
     <t xml:space="preserve">Фактическая реализация  </t>
   </si>
-  <si>
-    <t xml:space="preserve">НЕЛЯ</t>
-  </si>
 </sst>
 </file>
 
@@ -178,7 +175,7 @@
     <numFmt numFmtId="165" formatCode="#,##0"/>
     <numFmt numFmtId="166" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -285,12 +282,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Oswald"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Oswald"/>
@@ -394,7 +385,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,7 +425,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF3D85C6"/>
-        <bgColor rgb="FF3C78D8"/>
+        <bgColor rgb="FF4A86E8"/>
       </patternFill>
     </fill>
     <fill>
@@ -485,14 +476,8 @@
         <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3C78D8"/>
-        <bgColor rgb="FF3D85C6"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -606,24 +591,10 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thick"/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top/>
       <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thick"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thick"/>
       <diagonal/>
     </border>
   </borders>
@@ -652,7 +623,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="104">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -765,7 +736,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -797,7 +768,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -805,11 +776,11 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -817,7 +788,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -829,11 +800,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="15" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="15" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -841,7 +812,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -853,7 +824,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -861,11 +832,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -873,7 +844,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -881,27 +852,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -913,11 +884,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -925,15 +900,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -949,11 +920,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="15" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -961,43 +928,35 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="16" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1013,11 +972,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1025,35 +984,27 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="15" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1061,31 +1012,31 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="29" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1115,7 +1066,7 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFCCCCCC"/>
-      <rgbColor rgb="FF4A86E8"/>
+      <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF6D9EEB"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
@@ -1140,7 +1091,7 @@
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFE599"/>
-      <rgbColor rgb="FF3C78D8"/>
+      <rgbColor rgb="FF4A86E8"/>
       <rgbColor rgb="FF6FA8DC"/>
       <rgbColor rgb="FF93C47D"/>
       <rgbColor rgb="FFF1C232"/>
@@ -1274,8 +1225,8 @@
   </sheetPr>
   <dimension ref="A1:GO1008"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BL110" activeCellId="0" sqref="BL110"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N6" activeCellId="0" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10416,8 +10367,8 @@
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="35"/>
-      <c r="B122" s="74"/>
-      <c r="C122" s="75"/>
+      <c r="B122" s="44"/>
+      <c r="C122" s="74"/>
       <c r="D122" s="46"/>
       <c r="E122" s="46"/>
       <c r="F122" s="46"/>
@@ -10491,8 +10442,8 @@
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="35"/>
-      <c r="B123" s="74"/>
-      <c r="C123" s="75"/>
+      <c r="B123" s="44"/>
+      <c r="C123" s="74"/>
       <c r="D123" s="46"/>
       <c r="E123" s="46"/>
       <c r="F123" s="46"/>
@@ -10568,8 +10519,8 @@
       <c r="A124" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="B124" s="74"/>
-      <c r="C124" s="75"/>
+      <c r="B124" s="44"/>
+      <c r="C124" s="74"/>
       <c r="D124" s="46"/>
       <c r="E124" s="46"/>
       <c r="F124" s="46"/>
@@ -10643,8 +10594,8 @@
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="35"/>
-      <c r="B125" s="74"/>
-      <c r="C125" s="75"/>
+      <c r="B125" s="44"/>
+      <c r="C125" s="74"/>
       <c r="D125" s="46"/>
       <c r="E125" s="46"/>
       <c r="F125" s="46"/>
@@ -10718,8 +10669,8 @@
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="35"/>
-      <c r="B126" s="74"/>
-      <c r="C126" s="75"/>
+      <c r="B126" s="44"/>
+      <c r="C126" s="74"/>
       <c r="D126" s="46"/>
       <c r="E126" s="46"/>
       <c r="F126" s="46"/>
@@ -10793,8 +10744,8 @@
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="35"/>
-      <c r="B127" s="74"/>
-      <c r="C127" s="75"/>
+      <c r="B127" s="44"/>
+      <c r="C127" s="74"/>
       <c r="D127" s="46"/>
       <c r="E127" s="46"/>
       <c r="F127" s="46"/>
@@ -10868,8 +10819,8 @@
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="35"/>
-      <c r="B128" s="74"/>
-      <c r="C128" s="75"/>
+      <c r="B128" s="44"/>
+      <c r="C128" s="74"/>
       <c r="D128" s="46"/>
       <c r="E128" s="46"/>
       <c r="F128" s="46"/>
@@ -10943,8 +10894,8 @@
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="35"/>
-      <c r="B129" s="74"/>
-      <c r="C129" s="75"/>
+      <c r="B129" s="44"/>
+      <c r="C129" s="74"/>
       <c r="D129" s="56"/>
       <c r="E129" s="56"/>
       <c r="F129" s="56"/>
@@ -10952,7 +10903,7 @@
       <c r="H129" s="56"/>
       <c r="I129" s="46"/>
       <c r="J129" s="56"/>
-      <c r="K129" s="76"/>
+      <c r="K129" s="75"/>
       <c r="L129" s="56"/>
       <c r="M129" s="56"/>
       <c r="N129" s="71"/>
@@ -11018,8 +10969,8 @@
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="35"/>
-      <c r="B130" s="74"/>
-      <c r="C130" s="75"/>
+      <c r="B130" s="44"/>
+      <c r="C130" s="74"/>
       <c r="D130" s="46"/>
       <c r="E130" s="46"/>
       <c r="F130" s="46"/>
@@ -11027,7 +10978,7 @@
       <c r="H130" s="46"/>
       <c r="I130" s="46"/>
       <c r="J130" s="56"/>
-      <c r="K130" s="76"/>
+      <c r="K130" s="75"/>
       <c r="L130" s="56"/>
       <c r="M130" s="56"/>
       <c r="N130" s="49"/>
@@ -11093,8 +11044,8 @@
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="35"/>
-      <c r="B131" s="74"/>
-      <c r="C131" s="75"/>
+      <c r="B131" s="44"/>
+      <c r="C131" s="74"/>
       <c r="D131" s="46"/>
       <c r="E131" s="63"/>
       <c r="F131" s="63"/>
@@ -11102,7 +11053,7 @@
       <c r="H131" s="63"/>
       <c r="I131" s="46"/>
       <c r="J131" s="56"/>
-      <c r="K131" s="76"/>
+      <c r="K131" s="75"/>
       <c r="L131" s="56"/>
       <c r="M131" s="56"/>
       <c r="N131" s="63"/>
@@ -11168,73 +11119,73 @@
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="35"/>
-      <c r="B132" s="77"/>
-      <c r="C132" s="78"/>
-      <c r="D132" s="78"/>
-      <c r="E132" s="78"/>
-      <c r="F132" s="78"/>
-      <c r="G132" s="78"/>
-      <c r="H132" s="78"/>
-      <c r="I132" s="78"/>
-      <c r="J132" s="78"/>
-      <c r="K132" s="79"/>
-      <c r="L132" s="78"/>
-      <c r="M132" s="78"/>
-      <c r="N132" s="78"/>
-      <c r="O132" s="78"/>
-      <c r="P132" s="78"/>
-      <c r="Q132" s="78"/>
-      <c r="R132" s="78"/>
-      <c r="S132" s="78"/>
-      <c r="T132" s="78"/>
-      <c r="U132" s="78"/>
-      <c r="V132" s="78"/>
-      <c r="W132" s="78"/>
-      <c r="X132" s="78"/>
-      <c r="Y132" s="78"/>
-      <c r="Z132" s="78"/>
-      <c r="AA132" s="78"/>
-      <c r="AB132" s="78"/>
-      <c r="AC132" s="78"/>
-      <c r="AD132" s="78"/>
-      <c r="AE132" s="78"/>
-      <c r="AF132" s="78"/>
-      <c r="AG132" s="78"/>
-      <c r="AH132" s="78"/>
-      <c r="AI132" s="78"/>
-      <c r="AJ132" s="78"/>
-      <c r="AK132" s="78"/>
-      <c r="AL132" s="78"/>
-      <c r="AM132" s="78"/>
-      <c r="AN132" s="78"/>
-      <c r="AO132" s="78"/>
-      <c r="AP132" s="78"/>
-      <c r="AQ132" s="78"/>
-      <c r="AR132" s="78"/>
-      <c r="AS132" s="80"/>
-      <c r="AT132" s="78"/>
-      <c r="AU132" s="78"/>
-      <c r="AV132" s="78"/>
-      <c r="AW132" s="78"/>
-      <c r="AX132" s="78"/>
-      <c r="AY132" s="78"/>
-      <c r="AZ132" s="78"/>
-      <c r="BA132" s="78"/>
-      <c r="BB132" s="78"/>
-      <c r="BC132" s="78"/>
-      <c r="BD132" s="78"/>
-      <c r="BE132" s="78"/>
-      <c r="BF132" s="78"/>
-      <c r="BG132" s="78"/>
-      <c r="BH132" s="78"/>
-      <c r="BI132" s="78"/>
-      <c r="BJ132" s="78"/>
-      <c r="BK132" s="78"/>
-      <c r="BL132" s="78"/>
-      <c r="BM132" s="78"/>
-      <c r="BN132" s="78"/>
-      <c r="BO132" s="78"/>
-      <c r="BP132" s="78"/>
+      <c r="B132" s="44"/>
+      <c r="C132" s="76"/>
+      <c r="D132" s="76"/>
+      <c r="E132" s="76"/>
+      <c r="F132" s="76"/>
+      <c r="G132" s="76"/>
+      <c r="H132" s="76"/>
+      <c r="I132" s="76"/>
+      <c r="J132" s="76"/>
+      <c r="K132" s="77"/>
+      <c r="L132" s="76"/>
+      <c r="M132" s="76"/>
+      <c r="N132" s="76"/>
+      <c r="O132" s="76"/>
+      <c r="P132" s="76"/>
+      <c r="Q132" s="76"/>
+      <c r="R132" s="76"/>
+      <c r="S132" s="76"/>
+      <c r="T132" s="76"/>
+      <c r="U132" s="76"/>
+      <c r="V132" s="76"/>
+      <c r="W132" s="76"/>
+      <c r="X132" s="76"/>
+      <c r="Y132" s="76"/>
+      <c r="Z132" s="76"/>
+      <c r="AA132" s="76"/>
+      <c r="AB132" s="76"/>
+      <c r="AC132" s="76"/>
+      <c r="AD132" s="76"/>
+      <c r="AE132" s="76"/>
+      <c r="AF132" s="76"/>
+      <c r="AG132" s="76"/>
+      <c r="AH132" s="76"/>
+      <c r="AI132" s="76"/>
+      <c r="AJ132" s="76"/>
+      <c r="AK132" s="76"/>
+      <c r="AL132" s="76"/>
+      <c r="AM132" s="76"/>
+      <c r="AN132" s="76"/>
+      <c r="AO132" s="76"/>
+      <c r="AP132" s="76"/>
+      <c r="AQ132" s="76"/>
+      <c r="AR132" s="76"/>
+      <c r="AS132" s="78"/>
+      <c r="AT132" s="76"/>
+      <c r="AU132" s="76"/>
+      <c r="AV132" s="76"/>
+      <c r="AW132" s="76"/>
+      <c r="AX132" s="76"/>
+      <c r="AY132" s="76"/>
+      <c r="AZ132" s="76"/>
+      <c r="BA132" s="76"/>
+      <c r="BB132" s="76"/>
+      <c r="BC132" s="76"/>
+      <c r="BD132" s="76"/>
+      <c r="BE132" s="76"/>
+      <c r="BF132" s="76"/>
+      <c r="BG132" s="76"/>
+      <c r="BH132" s="76"/>
+      <c r="BI132" s="76"/>
+      <c r="BJ132" s="76"/>
+      <c r="BK132" s="76"/>
+      <c r="BL132" s="76"/>
+      <c r="BM132" s="76"/>
+      <c r="BN132" s="76"/>
+      <c r="BO132" s="76"/>
+      <c r="BP132" s="76"/>
       <c r="BQ132" s="51"/>
       <c r="BR132" s="52"/>
       <c r="GG132" s="69"/>
@@ -11245,8 +11196,8 @@
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="35"/>
-      <c r="B133" s="81"/>
-      <c r="C133" s="82"/>
+      <c r="B133" s="44"/>
+      <c r="C133" s="79"/>
       <c r="D133" s="46"/>
       <c r="E133" s="46"/>
       <c r="F133" s="46"/>
@@ -11320,8 +11271,8 @@
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="35"/>
-      <c r="B134" s="81"/>
-      <c r="C134" s="82"/>
+      <c r="B134" s="44"/>
+      <c r="C134" s="79"/>
       <c r="D134" s="46"/>
       <c r="E134" s="46"/>
       <c r="F134" s="46"/>
@@ -11397,8 +11348,8 @@
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="35"/>
-      <c r="B135" s="81"/>
-      <c r="C135" s="82"/>
+      <c r="B135" s="44"/>
+      <c r="C135" s="79"/>
       <c r="D135" s="46"/>
       <c r="E135" s="46"/>
       <c r="F135" s="46"/>
@@ -11474,8 +11425,8 @@
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="35"/>
-      <c r="B136" s="81"/>
-      <c r="C136" s="82"/>
+      <c r="B136" s="44"/>
+      <c r="C136" s="79"/>
       <c r="D136" s="46"/>
       <c r="E136" s="46"/>
       <c r="F136" s="46"/>
@@ -11551,8 +11502,8 @@
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="35"/>
-      <c r="B137" s="81"/>
-      <c r="C137" s="82"/>
+      <c r="B137" s="44"/>
+      <c r="C137" s="79"/>
       <c r="D137" s="46"/>
       <c r="E137" s="46"/>
       <c r="F137" s="46"/>
@@ -11628,8 +11579,8 @@
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="35"/>
-      <c r="B138" s="81"/>
-      <c r="C138" s="82"/>
+      <c r="B138" s="44"/>
+      <c r="C138" s="79"/>
       <c r="D138" s="46"/>
       <c r="E138" s="46"/>
       <c r="F138" s="46"/>
@@ -11705,8 +11656,8 @@
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="35"/>
-      <c r="B139" s="81"/>
-      <c r="C139" s="82"/>
+      <c r="B139" s="44"/>
+      <c r="C139" s="79"/>
       <c r="D139" s="46"/>
       <c r="E139" s="46"/>
       <c r="F139" s="46"/>
@@ -11782,8 +11733,8 @@
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="35"/>
-      <c r="B140" s="81"/>
-      <c r="C140" s="82"/>
+      <c r="B140" s="44"/>
+      <c r="C140" s="79"/>
       <c r="D140" s="46"/>
       <c r="E140" s="46"/>
       <c r="F140" s="46"/>
@@ -11859,8 +11810,8 @@
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="35"/>
-      <c r="B141" s="81"/>
-      <c r="C141" s="82"/>
+      <c r="B141" s="44"/>
+      <c r="C141" s="79"/>
       <c r="D141" s="46"/>
       <c r="E141" s="46"/>
       <c r="F141" s="46"/>
@@ -11936,8 +11887,8 @@
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="35"/>
-      <c r="B142" s="81"/>
-      <c r="C142" s="82"/>
+      <c r="B142" s="44"/>
+      <c r="C142" s="79"/>
       <c r="D142" s="46"/>
       <c r="E142" s="46"/>
       <c r="F142" s="46"/>
@@ -12013,8 +11964,8 @@
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="35"/>
-      <c r="B143" s="81"/>
-      <c r="C143" s="82"/>
+      <c r="B143" s="44"/>
+      <c r="C143" s="79"/>
       <c r="D143" s="46"/>
       <c r="E143" s="46"/>
       <c r="F143" s="46"/>
@@ -12090,8 +12041,8 @@
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="35"/>
-      <c r="B144" s="81"/>
-      <c r="C144" s="82"/>
+      <c r="B144" s="44"/>
+      <c r="C144" s="79"/>
       <c r="D144" s="46"/>
       <c r="E144" s="46"/>
       <c r="F144" s="46"/>
@@ -12167,8 +12118,8 @@
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="35"/>
-      <c r="B145" s="81"/>
-      <c r="C145" s="82"/>
+      <c r="B145" s="44"/>
+      <c r="C145" s="79"/>
       <c r="D145" s="46"/>
       <c r="E145" s="46"/>
       <c r="F145" s="46"/>
@@ -12244,8 +12195,8 @@
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="35"/>
-      <c r="B146" s="81"/>
-      <c r="C146" s="82"/>
+      <c r="B146" s="44"/>
+      <c r="C146" s="79"/>
       <c r="D146" s="46"/>
       <c r="E146" s="46"/>
       <c r="F146" s="46"/>
@@ -12319,8 +12270,8 @@
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="35"/>
-      <c r="B147" s="81"/>
-      <c r="C147" s="83"/>
+      <c r="B147" s="44"/>
+      <c r="C147" s="80"/>
       <c r="D147" s="46"/>
       <c r="E147" s="46"/>
       <c r="F147" s="46"/>
@@ -12394,8 +12345,8 @@
     </row>
     <row r="148" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="35"/>
-      <c r="B148" s="81"/>
-      <c r="C148" s="83"/>
+      <c r="B148" s="44"/>
+      <c r="C148" s="80"/>
       <c r="D148" s="46"/>
       <c r="E148" s="46"/>
       <c r="F148" s="46"/>
@@ -12469,8 +12420,8 @@
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="35"/>
-      <c r="B149" s="81"/>
-      <c r="C149" s="83"/>
+      <c r="B149" s="44"/>
+      <c r="C149" s="80"/>
       <c r="D149" s="46"/>
       <c r="E149" s="46"/>
       <c r="F149" s="46"/>
@@ -12544,8 +12495,8 @@
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="35"/>
-      <c r="B150" s="81"/>
-      <c r="C150" s="83"/>
+      <c r="B150" s="44"/>
+      <c r="C150" s="80"/>
       <c r="D150" s="46"/>
       <c r="E150" s="46"/>
       <c r="F150" s="46"/>
@@ -12619,8 +12570,8 @@
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="35"/>
-      <c r="B151" s="81"/>
-      <c r="C151" s="83"/>
+      <c r="B151" s="44"/>
+      <c r="C151" s="80"/>
       <c r="D151" s="46"/>
       <c r="E151" s="46"/>
       <c r="F151" s="46"/>
@@ -12696,8 +12647,8 @@
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="35"/>
-      <c r="B152" s="81"/>
-      <c r="C152" s="83"/>
+      <c r="B152" s="44"/>
+      <c r="C152" s="80"/>
       <c r="D152" s="46"/>
       <c r="E152" s="46"/>
       <c r="F152" s="46"/>
@@ -12771,8 +12722,8 @@
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="35"/>
-      <c r="B153" s="81"/>
-      <c r="C153" s="84"/>
+      <c r="B153" s="44"/>
+      <c r="C153" s="81"/>
       <c r="D153" s="46"/>
       <c r="E153" s="46"/>
       <c r="F153" s="46"/>
@@ -12846,14 +12797,14 @@
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="35"/>
-      <c r="B154" s="81"/>
-      <c r="C154" s="85"/>
+      <c r="B154" s="44"/>
+      <c r="C154" s="82"/>
       <c r="D154" s="46"/>
       <c r="E154" s="46"/>
       <c r="F154" s="46"/>
       <c r="G154" s="46"/>
       <c r="H154" s="46"/>
-      <c r="I154" s="86"/>
+      <c r="I154" s="83"/>
       <c r="J154" s="48"/>
       <c r="K154" s="48"/>
       <c r="L154" s="46"/>
@@ -12923,16 +12874,16 @@
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="35"/>
-      <c r="B155" s="81"/>
-      <c r="C155" s="82"/>
+      <c r="B155" s="44"/>
+      <c r="C155" s="79"/>
       <c r="D155" s="46"/>
       <c r="E155" s="46"/>
       <c r="F155" s="46"/>
       <c r="G155" s="46"/>
       <c r="H155" s="46"/>
-      <c r="I155" s="86"/>
+      <c r="I155" s="83"/>
       <c r="J155" s="48"/>
-      <c r="K155" s="87"/>
+      <c r="K155" s="84"/>
       <c r="L155" s="46"/>
       <c r="M155" s="46"/>
       <c r="N155" s="49"/>
@@ -13000,15 +12951,15 @@
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="35"/>
-      <c r="B156" s="81"/>
-      <c r="C156" s="82"/>
-      <c r="D156" s="88"/>
-      <c r="E156" s="89"/>
-      <c r="F156" s="89"/>
-      <c r="G156" s="89"/>
+      <c r="B156" s="44"/>
+      <c r="C156" s="79"/>
+      <c r="D156" s="85"/>
+      <c r="E156" s="86"/>
+      <c r="F156" s="86"/>
+      <c r="G156" s="86"/>
       <c r="H156" s="46"/>
-      <c r="I156" s="86"/>
-      <c r="J156" s="90"/>
+      <c r="I156" s="83"/>
+      <c r="J156" s="87"/>
       <c r="K156" s="48"/>
       <c r="L156" s="46"/>
       <c r="M156" s="46"/>
@@ -13053,18 +13004,18 @@
       <c r="AZ156" s="49"/>
       <c r="BA156" s="49"/>
       <c r="BB156" s="49"/>
-      <c r="BC156" s="91"/>
-      <c r="BD156" s="91"/>
-      <c r="BE156" s="91"/>
-      <c r="BF156" s="91"/>
-      <c r="BG156" s="91"/>
-      <c r="BH156" s="91"/>
-      <c r="BI156" s="91"/>
-      <c r="BJ156" s="91"/>
-      <c r="BK156" s="91"/>
-      <c r="BL156" s="91"/>
-      <c r="BM156" s="91"/>
-      <c r="BN156" s="91"/>
+      <c r="BC156" s="88"/>
+      <c r="BD156" s="88"/>
+      <c r="BE156" s="88"/>
+      <c r="BF156" s="88"/>
+      <c r="BG156" s="88"/>
+      <c r="BH156" s="88"/>
+      <c r="BI156" s="88"/>
+      <c r="BJ156" s="88"/>
+      <c r="BK156" s="88"/>
+      <c r="BL156" s="88"/>
+      <c r="BM156" s="88"/>
+      <c r="BN156" s="88"/>
       <c r="BO156" s="49"/>
       <c r="BP156" s="49"/>
       <c r="BQ156" s="51"/>
@@ -13077,18 +13028,18 @@
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="35"/>
-      <c r="B157" s="81"/>
-      <c r="C157" s="82"/>
-      <c r="D157" s="82"/>
-      <c r="E157" s="89"/>
-      <c r="F157" s="89"/>
-      <c r="G157" s="89"/>
+      <c r="B157" s="44"/>
+      <c r="C157" s="79"/>
+      <c r="D157" s="79"/>
+      <c r="E157" s="86"/>
+      <c r="F157" s="86"/>
+      <c r="G157" s="86"/>
       <c r="H157" s="46"/>
-      <c r="I157" s="86"/>
-      <c r="J157" s="90"/>
-      <c r="K157" s="92"/>
-      <c r="L157" s="89"/>
-      <c r="M157" s="89"/>
+      <c r="I157" s="83"/>
+      <c r="J157" s="87"/>
+      <c r="K157" s="89"/>
+      <c r="L157" s="86"/>
+      <c r="M157" s="86"/>
       <c r="N157" s="73"/>
       <c r="O157" s="73"/>
       <c r="P157" s="73"/>
@@ -13154,18 +13105,18 @@
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="35"/>
-      <c r="B158" s="81"/>
-      <c r="C158" s="82"/>
-      <c r="D158" s="82"/>
-      <c r="E158" s="89"/>
-      <c r="F158" s="89"/>
-      <c r="G158" s="89"/>
+      <c r="B158" s="44"/>
+      <c r="C158" s="79"/>
+      <c r="D158" s="79"/>
+      <c r="E158" s="86"/>
+      <c r="F158" s="86"/>
+      <c r="G158" s="86"/>
       <c r="H158" s="46"/>
-      <c r="I158" s="86"/>
-      <c r="J158" s="90"/>
-      <c r="K158" s="92"/>
-      <c r="L158" s="89"/>
-      <c r="M158" s="89"/>
+      <c r="I158" s="83"/>
+      <c r="J158" s="87"/>
+      <c r="K158" s="89"/>
+      <c r="L158" s="86"/>
+      <c r="M158" s="86"/>
       <c r="N158" s="73"/>
       <c r="O158" s="73"/>
       <c r="P158" s="73"/>
@@ -13231,18 +13182,18 @@
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="35"/>
-      <c r="B159" s="81"/>
-      <c r="C159" s="82"/>
-      <c r="D159" s="82"/>
-      <c r="E159" s="89"/>
-      <c r="F159" s="89"/>
-      <c r="G159" s="89"/>
+      <c r="B159" s="44"/>
+      <c r="C159" s="79"/>
+      <c r="D159" s="79"/>
+      <c r="E159" s="86"/>
+      <c r="F159" s="86"/>
+      <c r="G159" s="86"/>
       <c r="H159" s="46"/>
-      <c r="I159" s="86"/>
-      <c r="J159" s="90"/>
-      <c r="K159" s="92"/>
-      <c r="L159" s="89"/>
-      <c r="M159" s="89"/>
+      <c r="I159" s="83"/>
+      <c r="J159" s="87"/>
+      <c r="K159" s="89"/>
+      <c r="L159" s="86"/>
+      <c r="M159" s="86"/>
       <c r="N159" s="73"/>
       <c r="O159" s="73"/>
       <c r="P159" s="73"/>
@@ -13308,18 +13259,18 @@
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="35"/>
-      <c r="B160" s="93"/>
-      <c r="C160" s="82"/>
-      <c r="D160" s="82"/>
-      <c r="E160" s="89"/>
-      <c r="F160" s="89"/>
-      <c r="G160" s="89"/>
-      <c r="H160" s="94"/>
+      <c r="B160" s="44"/>
+      <c r="C160" s="79"/>
+      <c r="D160" s="79"/>
+      <c r="E160" s="86"/>
+      <c r="F160" s="86"/>
+      <c r="G160" s="86"/>
+      <c r="H160" s="90"/>
       <c r="I160" s="47"/>
-      <c r="J160" s="90"/>
-      <c r="K160" s="92"/>
-      <c r="L160" s="89"/>
-      <c r="M160" s="89"/>
+      <c r="J160" s="87"/>
+      <c r="K160" s="89"/>
+      <c r="L160" s="86"/>
+      <c r="M160" s="86"/>
       <c r="N160" s="73"/>
       <c r="O160" s="73"/>
       <c r="P160" s="73"/>
@@ -13385,20 +13336,18 @@
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="35"/>
-      <c r="B161" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="C161" s="96"/>
-      <c r="D161" s="85"/>
-      <c r="E161" s="89"/>
-      <c r="F161" s="89"/>
-      <c r="G161" s="89"/>
-      <c r="H161" s="89"/>
-      <c r="I161" s="97"/>
-      <c r="J161" s="89"/>
-      <c r="K161" s="92"/>
-      <c r="L161" s="89"/>
-      <c r="M161" s="89"/>
+      <c r="B161" s="44"/>
+      <c r="C161" s="91"/>
+      <c r="D161" s="82"/>
+      <c r="E161" s="86"/>
+      <c r="F161" s="86"/>
+      <c r="G161" s="86"/>
+      <c r="H161" s="86"/>
+      <c r="I161" s="92"/>
+      <c r="J161" s="86"/>
+      <c r="K161" s="89"/>
+      <c r="L161" s="86"/>
+      <c r="M161" s="86"/>
       <c r="N161" s="73"/>
       <c r="O161" s="73"/>
       <c r="P161" s="73"/>
@@ -13462,18 +13411,18 @@
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="35"/>
-      <c r="B162" s="95"/>
-      <c r="C162" s="96"/>
-      <c r="D162" s="98"/>
-      <c r="E162" s="89"/>
-      <c r="F162" s="89"/>
-      <c r="G162" s="89"/>
-      <c r="H162" s="89"/>
-      <c r="I162" s="97"/>
-      <c r="J162" s="89"/>
-      <c r="K162" s="92"/>
-      <c r="L162" s="89"/>
-      <c r="M162" s="89"/>
+      <c r="B162" s="44"/>
+      <c r="C162" s="91"/>
+      <c r="D162" s="93"/>
+      <c r="E162" s="86"/>
+      <c r="F162" s="86"/>
+      <c r="G162" s="86"/>
+      <c r="H162" s="86"/>
+      <c r="I162" s="92"/>
+      <c r="J162" s="86"/>
+      <c r="K162" s="89"/>
+      <c r="L162" s="86"/>
+      <c r="M162" s="86"/>
       <c r="N162" s="73"/>
       <c r="O162" s="73"/>
       <c r="P162" s="73"/>
@@ -13539,18 +13488,18 @@
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="35"/>
-      <c r="B163" s="95"/>
-      <c r="C163" s="96"/>
-      <c r="D163" s="98"/>
-      <c r="E163" s="89"/>
-      <c r="F163" s="89"/>
-      <c r="G163" s="89"/>
-      <c r="H163" s="89"/>
-      <c r="I163" s="97"/>
-      <c r="J163" s="89"/>
-      <c r="K163" s="92"/>
-      <c r="L163" s="89"/>
-      <c r="M163" s="89"/>
+      <c r="B163" s="44"/>
+      <c r="C163" s="91"/>
+      <c r="D163" s="93"/>
+      <c r="E163" s="86"/>
+      <c r="F163" s="86"/>
+      <c r="G163" s="86"/>
+      <c r="H163" s="86"/>
+      <c r="I163" s="92"/>
+      <c r="J163" s="86"/>
+      <c r="K163" s="89"/>
+      <c r="L163" s="86"/>
+      <c r="M163" s="86"/>
       <c r="N163" s="73"/>
       <c r="O163" s="73"/>
       <c r="P163" s="73"/>
@@ -13616,18 +13565,18 @@
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="35"/>
-      <c r="B164" s="95"/>
-      <c r="C164" s="96"/>
-      <c r="D164" s="98"/>
-      <c r="E164" s="89"/>
-      <c r="F164" s="89"/>
-      <c r="G164" s="89"/>
-      <c r="H164" s="89"/>
-      <c r="I164" s="97"/>
-      <c r="J164" s="89"/>
-      <c r="K164" s="92"/>
-      <c r="L164" s="89"/>
-      <c r="M164" s="89"/>
+      <c r="B164" s="44"/>
+      <c r="C164" s="91"/>
+      <c r="D164" s="93"/>
+      <c r="E164" s="86"/>
+      <c r="F164" s="86"/>
+      <c r="G164" s="86"/>
+      <c r="H164" s="86"/>
+      <c r="I164" s="92"/>
+      <c r="J164" s="86"/>
+      <c r="K164" s="89"/>
+      <c r="L164" s="86"/>
+      <c r="M164" s="86"/>
       <c r="N164" s="73"/>
       <c r="O164" s="73"/>
       <c r="P164" s="73"/>
@@ -13693,9 +13642,9 @@
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="35"/>
-      <c r="B165" s="95"/>
-      <c r="C165" s="99"/>
-      <c r="D165" s="82"/>
+      <c r="B165" s="44"/>
+      <c r="C165" s="94"/>
+      <c r="D165" s="79"/>
       <c r="E165" s="46"/>
       <c r="F165" s="46"/>
       <c r="G165" s="46"/>
@@ -13768,8 +13717,8 @@
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="35"/>
-      <c r="B166" s="95"/>
-      <c r="C166" s="75"/>
+      <c r="B166" s="44"/>
+      <c r="C166" s="74"/>
       <c r="D166" s="46"/>
       <c r="E166" s="46"/>
       <c r="F166" s="46"/>
@@ -13779,7 +13728,7 @@
       <c r="J166" s="46"/>
       <c r="K166" s="48"/>
       <c r="L166" s="46"/>
-      <c r="M166" s="100"/>
+      <c r="M166" s="95"/>
       <c r="N166" s="73"/>
       <c r="O166" s="73"/>
       <c r="P166" s="73"/>
@@ -13843,8 +13792,8 @@
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="35"/>
-      <c r="B167" s="95"/>
-      <c r="C167" s="75"/>
+      <c r="B167" s="44"/>
+      <c r="C167" s="74"/>
       <c r="D167" s="46"/>
       <c r="E167" s="46"/>
       <c r="F167" s="46"/>
@@ -13854,7 +13803,7 @@
       <c r="J167" s="46"/>
       <c r="K167" s="48"/>
       <c r="L167" s="46"/>
-      <c r="M167" s="100"/>
+      <c r="M167" s="95"/>
       <c r="N167" s="73"/>
       <c r="O167" s="73"/>
       <c r="P167" s="73"/>
@@ -13918,8 +13867,8 @@
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="35"/>
-      <c r="B168" s="95"/>
-      <c r="C168" s="75"/>
+      <c r="B168" s="44"/>
+      <c r="C168" s="74"/>
       <c r="D168" s="46"/>
       <c r="E168" s="46"/>
       <c r="F168" s="46"/>
@@ -13929,7 +13878,7 @@
       <c r="J168" s="46"/>
       <c r="K168" s="48"/>
       <c r="L168" s="46"/>
-      <c r="M168" s="100"/>
+      <c r="M168" s="95"/>
       <c r="N168" s="73"/>
       <c r="O168" s="73"/>
       <c r="P168" s="73"/>
@@ -13993,8 +13942,8 @@
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="35"/>
-      <c r="B169" s="95"/>
-      <c r="C169" s="75"/>
+      <c r="B169" s="44"/>
+      <c r="C169" s="74"/>
       <c r="D169" s="46"/>
       <c r="E169" s="46"/>
       <c r="F169" s="46"/>
@@ -14004,7 +13953,7 @@
       <c r="J169" s="46"/>
       <c r="K169" s="48"/>
       <c r="L169" s="46"/>
-      <c r="M169" s="100"/>
+      <c r="M169" s="95"/>
       <c r="N169" s="73"/>
       <c r="O169" s="73"/>
       <c r="P169" s="73"/>
@@ -14068,8 +14017,8 @@
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="35"/>
-      <c r="B170" s="95"/>
-      <c r="C170" s="75"/>
+      <c r="B170" s="44"/>
+      <c r="C170" s="74"/>
       <c r="D170" s="46"/>
       <c r="E170" s="46"/>
       <c r="F170" s="46"/>
@@ -14079,7 +14028,7 @@
       <c r="J170" s="46"/>
       <c r="K170" s="48"/>
       <c r="L170" s="46"/>
-      <c r="M170" s="100"/>
+      <c r="M170" s="95"/>
       <c r="N170" s="73"/>
       <c r="O170" s="73"/>
       <c r="P170" s="73"/>
@@ -14143,8 +14092,8 @@
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="35"/>
-      <c r="B171" s="95"/>
-      <c r="C171" s="75"/>
+      <c r="B171" s="44"/>
+      <c r="C171" s="74"/>
       <c r="D171" s="46"/>
       <c r="E171" s="46"/>
       <c r="F171" s="46"/>
@@ -14154,7 +14103,7 @@
       <c r="J171" s="46"/>
       <c r="K171" s="48"/>
       <c r="L171" s="46"/>
-      <c r="M171" s="100"/>
+      <c r="M171" s="95"/>
       <c r="N171" s="73"/>
       <c r="O171" s="73"/>
       <c r="P171" s="73"/>
@@ -14218,8 +14167,8 @@
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="35"/>
-      <c r="B172" s="95"/>
-      <c r="C172" s="75"/>
+      <c r="B172" s="44"/>
+      <c r="C172" s="74"/>
       <c r="D172" s="46"/>
       <c r="E172" s="46"/>
       <c r="F172" s="46"/>
@@ -14229,7 +14178,7 @@
       <c r="J172" s="46"/>
       <c r="K172" s="48"/>
       <c r="L172" s="46"/>
-      <c r="M172" s="100"/>
+      <c r="M172" s="95"/>
       <c r="N172" s="73"/>
       <c r="O172" s="73"/>
       <c r="P172" s="73"/>
@@ -14293,8 +14242,8 @@
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="35"/>
-      <c r="B173" s="95"/>
-      <c r="C173" s="75"/>
+      <c r="B173" s="44"/>
+      <c r="C173" s="74"/>
       <c r="D173" s="46"/>
       <c r="E173" s="46"/>
       <c r="F173" s="46"/>
@@ -14304,7 +14253,7 @@
       <c r="J173" s="46"/>
       <c r="K173" s="48"/>
       <c r="L173" s="46"/>
-      <c r="M173" s="100"/>
+      <c r="M173" s="95"/>
       <c r="N173" s="73"/>
       <c r="O173" s="73"/>
       <c r="P173" s="73"/>
@@ -14368,8 +14317,8 @@
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="35"/>
-      <c r="B174" s="95"/>
-      <c r="C174" s="75"/>
+      <c r="B174" s="44"/>
+      <c r="C174" s="74"/>
       <c r="D174" s="46"/>
       <c r="E174" s="46"/>
       <c r="F174" s="46"/>
@@ -14379,7 +14328,7 @@
       <c r="J174" s="46"/>
       <c r="K174" s="48"/>
       <c r="L174" s="46"/>
-      <c r="M174" s="100"/>
+      <c r="M174" s="95"/>
       <c r="N174" s="73"/>
       <c r="O174" s="73"/>
       <c r="P174" s="73"/>
@@ -14443,8 +14392,8 @@
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="35"/>
-      <c r="B175" s="95"/>
-      <c r="C175" s="75"/>
+      <c r="B175" s="44"/>
+      <c r="C175" s="74"/>
       <c r="D175" s="46"/>
       <c r="E175" s="46"/>
       <c r="F175" s="46"/>
@@ -14454,7 +14403,7 @@
       <c r="J175" s="46"/>
       <c r="K175" s="48"/>
       <c r="L175" s="46"/>
-      <c r="M175" s="100"/>
+      <c r="M175" s="95"/>
       <c r="N175" s="73"/>
       <c r="O175" s="73"/>
       <c r="P175" s="73"/>
@@ -14518,7 +14467,7 @@
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="35"/>
-      <c r="B176" s="95"/>
+      <c r="B176" s="44"/>
       <c r="C176" s="45"/>
       <c r="D176" s="46"/>
       <c r="E176" s="46"/>
@@ -14529,7 +14478,7 @@
       <c r="J176" s="46"/>
       <c r="K176" s="48"/>
       <c r="L176" s="46"/>
-      <c r="M176" s="89"/>
+      <c r="M176" s="86"/>
       <c r="N176" s="73"/>
       <c r="O176" s="73"/>
       <c r="P176" s="73"/>
@@ -14593,18 +14542,18 @@
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="35"/>
-      <c r="B177" s="95"/>
+      <c r="B177" s="44"/>
       <c r="C177" s="45"/>
-      <c r="D177" s="101"/>
-      <c r="E177" s="101"/>
+      <c r="D177" s="96"/>
+      <c r="E177" s="96"/>
       <c r="F177" s="46"/>
-      <c r="G177" s="101"/>
-      <c r="H177" s="101"/>
+      <c r="G177" s="96"/>
+      <c r="H177" s="96"/>
       <c r="I177" s="58"/>
       <c r="J177" s="46"/>
       <c r="K177" s="48"/>
       <c r="L177" s="46"/>
-      <c r="M177" s="89"/>
+      <c r="M177" s="86"/>
       <c r="N177" s="73"/>
       <c r="O177" s="73"/>
       <c r="P177" s="73"/>
@@ -14668,18 +14617,18 @@
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="35"/>
-      <c r="B178" s="95"/>
+      <c r="B178" s="44"/>
       <c r="C178" s="45"/>
       <c r="D178" s="46"/>
       <c r="E178" s="46"/>
       <c r="F178" s="46"/>
       <c r="G178" s="46"/>
-      <c r="H178" s="101"/>
+      <c r="H178" s="96"/>
       <c r="I178" s="58"/>
       <c r="J178" s="46"/>
       <c r="K178" s="48"/>
       <c r="L178" s="46"/>
-      <c r="M178" s="89"/>
+      <c r="M178" s="86"/>
       <c r="N178" s="73"/>
       <c r="O178" s="73"/>
       <c r="P178" s="73"/>
@@ -14743,18 +14692,18 @@
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="35"/>
-      <c r="B179" s="95"/>
+      <c r="B179" s="44"/>
       <c r="C179" s="45"/>
-      <c r="D179" s="101"/>
+      <c r="D179" s="96"/>
       <c r="E179" s="46"/>
       <c r="F179" s="46"/>
       <c r="G179" s="46"/>
-      <c r="H179" s="101"/>
+      <c r="H179" s="96"/>
       <c r="I179" s="58"/>
       <c r="J179" s="46"/>
       <c r="K179" s="48"/>
       <c r="L179" s="46"/>
-      <c r="M179" s="89"/>
+      <c r="M179" s="86"/>
       <c r="N179" s="73"/>
       <c r="O179" s="73"/>
       <c r="P179" s="73"/>
@@ -14818,18 +14767,18 @@
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="35"/>
-      <c r="B180" s="95"/>
+      <c r="B180" s="44"/>
       <c r="C180" s="45"/>
-      <c r="D180" s="101"/>
+      <c r="D180" s="96"/>
       <c r="E180" s="46"/>
       <c r="F180" s="46"/>
       <c r="G180" s="46"/>
-      <c r="H180" s="101"/>
+      <c r="H180" s="96"/>
       <c r="I180" s="63"/>
       <c r="J180" s="63"/>
       <c r="K180" s="48"/>
       <c r="L180" s="46"/>
-      <c r="M180" s="89"/>
+      <c r="M180" s="86"/>
       <c r="N180" s="73"/>
       <c r="O180" s="73"/>
       <c r="P180" s="73"/>
@@ -14893,18 +14842,18 @@
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="35"/>
-      <c r="B181" s="95"/>
+      <c r="B181" s="44"/>
       <c r="C181" s="45"/>
-      <c r="D181" s="101"/>
+      <c r="D181" s="96"/>
       <c r="E181" s="46"/>
       <c r="F181" s="46"/>
       <c r="G181" s="46"/>
-      <c r="H181" s="101"/>
+      <c r="H181" s="96"/>
       <c r="I181" s="58"/>
       <c r="J181" s="46"/>
       <c r="K181" s="48"/>
       <c r="L181" s="46"/>
-      <c r="M181" s="89"/>
+      <c r="M181" s="86"/>
       <c r="N181" s="73"/>
       <c r="O181" s="73"/>
       <c r="P181" s="73"/>
@@ -14968,18 +14917,18 @@
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="35"/>
-      <c r="B182" s="95"/>
+      <c r="B182" s="44"/>
       <c r="C182" s="45"/>
-      <c r="D182" s="101"/>
+      <c r="D182" s="96"/>
       <c r="E182" s="46"/>
       <c r="F182" s="46"/>
       <c r="G182" s="46"/>
-      <c r="H182" s="101"/>
+      <c r="H182" s="96"/>
       <c r="I182" s="58"/>
       <c r="J182" s="46"/>
       <c r="K182" s="48"/>
       <c r="L182" s="46"/>
-      <c r="M182" s="89"/>
+      <c r="M182" s="86"/>
       <c r="N182" s="73"/>
       <c r="O182" s="73"/>
       <c r="P182" s="73"/>
@@ -15043,7 +14992,7 @@
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="35"/>
-      <c r="B183" s="95"/>
+      <c r="B183" s="44"/>
       <c r="C183" s="45"/>
       <c r="D183" s="55"/>
       <c r="E183" s="55"/>
@@ -15118,8 +15067,8 @@
     </row>
     <row r="184" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="35"/>
-      <c r="B184" s="95"/>
-      <c r="C184" s="75"/>
+      <c r="B184" s="44"/>
+      <c r="C184" s="74"/>
       <c r="D184" s="46"/>
       <c r="E184" s="46"/>
       <c r="F184" s="46"/>
@@ -15193,8 +15142,8 @@
     </row>
     <row r="185" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="35"/>
-      <c r="B185" s="95"/>
-      <c r="C185" s="75"/>
+      <c r="B185" s="44"/>
+      <c r="C185" s="74"/>
       <c r="D185" s="46"/>
       <c r="E185" s="46"/>
       <c r="F185" s="46"/>
@@ -15268,8 +15217,8 @@
     </row>
     <row r="186" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="35"/>
-      <c r="B186" s="95"/>
-      <c r="C186" s="75"/>
+      <c r="B186" s="44"/>
+      <c r="C186" s="74"/>
       <c r="D186" s="46"/>
       <c r="E186" s="46"/>
       <c r="F186" s="46"/>
@@ -15343,8 +15292,8 @@
     </row>
     <row r="187" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="35"/>
-      <c r="B187" s="95"/>
-      <c r="C187" s="75"/>
+      <c r="B187" s="44"/>
+      <c r="C187" s="74"/>
       <c r="D187" s="46"/>
       <c r="E187" s="46"/>
       <c r="F187" s="46"/>
@@ -15418,8 +15367,8 @@
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="35"/>
-      <c r="B188" s="95"/>
-      <c r="C188" s="75"/>
+      <c r="B188" s="44"/>
+      <c r="C188" s="74"/>
       <c r="D188" s="46"/>
       <c r="E188" s="46"/>
       <c r="F188" s="46"/>
@@ -15493,8 +15442,8 @@
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="35"/>
-      <c r="B189" s="95"/>
-      <c r="C189" s="75"/>
+      <c r="B189" s="44"/>
+      <c r="C189" s="74"/>
       <c r="D189" s="46"/>
       <c r="E189" s="46"/>
       <c r="F189" s="46"/>
@@ -15568,8 +15517,8 @@
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="35"/>
-      <c r="B190" s="95"/>
-      <c r="C190" s="75"/>
+      <c r="B190" s="44"/>
+      <c r="C190" s="74"/>
       <c r="D190" s="46"/>
       <c r="E190" s="46"/>
       <c r="F190" s="46"/>
@@ -15643,8 +15592,8 @@
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="35"/>
-      <c r="B191" s="95"/>
-      <c r="C191" s="75"/>
+      <c r="B191" s="44"/>
+      <c r="C191" s="74"/>
       <c r="D191" s="46"/>
       <c r="E191" s="46"/>
       <c r="F191" s="46"/>
@@ -15718,8 +15667,8 @@
     </row>
     <row r="192" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="35"/>
-      <c r="B192" s="95"/>
-      <c r="C192" s="75"/>
+      <c r="B192" s="44"/>
+      <c r="C192" s="74"/>
       <c r="D192" s="46"/>
       <c r="E192" s="46"/>
       <c r="F192" s="46"/>
@@ -15793,8 +15742,8 @@
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="35"/>
-      <c r="B193" s="95"/>
-      <c r="C193" s="75"/>
+      <c r="B193" s="44"/>
+      <c r="C193" s="74"/>
       <c r="D193" s="46"/>
       <c r="E193" s="46"/>
       <c r="F193" s="46"/>
@@ -15868,7 +15817,7 @@
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="35"/>
-      <c r="B194" s="95"/>
+      <c r="B194" s="44"/>
       <c r="C194" s="45"/>
       <c r="D194" s="46"/>
       <c r="E194" s="46"/>
@@ -15943,8 +15892,8 @@
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="35"/>
-      <c r="B195" s="95"/>
-      <c r="C195" s="102"/>
+      <c r="B195" s="44"/>
+      <c r="C195" s="97"/>
       <c r="D195" s="46"/>
       <c r="E195" s="46"/>
       <c r="F195" s="46"/>
@@ -16018,8 +15967,8 @@
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="35"/>
-      <c r="B196" s="95"/>
-      <c r="C196" s="102"/>
+      <c r="B196" s="44"/>
+      <c r="C196" s="97"/>
       <c r="D196" s="46"/>
       <c r="E196" s="46"/>
       <c r="F196" s="46"/>
@@ -16093,8 +16042,8 @@
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="35"/>
-      <c r="B197" s="95"/>
-      <c r="C197" s="102"/>
+      <c r="B197" s="44"/>
+      <c r="C197" s="97"/>
       <c r="D197" s="46"/>
       <c r="E197" s="46"/>
       <c r="F197" s="46"/>
@@ -16168,8 +16117,8 @@
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="35"/>
-      <c r="B198" s="95"/>
-      <c r="C198" s="102"/>
+      <c r="B198" s="44"/>
+      <c r="C198" s="97"/>
       <c r="D198" s="46"/>
       <c r="E198" s="46"/>
       <c r="F198" s="46"/>
@@ -16243,8 +16192,8 @@
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="35"/>
-      <c r="B199" s="95"/>
-      <c r="C199" s="102"/>
+      <c r="B199" s="44"/>
+      <c r="C199" s="97"/>
       <c r="D199" s="46"/>
       <c r="E199" s="46"/>
       <c r="F199" s="46"/>
@@ -16318,8 +16267,8 @@
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="35"/>
-      <c r="B200" s="95"/>
-      <c r="C200" s="102"/>
+      <c r="B200" s="44"/>
+      <c r="C200" s="97"/>
       <c r="D200" s="46"/>
       <c r="E200" s="46"/>
       <c r="F200" s="46"/>
@@ -16393,8 +16342,8 @@
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="35"/>
-      <c r="B201" s="95"/>
-      <c r="C201" s="102"/>
+      <c r="B201" s="44"/>
+      <c r="C201" s="97"/>
       <c r="D201" s="46"/>
       <c r="E201" s="46"/>
       <c r="F201" s="46"/>
@@ -16468,8 +16417,8 @@
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="35"/>
-      <c r="B202" s="95"/>
-      <c r="C202" s="102"/>
+      <c r="B202" s="44"/>
+      <c r="C202" s="97"/>
       <c r="D202" s="46"/>
       <c r="E202" s="46"/>
       <c r="F202" s="46"/>
@@ -16543,8 +16492,8 @@
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="35"/>
-      <c r="B203" s="95"/>
-      <c r="C203" s="102"/>
+      <c r="B203" s="44"/>
+      <c r="C203" s="97"/>
       <c r="D203" s="46"/>
       <c r="E203" s="46"/>
       <c r="F203" s="46"/>
@@ -16618,7 +16567,7 @@
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="35"/>
-      <c r="B204" s="95"/>
+      <c r="B204" s="44"/>
       <c r="C204" s="45"/>
       <c r="D204" s="46"/>
       <c r="E204" s="46"/>
@@ -16693,8 +16642,8 @@
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="35"/>
-      <c r="B205" s="95"/>
-      <c r="C205" s="75"/>
+      <c r="B205" s="44"/>
+      <c r="C205" s="74"/>
       <c r="D205" s="46"/>
       <c r="E205" s="46"/>
       <c r="F205" s="46"/>
@@ -16768,8 +16717,8 @@
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="35"/>
-      <c r="B206" s="95"/>
-      <c r="C206" s="75"/>
+      <c r="B206" s="44"/>
+      <c r="C206" s="74"/>
       <c r="D206" s="46"/>
       <c r="E206" s="46"/>
       <c r="F206" s="46"/>
@@ -16843,8 +16792,8 @@
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="35"/>
-      <c r="B207" s="95"/>
-      <c r="C207" s="75"/>
+      <c r="B207" s="44"/>
+      <c r="C207" s="74"/>
       <c r="D207" s="46"/>
       <c r="E207" s="46"/>
       <c r="F207" s="46"/>
@@ -16918,8 +16867,8 @@
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="35"/>
-      <c r="B208" s="95"/>
-      <c r="C208" s="75"/>
+      <c r="B208" s="44"/>
+      <c r="C208" s="74"/>
       <c r="D208" s="46"/>
       <c r="E208" s="46"/>
       <c r="F208" s="46"/>
@@ -16993,8 +16942,8 @@
     </row>
     <row r="209" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="35"/>
-      <c r="B209" s="95"/>
-      <c r="C209" s="75"/>
+      <c r="B209" s="44"/>
+      <c r="C209" s="74"/>
       <c r="D209" s="46"/>
       <c r="E209" s="46"/>
       <c r="F209" s="46"/>
@@ -17068,8 +17017,8 @@
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="35"/>
-      <c r="B210" s="95"/>
-      <c r="C210" s="75"/>
+      <c r="B210" s="44"/>
+      <c r="C210" s="74"/>
       <c r="D210" s="46"/>
       <c r="E210" s="46"/>
       <c r="F210" s="46"/>
@@ -17143,8 +17092,8 @@
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="35"/>
-      <c r="B211" s="95"/>
-      <c r="C211" s="75"/>
+      <c r="B211" s="44"/>
+      <c r="C211" s="74"/>
       <c r="D211" s="46"/>
       <c r="E211" s="46"/>
       <c r="F211" s="46"/>
@@ -17218,8 +17167,8 @@
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="35"/>
-      <c r="B212" s="95"/>
-      <c r="C212" s="75"/>
+      <c r="B212" s="44"/>
+      <c r="C212" s="74"/>
       <c r="D212" s="46"/>
       <c r="E212" s="46"/>
       <c r="F212" s="46"/>
@@ -17293,7 +17242,7 @@
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="35"/>
-      <c r="B213" s="95"/>
+      <c r="B213" s="44"/>
       <c r="C213" s="45"/>
       <c r="D213" s="46"/>
       <c r="E213" s="46"/>
@@ -17368,8 +17317,8 @@
     </row>
     <row r="214" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="35"/>
-      <c r="B214" s="95"/>
-      <c r="C214" s="75"/>
+      <c r="B214" s="44"/>
+      <c r="C214" s="74"/>
       <c r="D214" s="46"/>
       <c r="E214" s="46"/>
       <c r="F214" s="46"/>
@@ -17443,8 +17392,8 @@
     </row>
     <row r="215" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="35"/>
-      <c r="B215" s="95"/>
-      <c r="C215" s="75"/>
+      <c r="B215" s="44"/>
+      <c r="C215" s="74"/>
       <c r="D215" s="46"/>
       <c r="E215" s="46"/>
       <c r="F215" s="46"/>
@@ -17518,8 +17467,8 @@
     </row>
     <row r="216" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="35"/>
-      <c r="B216" s="95"/>
-      <c r="C216" s="75"/>
+      <c r="B216" s="44"/>
+      <c r="C216" s="74"/>
       <c r="D216" s="46"/>
       <c r="E216" s="46"/>
       <c r="F216" s="46"/>
@@ -17593,8 +17542,8 @@
     </row>
     <row r="217" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="35"/>
-      <c r="B217" s="95"/>
-      <c r="C217" s="75"/>
+      <c r="B217" s="44"/>
+      <c r="C217" s="74"/>
       <c r="D217" s="46"/>
       <c r="E217" s="46"/>
       <c r="F217" s="46"/>
@@ -17668,8 +17617,8 @@
     </row>
     <row r="218" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="35"/>
-      <c r="B218" s="95"/>
-      <c r="C218" s="75"/>
+      <c r="B218" s="44"/>
+      <c r="C218" s="74"/>
       <c r="D218" s="46"/>
       <c r="E218" s="46"/>
       <c r="F218" s="46"/>
@@ -17743,8 +17692,8 @@
     </row>
     <row r="219" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="35"/>
-      <c r="B219" s="95"/>
-      <c r="C219" s="75"/>
+      <c r="B219" s="44"/>
+      <c r="C219" s="74"/>
       <c r="D219" s="46"/>
       <c r="E219" s="46"/>
       <c r="F219" s="46"/>
@@ -17818,10 +17767,10 @@
     </row>
     <row r="220" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="35"/>
-      <c r="B220" s="95"/>
-      <c r="C220" s="75"/>
+      <c r="B220" s="44"/>
+      <c r="C220" s="74"/>
       <c r="D220" s="46"/>
-      <c r="E220" s="101"/>
+      <c r="E220" s="96"/>
       <c r="F220" s="46"/>
       <c r="G220" s="46"/>
       <c r="H220" s="46"/>
@@ -17893,8 +17842,8 @@
     </row>
     <row r="221" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="35"/>
-      <c r="B221" s="95"/>
-      <c r="C221" s="75"/>
+      <c r="B221" s="44"/>
+      <c r="C221" s="74"/>
       <c r="D221" s="46"/>
       <c r="E221" s="46"/>
       <c r="F221" s="46"/>
@@ -17968,8 +17917,8 @@
     </row>
     <row r="222" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="35"/>
-      <c r="B222" s="95"/>
-      <c r="C222" s="75"/>
+      <c r="B222" s="44"/>
+      <c r="C222" s="74"/>
       <c r="D222" s="46"/>
       <c r="E222" s="46"/>
       <c r="F222" s="46"/>
@@ -18043,8 +17992,8 @@
     </row>
     <row r="223" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="35"/>
-      <c r="B223" s="95"/>
-      <c r="C223" s="75"/>
+      <c r="B223" s="44"/>
+      <c r="C223" s="74"/>
       <c r="D223" s="46"/>
       <c r="E223" s="46"/>
       <c r="F223" s="46"/>
@@ -18118,7 +18067,7 @@
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="35"/>
-      <c r="B224" s="95"/>
+      <c r="B224" s="44"/>
       <c r="C224" s="45"/>
       <c r="D224" s="46"/>
       <c r="E224" s="46"/>
@@ -18193,8 +18142,8 @@
     </row>
     <row r="225" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="35"/>
-      <c r="B225" s="95"/>
-      <c r="C225" s="102"/>
+      <c r="B225" s="44"/>
+      <c r="C225" s="97"/>
       <c r="D225" s="46"/>
       <c r="E225" s="46"/>
       <c r="F225" s="46"/>
@@ -18265,8 +18214,8 @@
     </row>
     <row r="226" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="35"/>
-      <c r="B226" s="95"/>
-      <c r="C226" s="102"/>
+      <c r="B226" s="44"/>
+      <c r="C226" s="97"/>
       <c r="D226" s="46"/>
       <c r="E226" s="46"/>
       <c r="F226" s="46"/>
@@ -18337,13 +18286,13 @@
     </row>
     <row r="227" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="35"/>
-      <c r="B227" s="95"/>
-      <c r="C227" s="102"/>
-      <c r="D227" s="89"/>
-      <c r="E227" s="89"/>
-      <c r="F227" s="89"/>
-      <c r="G227" s="89"/>
-      <c r="H227" s="89"/>
+      <c r="B227" s="44"/>
+      <c r="C227" s="97"/>
+      <c r="D227" s="86"/>
+      <c r="E227" s="86"/>
+      <c r="F227" s="86"/>
+      <c r="G227" s="86"/>
+      <c r="H227" s="86"/>
       <c r="I227" s="46"/>
       <c r="J227" s="46"/>
       <c r="K227" s="48"/>
@@ -18409,8 +18358,8 @@
     </row>
     <row r="228" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="35"/>
-      <c r="B228" s="95"/>
-      <c r="C228" s="102"/>
+      <c r="B228" s="44"/>
+      <c r="C228" s="97"/>
       <c r="D228" s="46"/>
       <c r="E228" s="46"/>
       <c r="F228" s="46"/>
@@ -18481,8 +18430,8 @@
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="35"/>
-      <c r="B229" s="95"/>
-      <c r="C229" s="102"/>
+      <c r="B229" s="44"/>
+      <c r="C229" s="97"/>
       <c r="D229" s="46"/>
       <c r="E229" s="46"/>
       <c r="F229" s="46"/>
@@ -18553,8 +18502,8 @@
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="35"/>
-      <c r="B230" s="95"/>
-      <c r="C230" s="102"/>
+      <c r="B230" s="44"/>
+      <c r="C230" s="97"/>
       <c r="D230" s="46"/>
       <c r="E230" s="46"/>
       <c r="F230" s="46"/>
@@ -18625,8 +18574,8 @@
     </row>
     <row r="231" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="35"/>
-      <c r="B231" s="95"/>
-      <c r="C231" s="102"/>
+      <c r="B231" s="44"/>
+      <c r="C231" s="97"/>
       <c r="D231" s="46"/>
       <c r="E231" s="46"/>
       <c r="F231" s="46"/>
@@ -18697,8 +18646,8 @@
     </row>
     <row r="232" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="35"/>
-      <c r="B232" s="95"/>
-      <c r="C232" s="102"/>
+      <c r="B232" s="44"/>
+      <c r="C232" s="97"/>
       <c r="D232" s="46"/>
       <c r="E232" s="46"/>
       <c r="F232" s="46"/>
@@ -18769,8 +18718,8 @@
     </row>
     <row r="233" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="35"/>
-      <c r="B233" s="95"/>
-      <c r="C233" s="102"/>
+      <c r="B233" s="44"/>
+      <c r="C233" s="97"/>
       <c r="D233" s="46"/>
       <c r="E233" s="46"/>
       <c r="F233" s="46"/>
@@ -18841,8 +18790,8 @@
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="35"/>
-      <c r="B234" s="95"/>
-      <c r="C234" s="102"/>
+      <c r="B234" s="44"/>
+      <c r="C234" s="97"/>
       <c r="D234" s="46"/>
       <c r="E234" s="46"/>
       <c r="F234" s="46"/>
@@ -18918,8 +18867,8 @@
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="35"/>
-      <c r="B235" s="95"/>
-      <c r="C235" s="102"/>
+      <c r="B235" s="44"/>
+      <c r="C235" s="97"/>
       <c r="D235" s="46"/>
       <c r="E235" s="46"/>
       <c r="F235" s="46"/>
@@ -18995,7 +18944,7 @@
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="35"/>
-      <c r="B236" s="95"/>
+      <c r="B236" s="44"/>
       <c r="C236" s="45"/>
       <c r="D236" s="46"/>
       <c r="E236" s="46"/>
@@ -19067,7 +19016,7 @@
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="35"/>
-      <c r="B237" s="95"/>
+      <c r="B237" s="44"/>
       <c r="C237" s="45"/>
       <c r="D237" s="46"/>
       <c r="E237" s="46"/>
@@ -19139,7 +19088,7 @@
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="35"/>
-      <c r="B238" s="95"/>
+      <c r="B238" s="44"/>
       <c r="C238" s="45"/>
       <c r="D238" s="46"/>
       <c r="E238" s="46"/>
@@ -19211,7 +19160,7 @@
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="35"/>
-      <c r="B239" s="95"/>
+      <c r="B239" s="44"/>
       <c r="C239" s="45"/>
       <c r="D239" s="46"/>
       <c r="E239" s="46"/>
@@ -19283,7 +19232,7 @@
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="35"/>
-      <c r="B240" s="95"/>
+      <c r="B240" s="44"/>
       <c r="C240" s="45"/>
       <c r="D240" s="46"/>
       <c r="E240" s="46"/>
@@ -19355,7 +19304,7 @@
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="35"/>
-      <c r="B241" s="95"/>
+      <c r="B241" s="44"/>
       <c r="C241" s="45"/>
       <c r="D241" s="46"/>
       <c r="E241" s="46"/>
@@ -19427,7 +19376,7 @@
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="35"/>
-      <c r="B242" s="95"/>
+      <c r="B242" s="44"/>
       <c r="C242" s="45"/>
       <c r="D242" s="46"/>
       <c r="E242" s="46"/>
@@ -19499,7 +19448,7 @@
     </row>
     <row r="243" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="35"/>
-      <c r="B243" s="95"/>
+      <c r="B243" s="44"/>
       <c r="C243" s="45"/>
       <c r="D243" s="46"/>
       <c r="E243" s="46"/>
@@ -19571,7 +19520,7 @@
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="35"/>
-      <c r="B244" s="95"/>
+      <c r="B244" s="44"/>
       <c r="C244" s="45"/>
       <c r="D244" s="46"/>
       <c r="E244" s="46"/>
@@ -19643,9 +19592,9 @@
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="35"/>
-      <c r="B245" s="95"/>
+      <c r="B245" s="44"/>
       <c r="C245" s="45"/>
-      <c r="D245" s="101"/>
+      <c r="D245" s="96"/>
       <c r="E245" s="46"/>
       <c r="F245" s="46"/>
       <c r="G245" s="46"/>
@@ -19715,7 +19664,7 @@
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="35"/>
-      <c r="B246" s="95"/>
+      <c r="B246" s="44"/>
       <c r="C246" s="45"/>
       <c r="D246" s="46"/>
       <c r="E246" s="46"/>
@@ -19787,7 +19736,7 @@
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="35"/>
-      <c r="B247" s="95"/>
+      <c r="B247" s="44"/>
       <c r="C247" s="45"/>
       <c r="D247" s="46"/>
       <c r="E247" s="46"/>
@@ -19859,7 +19808,7 @@
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="35"/>
-      <c r="B248" s="95"/>
+      <c r="B248" s="44"/>
       <c r="C248" s="45"/>
       <c r="D248" s="46"/>
       <c r="E248" s="46"/>
@@ -19931,9 +19880,9 @@
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="35"/>
-      <c r="B249" s="95"/>
+      <c r="B249" s="44"/>
       <c r="C249" s="45"/>
-      <c r="D249" s="103"/>
+      <c r="D249" s="98"/>
       <c r="E249" s="46"/>
       <c r="F249" s="46"/>
       <c r="G249" s="46"/>
@@ -20003,7 +19952,7 @@
     </row>
     <row r="250" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="35"/>
-      <c r="B250" s="95"/>
+      <c r="B250" s="44"/>
       <c r="C250" s="68"/>
       <c r="D250" s="56"/>
       <c r="E250" s="46"/>
@@ -20013,7 +19962,7 @@
       <c r="I250" s="46"/>
       <c r="J250" s="46"/>
       <c r="K250" s="48"/>
-      <c r="L250" s="101"/>
+      <c r="L250" s="96"/>
       <c r="M250" s="46"/>
       <c r="N250" s="73"/>
       <c r="O250" s="49"/>
@@ -20075,7 +20024,7 @@
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="35"/>
-      <c r="B251" s="95"/>
+      <c r="B251" s="44"/>
       <c r="C251" s="68"/>
       <c r="D251" s="46"/>
       <c r="E251" s="46"/>
@@ -20147,7 +20096,7 @@
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="35"/>
-      <c r="B252" s="95"/>
+      <c r="B252" s="44"/>
       <c r="C252" s="68"/>
       <c r="D252" s="46"/>
       <c r="E252" s="46"/>
@@ -20219,7 +20168,7 @@
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="35"/>
-      <c r="B253" s="95"/>
+      <c r="B253" s="44"/>
       <c r="C253" s="68"/>
       <c r="D253" s="46"/>
       <c r="E253" s="46"/>
@@ -20291,7 +20240,7 @@
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="35"/>
-      <c r="B254" s="95"/>
+      <c r="B254" s="44"/>
       <c r="C254" s="68"/>
       <c r="D254" s="46"/>
       <c r="E254" s="46"/>
@@ -20363,13 +20312,13 @@
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="35"/>
-      <c r="B255" s="95"/>
+      <c r="B255" s="44"/>
       <c r="C255" s="68"/>
-      <c r="D255" s="103"/>
-      <c r="E255" s="103"/>
-      <c r="F255" s="103"/>
-      <c r="G255" s="103"/>
-      <c r="H255" s="103"/>
+      <c r="D255" s="98"/>
+      <c r="E255" s="98"/>
+      <c r="F255" s="98"/>
+      <c r="G255" s="98"/>
+      <c r="H255" s="98"/>
       <c r="I255" s="46"/>
       <c r="J255" s="46"/>
       <c r="K255" s="48"/>
@@ -20435,13 +20384,13 @@
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="35"/>
-      <c r="B256" s="95"/>
+      <c r="B256" s="44"/>
       <c r="C256" s="68"/>
-      <c r="D256" s="103"/>
-      <c r="E256" s="103"/>
-      <c r="F256" s="103"/>
-      <c r="G256" s="103"/>
-      <c r="H256" s="103"/>
+      <c r="D256" s="98"/>
+      <c r="E256" s="98"/>
+      <c r="F256" s="98"/>
+      <c r="G256" s="98"/>
+      <c r="H256" s="98"/>
       <c r="I256" s="46"/>
       <c r="J256" s="46"/>
       <c r="K256" s="48"/>
@@ -20507,7 +20456,7 @@
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="35"/>
-      <c r="B257" s="95"/>
+      <c r="B257" s="44"/>
       <c r="C257" s="68"/>
       <c r="D257" s="62"/>
       <c r="E257" s="62"/>
@@ -20579,13 +20528,13 @@
     </row>
     <row r="258" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="35"/>
-      <c r="B258" s="95"/>
+      <c r="B258" s="44"/>
       <c r="C258" s="68"/>
-      <c r="D258" s="103"/>
-      <c r="E258" s="103"/>
-      <c r="F258" s="103"/>
-      <c r="G258" s="103"/>
-      <c r="H258" s="103"/>
+      <c r="D258" s="98"/>
+      <c r="E258" s="98"/>
+      <c r="F258" s="98"/>
+      <c r="G258" s="98"/>
+      <c r="H258" s="98"/>
       <c r="I258" s="46"/>
       <c r="J258" s="46"/>
       <c r="K258" s="48"/>
@@ -20651,13 +20600,13 @@
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="35"/>
-      <c r="B259" s="95"/>
+      <c r="B259" s="44"/>
       <c r="C259" s="68"/>
-      <c r="D259" s="103"/>
-      <c r="E259" s="103"/>
-      <c r="F259" s="103"/>
-      <c r="G259" s="103"/>
-      <c r="H259" s="103"/>
+      <c r="D259" s="98"/>
+      <c r="E259" s="98"/>
+      <c r="F259" s="98"/>
+      <c r="G259" s="98"/>
+      <c r="H259" s="98"/>
       <c r="I259" s="46"/>
       <c r="J259" s="46"/>
       <c r="K259" s="48"/>
@@ -20723,14 +20672,14 @@
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="35"/>
-      <c r="B260" s="95"/>
+      <c r="B260" s="44"/>
       <c r="C260" s="45"/>
       <c r="D260" s="46"/>
       <c r="E260" s="46"/>
       <c r="F260" s="46"/>
       <c r="G260" s="46"/>
       <c r="H260" s="46"/>
-      <c r="I260" s="89"/>
+      <c r="I260" s="86"/>
       <c r="J260" s="46"/>
       <c r="K260" s="48"/>
       <c r="L260" s="46"/>
@@ -20795,7 +20744,7 @@
     </row>
     <row r="261" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="35"/>
-      <c r="B261" s="95"/>
+      <c r="B261" s="44"/>
       <c r="C261" s="68"/>
       <c r="D261" s="46"/>
       <c r="E261" s="46"/>
@@ -20867,7 +20816,7 @@
     </row>
     <row r="262" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="35"/>
-      <c r="B262" s="95"/>
+      <c r="B262" s="44"/>
       <c r="C262" s="68"/>
       <c r="D262" s="46"/>
       <c r="E262" s="46"/>
@@ -20939,7 +20888,7 @@
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="35"/>
-      <c r="B263" s="95"/>
+      <c r="B263" s="44"/>
       <c r="C263" s="68"/>
       <c r="D263" s="46"/>
       <c r="E263" s="46"/>
@@ -21011,7 +20960,7 @@
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="35"/>
-      <c r="B264" s="95"/>
+      <c r="B264" s="44"/>
       <c r="C264" s="68"/>
       <c r="D264" s="46"/>
       <c r="E264" s="46"/>
@@ -21083,7 +21032,7 @@
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="35"/>
-      <c r="B265" s="95"/>
+      <c r="B265" s="44"/>
       <c r="C265" s="68"/>
       <c r="D265" s="46"/>
       <c r="E265" s="46"/>
@@ -21155,7 +21104,7 @@
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="35"/>
-      <c r="B266" s="95"/>
+      <c r="B266" s="44"/>
       <c r="C266" s="45"/>
       <c r="D266" s="46"/>
       <c r="E266" s="46"/>
@@ -21227,7 +21176,7 @@
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="35"/>
-      <c r="B267" s="95"/>
+      <c r="B267" s="44"/>
       <c r="C267" s="68"/>
       <c r="D267" s="46"/>
       <c r="E267" s="46"/>
@@ -21299,7 +21248,7 @@
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="35"/>
-      <c r="B268" s="95"/>
+      <c r="B268" s="44"/>
       <c r="C268" s="68"/>
       <c r="D268" s="46"/>
       <c r="E268" s="46"/>
@@ -21371,7 +21320,7 @@
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="35"/>
-      <c r="B269" s="95"/>
+      <c r="B269" s="44"/>
       <c r="C269" s="68"/>
       <c r="D269" s="46"/>
       <c r="E269" s="46"/>
@@ -21443,7 +21392,7 @@
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="35"/>
-      <c r="B270" s="95"/>
+      <c r="B270" s="44"/>
       <c r="C270" s="68"/>
       <c r="D270" s="46"/>
       <c r="E270" s="46"/>
@@ -21515,7 +21464,7 @@
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="35"/>
-      <c r="B271" s="95"/>
+      <c r="B271" s="44"/>
       <c r="C271" s="68"/>
       <c r="D271" s="46"/>
       <c r="E271" s="46"/>
@@ -21587,7 +21536,7 @@
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="35"/>
-      <c r="B272" s="95"/>
+      <c r="B272" s="44"/>
       <c r="C272" s="68"/>
       <c r="D272" s="46"/>
       <c r="E272" s="46"/>
@@ -21659,18 +21608,18 @@
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="35"/>
-      <c r="B273" s="95"/>
-      <c r="C273" s="104"/>
-      <c r="D273" s="105"/>
-      <c r="E273" s="105"/>
-      <c r="F273" s="105"/>
-      <c r="G273" s="105"/>
+      <c r="B273" s="44"/>
+      <c r="C273" s="99"/>
+      <c r="D273" s="100"/>
+      <c r="E273" s="100"/>
+      <c r="F273" s="100"/>
+      <c r="G273" s="100"/>
       <c r="H273" s="46"/>
-      <c r="I273" s="106"/>
-      <c r="J273" s="106"/>
-      <c r="K273" s="106"/>
-      <c r="L273" s="107"/>
-      <c r="M273" s="105"/>
+      <c r="I273" s="101"/>
+      <c r="J273" s="101"/>
+      <c r="K273" s="101"/>
+      <c r="L273" s="102"/>
+      <c r="M273" s="100"/>
       <c r="N273" s="73"/>
       <c r="O273" s="73"/>
       <c r="P273" s="73"/>
@@ -21699,7 +21648,7 @@
       <c r="AM273" s="73"/>
       <c r="AN273" s="73"/>
       <c r="AO273" s="50"/>
-      <c r="AP273" s="108"/>
+      <c r="AP273" s="103"/>
       <c r="AQ273" s="60"/>
       <c r="AR273" s="60"/>
       <c r="AS273" s="60"/>
@@ -21736,18 +21685,18 @@
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="35"/>
-      <c r="B274" s="95"/>
-      <c r="C274" s="104"/>
-      <c r="D274" s="105"/>
-      <c r="E274" s="105"/>
-      <c r="F274" s="105"/>
-      <c r="G274" s="105"/>
+      <c r="B274" s="44"/>
+      <c r="C274" s="99"/>
+      <c r="D274" s="100"/>
+      <c r="E274" s="100"/>
+      <c r="F274" s="100"/>
+      <c r="G274" s="100"/>
       <c r="H274" s="46"/>
-      <c r="I274" s="106"/>
-      <c r="J274" s="106"/>
-      <c r="K274" s="106"/>
-      <c r="L274" s="107"/>
-      <c r="M274" s="105"/>
+      <c r="I274" s="101"/>
+      <c r="J274" s="101"/>
+      <c r="K274" s="101"/>
+      <c r="L274" s="102"/>
+      <c r="M274" s="100"/>
       <c r="N274" s="50"/>
       <c r="O274" s="51"/>
       <c r="P274" s="50"/>
@@ -21776,7 +21725,7 @@
       <c r="AM274" s="50"/>
       <c r="AN274" s="50"/>
       <c r="AO274" s="50"/>
-      <c r="AP274" s="108"/>
+      <c r="AP274" s="103"/>
       <c r="AQ274" s="60"/>
       <c r="AR274" s="60"/>
       <c r="AS274" s="60"/>
@@ -21808,18 +21757,18 @@
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="35"/>
-      <c r="B275" s="95"/>
-      <c r="C275" s="106"/>
-      <c r="D275" s="106"/>
-      <c r="E275" s="105"/>
-      <c r="F275" s="105"/>
-      <c r="G275" s="105"/>
-      <c r="H275" s="105"/>
-      <c r="I275" s="106"/>
-      <c r="J275" s="106"/>
-      <c r="K275" s="106"/>
-      <c r="L275" s="107"/>
-      <c r="M275" s="105"/>
+      <c r="B275" s="44"/>
+      <c r="C275" s="101"/>
+      <c r="D275" s="101"/>
+      <c r="E275" s="100"/>
+      <c r="F275" s="100"/>
+      <c r="G275" s="100"/>
+      <c r="H275" s="100"/>
+      <c r="I275" s="101"/>
+      <c r="J275" s="101"/>
+      <c r="K275" s="101"/>
+      <c r="L275" s="102"/>
+      <c r="M275" s="100"/>
       <c r="N275" s="50"/>
       <c r="O275" s="50"/>
       <c r="P275" s="50"/>
@@ -21887,7 +21836,7 @@
       <c r="H276" s="64"/>
       <c r="I276" s="64"/>
       <c r="J276" s="64"/>
-      <c r="K276" s="87"/>
+      <c r="K276" s="84"/>
       <c r="L276" s="64"/>
       <c r="M276" s="64"/>
       <c r="N276" s="64"/>
@@ -21956,7 +21905,7 @@
       <c r="H277" s="64"/>
       <c r="I277" s="64"/>
       <c r="J277" s="64"/>
-      <c r="K277" s="87"/>
+      <c r="K277" s="84"/>
       <c r="L277" s="64"/>
       <c r="M277" s="64"/>
       <c r="N277" s="64"/>
@@ -22025,7 +21974,7 @@
       <c r="H278" s="64"/>
       <c r="I278" s="64"/>
       <c r="J278" s="64"/>
-      <c r="K278" s="87"/>
+      <c r="K278" s="84"/>
       <c r="L278" s="64"/>
       <c r="M278" s="64"/>
       <c r="N278" s="64"/>
@@ -24276,7 +24225,7 @@
       <c r="K1008" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="23">
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="D3:D6"/>
@@ -24300,9 +24249,6 @@
     <mergeCell ref="BR3:BR5"/>
     <mergeCell ref="N6:AN6"/>
     <mergeCell ref="AP6:BP6"/>
-    <mergeCell ref="B7:B121"/>
-    <mergeCell ref="B133:B159"/>
-    <mergeCell ref="B161:B275"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
